--- a/Data_inputs/LAFPP_PlanInfo_2016.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo_2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="9" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="10" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="301">
   <si>
     <t>Notes</t>
   </si>
@@ -15355,7 +15355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -15972,7 +15972,7 @@
   <dimension ref="B2:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="G2" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16311,10 +16311,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:J15"/>
+  <dimension ref="C2:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16326,7 +16326,7 @@
     <col min="10" max="10" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E2" s="185" t="s">
         <v>272</v>
       </c>
@@ -16336,8 +16336,11 @@
         <v>273</v>
       </c>
       <c r="I2" s="186"/>
-    </row>
-    <row r="3" spans="3:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="148" t="s">
         <v>266</v>
       </c>
@@ -16363,7 +16366,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2005</v>
       </c>
@@ -16376,7 +16379,7 @@
       <c r="H4" s="145"/>
       <c r="J4" s="147"/>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>2006</v>
       </c>
@@ -16390,8 +16393,11 @@
       <c r="G5" s="145"/>
       <c r="H5" s="145"/>
       <c r="J5" s="147"/>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>223435215</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2007</v>
       </c>
@@ -16405,8 +16411,11 @@
       <c r="G6" s="145"/>
       <c r="H6" s="145"/>
       <c r="J6" s="147"/>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>258599585</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2008</v>
       </c>
@@ -16420,8 +16429,11 @@
       <c r="G7" s="145"/>
       <c r="H7" s="145"/>
       <c r="J7" s="147"/>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>239897657</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>2009</v>
       </c>
@@ -16435,8 +16447,11 @@
       <c r="G8" s="145"/>
       <c r="H8" s="145"/>
       <c r="J8" s="147"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>244642188</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>2010</v>
       </c>
@@ -16459,8 +16474,15 @@
         <f>H9/F9</f>
         <v>0.84975931086901446</v>
       </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>270831136</v>
+      </c>
+      <c r="M9">
+        <f>H9/L9</f>
+        <v>1.2384100475065023</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>2011</v>
       </c>
@@ -16482,8 +16504,15 @@
         <f t="shared" ref="J10:J14" si="0">H10/F10</f>
         <v>1.0141518211671039</v>
       </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>330921794</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:M13" si="1">H10/L10</f>
+        <v>1.4580441081496132</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>2012</v>
       </c>
@@ -16512,8 +16541,15 @@
         <f t="shared" si="0"/>
         <v>0.82382059624108606</v>
       </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>369881896</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>1.1349733699861861</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>2013</v>
       </c>
@@ -16528,22 +16564,29 @@
         <v>579875261</v>
       </c>
       <c r="G12" s="147">
-        <f t="shared" ref="G12:G14" si="1">F12/F11-1</f>
+        <f t="shared" ref="G12:G14" si="2">F12/F11-1</f>
         <v>0.13793768357963354</v>
       </c>
       <c r="H12" s="145">
         <v>450746001</v>
       </c>
       <c r="I12" s="147">
-        <f t="shared" ref="I12:I14" si="2">H12/H11-1</f>
+        <f t="shared" ref="I12:I14" si="3">H12/H11-1</f>
         <v>7.3700450881011736E-2</v>
       </c>
       <c r="J12" s="147">
         <f t="shared" si="0"/>
         <v>0.77731545267629554</v>
       </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>435722804</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>1.0344787944585063</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>2014</v>
       </c>
@@ -16558,22 +16601,29 @@
         <v>629359763</v>
       </c>
       <c r="G13" s="147">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5336459973587298E-2</v>
       </c>
       <c r="H13" s="145">
         <v>500035962</v>
       </c>
       <c r="I13" s="147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1093519651658541</v>
       </c>
       <c r="J13" s="147">
         <f t="shared" si="0"/>
         <v>0.79451530173529694</v>
       </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>493428859</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>1.0133901835684889</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>2015</v>
       </c>
@@ -16585,14 +16635,14 @@
         <v>627088183</v>
       </c>
       <c r="G14" s="147">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.6093505393035574E-3</v>
       </c>
       <c r="H14" s="145">
         <v>554863405</v>
       </c>
       <c r="I14" s="147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10964699974919001</v>
       </c>
       <c r="J14" s="147">
@@ -16600,7 +16650,7 @@
         <v>0.88482516501191988</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F15" s="145"/>
       <c r="G15" s="145"/>
       <c r="H15" s="145"/>

--- a/Data_inputs/LAFPP_PlanInfo_2016.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo_2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="10" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="316">
   <si>
     <t>Notes</t>
   </si>
@@ -2475,9 +2475,6 @@
     <t>growth rate</t>
   </si>
   <si>
-    <t>ADC(?) of pension</t>
-  </si>
-  <si>
     <t>ERC:
 LACERS/LAFPP</t>
   </si>
@@ -2553,20 +2550,73 @@
   </si>
   <si>
     <t>D36</t>
+  </si>
+  <si>
+    <t>AV2006</t>
+  </si>
+  <si>
+    <t>FY starting in</t>
+  </si>
+  <si>
+    <t>AV2007</t>
+  </si>
+  <si>
+    <t>AV2008</t>
+  </si>
+  <si>
+    <t>AV2009</t>
+  </si>
+  <si>
+    <t>AV2010</t>
+  </si>
+  <si>
+    <t>AV2011</t>
+  </si>
+  <si>
+    <t>AV2012</t>
+  </si>
+  <si>
+    <t>AV2013</t>
+  </si>
+  <si>
+    <t>AV2014</t>
+  </si>
+  <si>
+    <t>AV2015</t>
+  </si>
+  <si>
+    <t>Source of Recommended ERC</t>
+  </si>
+  <si>
+    <t>ADC/recom.ERC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: AV2006 means the actuarial valuation report for FY2005-2006. The same for other AVs. </t>
+  </si>
+  <si>
+    <t>Recommended ERC (1-year lag)
+(eg. AV2016 page 59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pension ADC
+(AV2016 p.60)
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="168" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2744,8 +2794,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2776,8 +2832,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2814,6 +2876,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2821,7 +2892,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3182,9 +3253,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3260,6 +3328,10 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3311,6 +3383,49 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="26" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="26" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="15" fillId="6" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -3329,6 +3444,934 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fiscal2!$K$5:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>261635491</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>238697929</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250516858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>277092251</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>321593433</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>375448092</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>440698260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>480332251</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>478385438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86D4-4333-82E0-A7923F0A2475}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fiscal2!$L$5:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>232876538</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217935879</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>238683312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>290310941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>368197823</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>436274233</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>464480855</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>498094638</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>493428859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-86D4-4333-82E0-A7923F0A2475}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="532208416"/>
+        <c:axId val="532210056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="532208416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532210056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="532210056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532208416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4126,6 +5169,42 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78AFFA9C-A508-4635-95DA-F8BCDE7DE92B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5300,7 +6379,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5322,7 +6401,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5370,7 +6449,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5418,7 +6497,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5426,7 +6505,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5455,7 +6534,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>45</v>
@@ -5463,42 +6542,42 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>290</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>292</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>294</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" s="32" t="s">
         <v>296</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>298</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -5536,8 +6615,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:G10"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5593,15 +6672,15 @@
       <c r="A5" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="173"/>
-      <c r="D5" s="170" t="s">
+      <c r="C5" s="174"/>
+      <c r="D5" s="171" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
       <c r="G5" s="42" t="s">
         <v>75</v>
       </c>
@@ -5624,10 +6703,10 @@
       <c r="E6" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="174" t="s">
+      <c r="F6" s="175" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="174"/>
+      <c r="G6" s="175"/>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
     </row>
@@ -5651,10 +6730,10 @@
       <c r="C9" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="171" t="s">
+      <c r="D9" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="171"/>
+      <c r="E9" s="172"/>
       <c r="F9" s="38" t="s">
         <v>61</v>
       </c>
@@ -5666,16 +6745,16 @@
       <c r="A10" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="175"/>
-      <c r="D10" s="175" t="s">
+      <c r="C10" s="176"/>
+      <c r="D10" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
@@ -5686,18 +6765,18 @@
       <c r="A12" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="172" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="173"/>
-      <c r="D12" s="171" t="s">
+      <c r="C12" s="174"/>
+      <c r="D12" s="172" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171" t="s">
+      <c r="E12" s="172"/>
+      <c r="F12" s="172" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="171"/>
+      <c r="G12" s="172"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
@@ -5867,22 +6946,22 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="177" t="s">
+      <c r="B5" s="178" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="176"/>
+      <c r="A6" s="177"/>
       <c r="B6" s="57" t="s">
         <v>90</v>
       </c>
@@ -8604,10 +9683,10 @@
       <c r="E4" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="171" t="s">
+      <c r="F4" s="172" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="173"/>
+      <c r="G4" s="174"/>
     </row>
     <row r="5" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
@@ -8625,21 +9704,21 @@
       <c r="E5" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="171" t="s">
+      <c r="F5" s="172" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="171"/>
+      <c r="G5" s="172"/>
     </row>
     <row r="6" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="179" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="179"/>
     </row>
     <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -9251,30 +10330,30 @@
       <c r="A4" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="180" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
     </row>
     <row r="5" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="173" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
     </row>
     <row r="7" spans="1:7" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="180" t="s">
+      <c r="A7" s="181" t="s">
         <v>198</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -9283,10 +10362,10 @@
       <c r="C7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="171" t="s">
+      <c r="D7" s="172" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="173"/>
+      <c r="E7" s="174"/>
       <c r="F7" s="8" t="s">
         <v>61</v>
       </c>
@@ -9295,15 +10374,15 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="180"/>
-      <c r="B8" s="181" t="s">
+      <c r="A8" s="181"/>
+      <c r="B8" s="182" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -9510,7 +10589,7 @@
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -9603,10 +10682,10 @@
       <c r="D5" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="E5" s="183" t="s">
+      <c r="E5" s="184" t="s">
         <v>192</v>
       </c>
-      <c r="F5" s="183"/>
+      <c r="F5" s="184"/>
       <c r="G5" s="98" t="s">
         <v>195</v>
       </c>
@@ -9624,10 +10703,10 @@
       <c r="D6" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="183" t="s">
+      <c r="E6" s="184" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="183"/>
+      <c r="F6" s="184"/>
       <c r="G6" s="98" t="s">
         <v>193</v>
       </c>
@@ -9648,10 +10727,10 @@
       <c r="D7" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="183" t="s">
+      <c r="E7" s="184" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="183"/>
+      <c r="F7" s="184"/>
       <c r="G7" s="98" t="s">
         <v>194</v>
       </c>
@@ -9759,8 +10838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9787,7 +10866,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9874,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="88">
-        <v>0.03</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="F8" s="88">
         <v>0.55000000000000004</v>
@@ -10037,36 +11116,36 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
-        <v>283</v>
-      </c>
-      <c r="B13" s="149">
+        <v>282</v>
+      </c>
+      <c r="B13" s="148">
         <v>20</v>
       </c>
-      <c r="C13" s="149">
+      <c r="C13" s="148">
         <v>50</v>
       </c>
-      <c r="D13" s="149">
+      <c r="D13" s="148">
         <v>2</v>
       </c>
-      <c r="E13" s="149">
+      <c r="E13" s="148">
         <v>0.03</v>
       </c>
-      <c r="F13" s="149">
+      <c r="F13" s="148">
         <v>0.7</v>
       </c>
-      <c r="G13" s="149">
+      <c r="G13" s="148">
         <v>0.8</v>
       </c>
-      <c r="H13" s="149">
+      <c r="H13" s="148">
         <v>50</v>
       </c>
-      <c r="I13" s="149">
+      <c r="I13" s="148">
         <v>20</v>
       </c>
-      <c r="J13" s="149">
+      <c r="J13" s="148">
         <v>0.09</v>
       </c>
-      <c r="K13" s="149">
+      <c r="K13" s="148">
         <v>33</v>
       </c>
     </row>
@@ -10121,24 +11200,24 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="J5" s="184" t="s">
+      <c r="J5" s="185" t="s">
         <v>166</v>
       </c>
-      <c r="K5" s="184"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184" t="s">
+      <c r="K5" s="185"/>
+      <c r="L5" s="185"/>
+      <c r="M5" s="185"/>
+      <c r="N5" s="185"/>
+      <c r="O5" s="185"/>
+      <c r="P5" s="185"/>
+      <c r="Q5" s="185" t="s">
         <v>179</v>
       </c>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
+      <c r="R5" s="185"/>
+      <c r="S5" s="185"/>
+      <c r="T5" s="185"/>
+      <c r="U5" s="185"/>
+      <c r="V5" s="185"/>
+      <c r="W5" s="185"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -15387,7 +16466,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -15969,23 +17048,36 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J13"/>
+  <dimension ref="B1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="4" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="15" width="16.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="148" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="M1" s="188"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="188"/>
+    </row>
+    <row r="2" spans="2:18" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="147" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="148" t="s">
+      <c r="C2" s="147" t="s">
         <v>265</v>
       </c>
       <c r="D2" s="137" t="s">
@@ -15998,314 +17090,579 @@
         <v>268</v>
       </c>
       <c r="G2" s="137" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H2" s="137" t="s">
         <v>269</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="37" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I2" s="189"/>
+      <c r="J2" s="199" t="s">
+        <v>301</v>
+      </c>
+      <c r="K2" s="199" t="s">
+        <v>315</v>
+      </c>
+      <c r="L2" s="199" t="s">
+        <v>314</v>
+      </c>
+      <c r="M2" s="199" t="s">
+        <v>311</v>
+      </c>
+      <c r="N2" s="199" t="s">
+        <v>312</v>
+      </c>
+      <c r="O2" s="190"/>
+      <c r="P2" s="169" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q2" s="169"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2005</v>
       </c>
-      <c r="C3" s="144">
+      <c r="C3" s="143">
         <v>2006</v>
       </c>
       <c r="D3" s="142"/>
-      <c r="E3" s="145">
+      <c r="E3" s="144">
         <v>223219844</v>
       </c>
       <c r="F3" s="142"/>
       <c r="G3" s="142"/>
       <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="143">
-        <v>143945802</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="191"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="194"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="194"/>
+    </row>
+    <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2006</v>
       </c>
-      <c r="C4" s="144">
+      <c r="C4" s="143">
         <v>2007</v>
       </c>
-      <c r="D4" s="145">
+      <c r="D4" s="144">
         <v>286167278</v>
       </c>
-      <c r="E4" s="145">
+      <c r="E4" s="144">
         <v>314980319</v>
       </c>
-      <c r="F4" s="145">
+      <c r="F4" s="144">
         <v>91545104</v>
       </c>
-      <c r="G4" s="145">
+      <c r="G4" s="144">
         <f t="shared" ref="G4:G8" si="0">E4-F4</f>
         <v>223435215</v>
       </c>
-      <c r="H4" s="146">
+      <c r="H4" s="145">
         <f t="shared" ref="H4:H8" si="1">G4/D4</f>
         <v>0.78078533842712794</v>
       </c>
-      <c r="I4" s="145"/>
-      <c r="J4" s="143">
+      <c r="I4" s="195"/>
+      <c r="J4" s="196">
+        <v>2006</v>
+      </c>
+      <c r="K4" s="203">
         <v>224946082</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="194"/>
+      <c r="P4" s="170">
+        <v>91545104</v>
+      </c>
+      <c r="Q4" s="170">
+        <f t="shared" ref="Q4:Q13" si="2">P4+L5</f>
+        <v>324421642</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2007</v>
       </c>
-      <c r="C5" s="144">
+      <c r="C5" s="143">
         <v>2008</v>
       </c>
-      <c r="D5" s="145">
+      <c r="D5" s="144">
         <v>333672743</v>
       </c>
-      <c r="E5" s="145">
+      <c r="E5" s="144">
         <v>354299709</v>
       </c>
-      <c r="F5" s="145">
+      <c r="F5" s="144">
         <v>95700124</v>
       </c>
-      <c r="G5" s="145">
+      <c r="G5" s="144">
         <f t="shared" si="0"/>
         <v>258599585</v>
       </c>
-      <c r="H5" s="146">
+      <c r="H5" s="145">
         <f t="shared" si="1"/>
         <v>0.77500961773194643</v>
       </c>
-      <c r="I5" s="145"/>
-      <c r="J5" s="143">
+      <c r="I5" s="195"/>
+      <c r="J5" s="196">
+        <v>2007</v>
+      </c>
+      <c r="K5" s="203">
         <v>261635491</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L5" s="205">
+        <v>232876538</v>
+      </c>
+      <c r="M5" s="200" t="s">
+        <v>300</v>
+      </c>
+      <c r="N5" s="201">
+        <f>K5/L5</f>
+        <v>1.1234944200347052</v>
+      </c>
+      <c r="O5" s="198"/>
+      <c r="P5" s="170">
+        <v>95700124</v>
+      </c>
+      <c r="Q5" s="170">
+        <f t="shared" si="2"/>
+        <v>313636003</v>
+      </c>
+      <c r="R5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2008</v>
       </c>
-      <c r="C6" s="144">
+      <c r="C6" s="143">
         <v>2009</v>
       </c>
-      <c r="D6" s="145">
+      <c r="D6" s="144">
         <v>326876839</v>
       </c>
-      <c r="E6" s="145">
+      <c r="E6" s="144">
         <v>342383376</v>
       </c>
-      <c r="F6" s="145">
+      <c r="F6" s="144">
         <v>102485719</v>
       </c>
-      <c r="G6" s="145">
+      <c r="G6" s="144">
         <f t="shared" si="0"/>
         <v>239897657</v>
       </c>
-      <c r="H6" s="146">
+      <c r="H6" s="145">
         <f t="shared" si="1"/>
         <v>0.73390839722357937</v>
       </c>
-      <c r="I6" s="145"/>
-      <c r="J6" s="143">
+      <c r="I6" s="195"/>
+      <c r="J6" s="196">
+        <v>2008</v>
+      </c>
+      <c r="K6" s="203">
         <v>238697929</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="205">
+        <v>217935879</v>
+      </c>
+      <c r="M6" s="200" t="s">
+        <v>302</v>
+      </c>
+      <c r="N6" s="201">
+        <f t="shared" ref="N6:N13" si="3">K6/L6</f>
+        <v>1.095266782575071</v>
+      </c>
+      <c r="O6" s="198"/>
+      <c r="P6" s="170">
+        <v>102485719</v>
+      </c>
+      <c r="Q6" s="170">
+        <f t="shared" si="2"/>
+        <v>341169031</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2009</v>
       </c>
-      <c r="C7" s="144">
+      <c r="C7" s="143">
         <v>2010</v>
       </c>
-      <c r="D7" s="145">
+      <c r="D7" s="144">
         <v>357165140</v>
       </c>
-      <c r="E7" s="145">
+      <c r="E7" s="144">
         <v>356928488</v>
       </c>
-      <c r="F7" s="145">
+      <c r="F7" s="144">
         <v>112286300</v>
       </c>
-      <c r="G7" s="145">
+      <c r="G7" s="144">
         <f t="shared" si="0"/>
         <v>244642188</v>
       </c>
-      <c r="H7" s="146">
+      <c r="H7" s="145">
         <f t="shared" si="1"/>
         <v>0.68495539066326572</v>
       </c>
-      <c r="I7" s="145"/>
-      <c r="J7" s="143">
+      <c r="I7" s="195"/>
+      <c r="J7" s="196">
+        <v>2009</v>
+      </c>
+      <c r="K7" s="203">
         <v>250516858</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="205">
+        <v>238683312</v>
+      </c>
+      <c r="M7" s="200" t="s">
+        <v>303</v>
+      </c>
+      <c r="N7" s="201">
+        <f t="shared" si="3"/>
+        <v>1.0495784388981497</v>
+      </c>
+      <c r="O7" s="198"/>
+      <c r="P7" s="170">
+        <v>112286300</v>
+      </c>
+      <c r="Q7" s="170">
+        <f t="shared" si="2"/>
+        <v>402597241</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2010</v>
       </c>
-      <c r="C8" s="144">
+      <c r="C8" s="143">
         <v>2011</v>
       </c>
-      <c r="D8" s="145">
+      <c r="D8" s="144">
         <v>388773459</v>
       </c>
-      <c r="E8" s="145">
+      <c r="E8" s="144">
         <v>382563515</v>
       </c>
-      <c r="F8" s="145">
+      <c r="F8" s="144">
         <v>111732379</v>
       </c>
-      <c r="G8" s="145">
+      <c r="G8" s="144">
         <f t="shared" si="0"/>
         <v>270831136</v>
       </c>
-      <c r="H8" s="146">
+      <c r="H8" s="145">
         <f t="shared" si="1"/>
         <v>0.69662969456976231</v>
       </c>
-      <c r="I8" s="145"/>
-      <c r="J8" s="143">
+      <c r="I8" s="195"/>
+      <c r="J8" s="196">
+        <v>2010</v>
+      </c>
+      <c r="K8" s="203">
         <v>277092251</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="205">
+        <v>290310941</v>
+      </c>
+      <c r="M8" s="200" t="s">
+        <v>304</v>
+      </c>
+      <c r="N8" s="201">
+        <f t="shared" si="3"/>
+        <v>0.95446713115782988</v>
+      </c>
+      <c r="O8" s="198"/>
+      <c r="P8" s="170">
+        <v>111732379</v>
+      </c>
+      <c r="Q8" s="170">
+        <f t="shared" si="2"/>
+        <v>479930202</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2011</v>
       </c>
-      <c r="C9" s="144">
+      <c r="C9" s="143">
         <v>2012</v>
       </c>
-      <c r="D9" s="145">
+      <c r="D9" s="144">
         <v>444565284</v>
       </c>
-      <c r="E9" s="145">
+      <c r="E9" s="144">
         <v>441692557</v>
       </c>
-      <c r="F9" s="145">
+      <c r="F9" s="144">
         <v>110770763</v>
       </c>
-      <c r="G9" s="145">
+      <c r="G9" s="144">
         <f>E9-F9</f>
         <v>330921794</v>
       </c>
-      <c r="H9" s="146">
+      <c r="H9" s="145">
         <f>G9/D9</f>
         <v>0.74437165003644323</v>
       </c>
-      <c r="I9" s="145"/>
-      <c r="J9" s="143">
+      <c r="I9" s="195"/>
+      <c r="J9" s="196">
+        <v>2011</v>
+      </c>
+      <c r="K9" s="203">
         <v>321593433</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L9" s="205">
+        <v>368197823</v>
+      </c>
+      <c r="M9" s="200" t="s">
+        <v>305</v>
+      </c>
+      <c r="N9" s="201">
+        <f t="shared" si="3"/>
+        <v>0.8734256774788155</v>
+      </c>
+      <c r="O9" s="198"/>
+      <c r="P9" s="170">
+        <v>110770763</v>
+      </c>
+      <c r="Q9" s="170">
+        <f t="shared" si="2"/>
+        <v>547044996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2012</v>
       </c>
-      <c r="C10" s="144">
+      <c r="C10" s="143">
         <v>2013</v>
       </c>
-      <c r="D10" s="145">
+      <c r="D10" s="144">
         <v>508387283</v>
       </c>
-      <c r="E10" s="145">
+      <c r="E10" s="144">
         <v>497225747</v>
       </c>
-      <c r="F10" s="145">
+      <c r="F10" s="144">
         <v>127343851</v>
       </c>
-      <c r="G10" s="145">
-        <f t="shared" ref="G10:G12" si="2">E10-F10</f>
+      <c r="G10" s="144">
+        <f t="shared" ref="G10:G12" si="4">E10-F10</f>
         <v>369881896</v>
       </c>
-      <c r="H10" s="146">
-        <f t="shared" ref="H10:H12" si="3">G10/D10</f>
+      <c r="H10" s="145">
+        <f t="shared" ref="H10:H12" si="5">G10/D10</f>
         <v>0.72755930049493389</v>
       </c>
-      <c r="I10" s="145"/>
-      <c r="J10" s="143">
+      <c r="I10" s="195"/>
+      <c r="J10" s="196">
+        <v>2012</v>
+      </c>
+      <c r="K10" s="203">
         <v>375448092</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L10" s="205">
+        <v>436274233</v>
+      </c>
+      <c r="M10" s="200" t="s">
+        <v>306</v>
+      </c>
+      <c r="N10" s="201">
+        <f t="shared" si="3"/>
+        <v>0.86057819509134292</v>
+      </c>
+      <c r="O10" s="198"/>
+      <c r="P10" s="170">
+        <v>127343851</v>
+      </c>
+      <c r="Q10" s="170">
+        <f t="shared" si="2"/>
+        <v>591824706</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2013</v>
       </c>
-      <c r="C11" s="144">
+      <c r="C11" s="143">
         <v>2014</v>
       </c>
-      <c r="D11" s="145">
+      <c r="D11" s="144">
         <v>578805107</v>
       </c>
-      <c r="E11" s="145">
+      <c r="E11" s="144">
         <v>565093149</v>
       </c>
-      <c r="F11" s="145">
+      <c r="F11" s="144">
         <v>129370345</v>
       </c>
-      <c r="G11" s="145">
+      <c r="G11" s="144">
+        <f t="shared" si="4"/>
+        <v>435722804</v>
+      </c>
+      <c r="H11" s="145">
+        <f t="shared" si="5"/>
+        <v>0.75279709651905335</v>
+      </c>
+      <c r="I11" s="195"/>
+      <c r="J11" s="196">
+        <v>2013</v>
+      </c>
+      <c r="K11" s="203">
+        <v>440698260</v>
+      </c>
+      <c r="L11" s="205">
+        <v>464480855</v>
+      </c>
+      <c r="M11" s="200" t="s">
+        <v>307</v>
+      </c>
+      <c r="N11" s="201">
+        <f t="shared" si="3"/>
+        <v>0.94879746981175361</v>
+      </c>
+      <c r="O11" s="198"/>
+      <c r="P11" s="170">
+        <v>129370345</v>
+      </c>
+      <c r="Q11" s="170">
         <f t="shared" si="2"/>
-        <v>435722804</v>
-      </c>
-      <c r="H11" s="146">
-        <f t="shared" si="3"/>
-        <v>0.75279709651905335</v>
-      </c>
-      <c r="I11" s="145"/>
-      <c r="J11" s="143">
-        <v>440698260</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+        <v>627464983</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2014</v>
       </c>
-      <c r="C12" s="144">
+      <c r="C12" s="143">
         <v>2015</v>
       </c>
-      <c r="D12" s="145">
+      <c r="D12" s="144">
         <v>628808763</v>
       </c>
-      <c r="E12" s="145">
+      <c r="E12" s="144">
         <v>626119974</v>
       </c>
-      <c r="F12" s="145">
+      <c r="F12" s="144">
         <v>132691115</v>
       </c>
-      <c r="G12" s="145">
+      <c r="G12" s="144">
+        <f t="shared" si="4"/>
+        <v>493428859</v>
+      </c>
+      <c r="H12" s="145">
+        <f t="shared" si="5"/>
+        <v>0.78470417086092681</v>
+      </c>
+      <c r="I12" s="195"/>
+      <c r="J12" s="196">
+        <v>2014</v>
+      </c>
+      <c r="K12" s="203">
+        <v>480332251</v>
+      </c>
+      <c r="L12" s="205">
+        <v>498094638</v>
+      </c>
+      <c r="M12" s="200" t="s">
+        <v>308</v>
+      </c>
+      <c r="N12" s="201">
+        <f t="shared" si="3"/>
+        <v>0.96433933304056163</v>
+      </c>
+      <c r="O12" s="198"/>
+      <c r="P12" s="170">
+        <v>132691115</v>
+      </c>
+      <c r="Q12" s="170">
         <f t="shared" si="2"/>
+        <v>626119974</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2015</v>
+      </c>
+      <c r="C13" s="143">
+        <v>2016</v>
+      </c>
+      <c r="F13" s="144">
+        <v>134441085</v>
+      </c>
+      <c r="G13" s="144"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="196">
+        <v>2015</v>
+      </c>
+      <c r="K13" s="203">
+        <v>478385438</v>
+      </c>
+      <c r="L13" s="205">
         <v>493428859</v>
       </c>
-      <c r="H12" s="146">
+      <c r="M13" s="200" t="s">
+        <v>309</v>
+      </c>
+      <c r="N13" s="201">
         <f t="shared" si="3"/>
-        <v>0.78470417086092681</v>
-      </c>
-      <c r="I12" s="145"/>
-      <c r="J12" s="143">
-        <v>480332251</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>2014</v>
-      </c>
-      <c r="C13" s="144">
-        <v>2015</v>
-      </c>
-      <c r="F13" s="145">
+        <v>0.96951248244683641</v>
+      </c>
+      <c r="O13" s="198"/>
+      <c r="P13" s="170">
         <v>134441085</v>
       </c>
-      <c r="G13" s="145"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="145"/>
+      <c r="Q13" s="170">
+        <f t="shared" si="2"/>
+        <v>591225013</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="188"/>
+      <c r="J14" s="208">
+        <v>2016</v>
+      </c>
+      <c r="K14" s="206"/>
+      <c r="L14" s="207">
+        <v>456783928</v>
+      </c>
+      <c r="M14" s="202" t="s">
+        <v>310</v>
+      </c>
+      <c r="N14" s="207"/>
+      <c r="O14" s="197"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I15" s="188"/>
+      <c r="J15" s="194" t="s">
+        <v>313</v>
+      </c>
+      <c r="K15" s="188"/>
+      <c r="L15" s="188"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="188"/>
+      <c r="O15" s="188"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I16" s="188"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="188"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="188"/>
+      <c r="N16" s="188"/>
+      <c r="O16" s="188"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -16313,8 +17670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16327,72 +17684,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E2" s="185" t="s">
+      <c r="E2" s="186" t="s">
         <v>272</v>
       </c>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="187" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="186"/>
+      <c r="I2" s="187"/>
       <c r="L2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="147" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="148" t="s">
+      <c r="D3" s="147" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="148" t="s">
+      <c r="E3" s="147" t="s">
         <v>270</v>
       </c>
-      <c r="F3" s="148" t="s">
+      <c r="F3" s="147" t="s">
         <v>271</v>
       </c>
-      <c r="G3" s="148" t="s">
+      <c r="G3" s="147" t="s">
         <v>274</v>
       </c>
-      <c r="H3" s="148" t="s">
+      <c r="H3" s="147" t="s">
         <v>271</v>
       </c>
-      <c r="I3" s="148" t="s">
+      <c r="I3" s="147" t="s">
         <v>274</v>
       </c>
-      <c r="J3" s="148" t="s">
-        <v>276</v>
+      <c r="J3" s="147" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2005</v>
       </c>
-      <c r="D4" s="144">
+      <c r="D4" s="143">
         <v>2006</v>
       </c>
       <c r="E4" s="142"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="J4" s="147"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="J4" s="146"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>2006</v>
       </c>
-      <c r="D5" s="144">
+      <c r="D5" s="143">
         <v>2007</v>
       </c>
-      <c r="E5" s="145">
+      <c r="E5" s="144">
         <v>286167278</v>
       </c>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="J5" s="147"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="J5" s="146"/>
       <c r="L5">
         <v>223435215</v>
       </c>
@@ -16401,16 +17758,16 @@
       <c r="C6">
         <v>2007</v>
       </c>
-      <c r="D6" s="144">
+      <c r="D6" s="143">
         <v>2008</v>
       </c>
-      <c r="E6" s="145">
+      <c r="E6" s="144">
         <v>333672743</v>
       </c>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="J6" s="147"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="J6" s="146"/>
       <c r="L6">
         <v>258599585</v>
       </c>
@@ -16419,16 +17776,16 @@
       <c r="C7">
         <v>2008</v>
       </c>
-      <c r="D7" s="144">
+      <c r="D7" s="143">
         <v>2009</v>
       </c>
-      <c r="E7" s="145">
+      <c r="E7" s="144">
         <v>326876839</v>
       </c>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="J7" s="147"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="J7" s="146"/>
       <c r="L7">
         <v>239897657</v>
       </c>
@@ -16437,16 +17794,16 @@
       <c r="C8">
         <v>2009</v>
       </c>
-      <c r="D8" s="144">
+      <c r="D8" s="143">
         <v>2010</v>
       </c>
-      <c r="E8" s="145">
+      <c r="E8" s="144">
         <v>357165140</v>
       </c>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="J8" s="147"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="J8" s="146"/>
       <c r="L8">
         <v>244642188</v>
       </c>
@@ -16455,22 +17812,22 @@
       <c r="C9">
         <v>2010</v>
       </c>
-      <c r="D9" s="144">
+      <c r="D9" s="143">
         <v>2011</v>
       </c>
-      <c r="E9" s="145">
+      <c r="E9" s="144">
         <v>388773459</v>
       </c>
-      <c r="F9" s="145">
+      <c r="F9" s="144">
         <f>394.7*1000000</f>
         <v>394700000</v>
       </c>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145">
+      <c r="G9" s="144"/>
+      <c r="H9" s="144">
         <f>335.4*1000000</f>
         <v>335400000</v>
       </c>
-      <c r="J9" s="147">
+      <c r="J9" s="146">
         <f>H9/F9</f>
         <v>0.84975931086901446</v>
       </c>
@@ -16486,21 +17843,21 @@
       <c r="C10">
         <v>2011</v>
       </c>
-      <c r="D10" s="144">
+      <c r="D10" s="143">
         <v>2012</v>
       </c>
-      <c r="E10" s="145">
+      <c r="E10" s="144">
         <v>444565284</v>
       </c>
-      <c r="F10" s="145">
+      <c r="F10" s="144">
         <f>471384436+3644894+736292</f>
         <v>475765622</v>
       </c>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145">
+      <c r="G10" s="144"/>
+      <c r="H10" s="144">
         <v>482498572</v>
       </c>
-      <c r="J10" s="147">
+      <c r="J10" s="146">
         <f t="shared" ref="J10:J14" si="0">H10/F10</f>
         <v>1.0141518211671039</v>
       </c>
@@ -16516,28 +17873,28 @@
       <c r="C11">
         <v>2012</v>
       </c>
-      <c r="D11" s="144">
+      <c r="D11" s="143">
         <v>2013</v>
       </c>
-      <c r="E11" s="145">
+      <c r="E11" s="144">
         <v>508387283</v>
       </c>
-      <c r="F11" s="145">
+      <c r="F11" s="144">
         <f>505082619+1003643+3498111</f>
         <v>509584373</v>
       </c>
-      <c r="G11" s="147">
+      <c r="G11" s="146">
         <f>F11/F10-1</f>
         <v>7.108279673052964E-2</v>
       </c>
-      <c r="H11" s="145">
+      <c r="H11" s="144">
         <v>419806102</v>
       </c>
-      <c r="I11" s="147">
+      <c r="I11" s="146">
         <f>H11/H10-1</f>
         <v>-0.12993296485859862</v>
       </c>
-      <c r="J11" s="147">
+      <c r="J11" s="146">
         <f t="shared" si="0"/>
         <v>0.82382059624108606</v>
       </c>
@@ -16553,28 +17910,28 @@
       <c r="C12">
         <v>2013</v>
       </c>
-      <c r="D12" s="144">
+      <c r="D12" s="143">
         <v>2014</v>
       </c>
-      <c r="E12" s="145">
+      <c r="E12" s="144">
         <v>578805107</v>
       </c>
-      <c r="F12" s="145">
+      <c r="F12" s="144">
         <f>574871226+1070154+3933881</f>
         <v>579875261</v>
       </c>
-      <c r="G12" s="147">
+      <c r="G12" s="146">
         <f t="shared" ref="G12:G14" si="2">F12/F11-1</f>
         <v>0.13793768357963354</v>
       </c>
-      <c r="H12" s="145">
+      <c r="H12" s="144">
         <v>450746001</v>
       </c>
-      <c r="I12" s="147">
+      <c r="I12" s="146">
         <f t="shared" ref="I12:I14" si="3">H12/H11-1</f>
         <v>7.3700450881011736E-2</v>
       </c>
-      <c r="J12" s="147">
+      <c r="J12" s="146">
         <f t="shared" si="0"/>
         <v>0.77731545267629554</v>
       </c>
@@ -16590,28 +17947,28 @@
       <c r="C13">
         <v>2014</v>
       </c>
-      <c r="D13" s="144">
+      <c r="D13" s="143">
         <v>2015</v>
       </c>
-      <c r="E13" s="145">
+      <c r="E13" s="144">
         <v>628808763</v>
       </c>
-      <c r="F13" s="145">
+      <c r="F13" s="144">
         <f>624423315+551000+4385448</f>
         <v>629359763</v>
       </c>
-      <c r="G13" s="147">
+      <c r="G13" s="146">
         <f t="shared" si="2"/>
         <v>8.5336459973587298E-2</v>
       </c>
-      <c r="H13" s="145">
+      <c r="H13" s="144">
         <v>500035962</v>
       </c>
-      <c r="I13" s="147">
+      <c r="I13" s="146">
         <f t="shared" si="3"/>
         <v>0.1093519651658541</v>
       </c>
-      <c r="J13" s="147">
+      <c r="J13" s="146">
         <f t="shared" si="0"/>
         <v>0.79451530173529694</v>
       </c>
@@ -16627,33 +17984,33 @@
       <c r="C14">
         <v>2015</v>
       </c>
-      <c r="D14" s="144">
+      <c r="D14" s="143">
         <v>2016</v>
       </c>
-      <c r="F14" s="145">
+      <c r="F14" s="144">
         <f>623414600-563500 + 4237083</f>
         <v>627088183</v>
       </c>
-      <c r="G14" s="147">
+      <c r="G14" s="146">
         <f t="shared" si="2"/>
         <v>-3.6093505393035574E-3</v>
       </c>
-      <c r="H14" s="145">
+      <c r="H14" s="144">
         <v>554863405</v>
       </c>
-      <c r="I14" s="147">
+      <c r="I14" s="146">
         <f t="shared" si="3"/>
         <v>0.10964699974919001</v>
       </c>
-      <c r="J14" s="147">
+      <c r="J14" s="146">
         <f t="shared" si="0"/>
         <v>0.88482516501191988</v>
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16705,8 +18062,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16785,7 +18142,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -16867,7 +18224,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17082,10 +18439,10 @@
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="164" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="156" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" style="166" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" style="156" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="163" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="155" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="165" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="155" customWidth="1"/>
     <col min="8" max="8" width="32.28515625" style="110" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="15" max="19" width="14.5703125" customWidth="1"/>
@@ -17109,9 +18466,9 @@
         <v>84</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="F3" s="158"/>
+        <v>281</v>
+      </c>
+      <c r="F3" s="157"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -17134,13 +18491,13 @@
       <c r="C6" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="161" t="s">
+      <c r="D6" s="160" t="s">
         <v>206</v>
       </c>
       <c r="E6" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="167" t="s">
+      <c r="F6" s="166" t="s">
         <v>208</v>
       </c>
       <c r="G6" s="109" t="s">
@@ -17160,13 +18517,13 @@
       <c r="C7" s="115" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="161" t="s">
         <v>223</v>
       </c>
       <c r="E7" s="116" t="s">
         <v>224</v>
       </c>
-      <c r="F7" s="168" t="s">
+      <c r="F7" s="167" t="s">
         <v>225</v>
       </c>
       <c r="G7" s="116" t="s">
@@ -17189,13 +18546,13 @@
       <c r="C8" s="107">
         <v>42551</v>
       </c>
-      <c r="D8" s="165" t="s">
-        <v>278</v>
+      <c r="D8" s="164" t="s">
+        <v>277</v>
       </c>
       <c r="E8" s="112">
         <v>21</v>
       </c>
-      <c r="F8" s="169">
+      <c r="F8" s="168">
         <v>165691579</v>
       </c>
       <c r="G8" s="112">
@@ -17212,25 +18569,25 @@
       <c r="A9" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="149" t="s">
         <v>210</v>
       </c>
       <c r="C9" s="107">
         <v>39629</v>
       </c>
-      <c r="D9" s="163">
+      <c r="D9" s="162">
         <v>-632245519</v>
       </c>
       <c r="E9" s="112">
         <v>29</v>
       </c>
-      <c r="F9" s="157">
+      <c r="F9" s="156">
         <v>-713695924</v>
       </c>
       <c r="G9" s="112">
         <v>21</v>
       </c>
-      <c r="H9" s="151">
+      <c r="H9" s="150">
         <v>-46382784</v>
       </c>
       <c r="I9" t="s">
@@ -17241,25 +18598,25 @@
       <c r="A10" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="152" t="s">
+      <c r="B10" s="151" t="s">
         <v>211</v>
       </c>
       <c r="C10" s="108">
         <v>39994</v>
       </c>
-      <c r="D10" s="160">
+      <c r="D10" s="159">
         <v>53442825</v>
       </c>
       <c r="E10" s="113">
         <v>15</v>
       </c>
-      <c r="F10" s="158">
+      <c r="F10" s="157">
         <v>42345974</v>
       </c>
       <c r="G10" s="113">
         <v>8</v>
       </c>
-      <c r="H10" s="153">
+      <c r="H10" s="152">
         <v>5926343</v>
       </c>
       <c r="I10" t="s">
@@ -17270,25 +18627,25 @@
       <c r="A11" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="151" t="s">
         <v>211</v>
       </c>
       <c r="C11" s="108">
         <v>40359</v>
       </c>
-      <c r="D11" s="160">
+      <c r="D11" s="159">
         <v>210742926</v>
       </c>
       <c r="E11" s="113">
         <v>15</v>
       </c>
-      <c r="F11" s="158">
+      <c r="F11" s="157">
         <v>177212946</v>
       </c>
       <c r="G11" s="113">
         <v>9</v>
       </c>
-      <c r="H11" s="153">
+      <c r="H11" s="152">
         <v>22395902</v>
       </c>
       <c r="I11" t="s">
@@ -17299,25 +18656,25 @@
       <c r="A12" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="152" t="s">
+      <c r="B12" s="151" t="s">
         <v>212</v>
       </c>
       <c r="C12" s="108">
         <v>40359</v>
       </c>
-      <c r="D12" s="160">
+      <c r="D12" s="159">
         <v>1450331</v>
       </c>
       <c r="E12" s="113">
         <v>27</v>
       </c>
-      <c r="F12" s="158">
+      <c r="F12" s="157">
         <v>1570796</v>
       </c>
       <c r="G12" s="113">
         <v>21</v>
       </c>
-      <c r="H12" s="153">
+      <c r="H12" s="152">
         <v>102085</v>
       </c>
       <c r="I12" t="s">
@@ -17328,25 +18685,25 @@
       <c r="A13" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="152" t="s">
+      <c r="B13" s="151" t="s">
         <v>211</v>
       </c>
       <c r="C13" s="108">
         <v>40724</v>
       </c>
-      <c r="D13" s="160">
+      <c r="D13" s="159">
         <v>203104597</v>
       </c>
       <c r="E13" s="113">
         <v>15</v>
       </c>
-      <c r="F13" s="158">
+      <c r="F13" s="157">
         <v>179203687</v>
       </c>
       <c r="G13" s="113">
         <v>10</v>
       </c>
-      <c r="H13" s="153">
+      <c r="H13" s="152">
         <v>20704944</v>
       </c>
       <c r="I13" t="s">
@@ -17357,25 +18714,25 @@
       <c r="A14" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="152" t="s">
+      <c r="B14" s="151" t="s">
         <v>212</v>
       </c>
       <c r="C14" s="108">
         <v>40724</v>
       </c>
-      <c r="D14" s="160">
+      <c r="D14" s="159">
         <v>344553091</v>
       </c>
       <c r="E14" s="113">
         <v>26</v>
       </c>
-      <c r="F14" s="158">
+      <c r="F14" s="157">
         <v>366509424</v>
       </c>
       <c r="G14" s="113">
         <v>21</v>
       </c>
-      <c r="H14" s="153">
+      <c r="H14" s="152">
         <v>23819286</v>
       </c>
       <c r="I14" t="s">
@@ -17386,25 +18743,25 @@
       <c r="A15" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="151" t="s">
         <v>211</v>
       </c>
       <c r="C15" s="108">
         <v>41090</v>
       </c>
-      <c r="D15" s="160">
+      <c r="D15" s="159">
         <v>238453071</v>
       </c>
       <c r="E15" s="113">
         <v>20</v>
       </c>
-      <c r="F15" s="158">
+      <c r="F15" s="157">
         <v>238011048</v>
       </c>
       <c r="G15" s="113">
         <v>16</v>
       </c>
-      <c r="H15" s="153">
+      <c r="H15" s="152">
         <v>18847200</v>
       </c>
       <c r="I15" t="s">
@@ -17415,25 +18772,25 @@
       <c r="A16" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="152" t="s">
+      <c r="B16" s="151" t="s">
         <v>211</v>
       </c>
       <c r="C16" s="108">
         <v>41455</v>
       </c>
-      <c r="D16" s="160">
+      <c r="D16" s="159">
         <v>73947281</v>
       </c>
       <c r="E16" s="113">
         <v>20</v>
       </c>
-      <c r="F16" s="158">
+      <c r="F16" s="157">
         <v>74104788</v>
       </c>
       <c r="G16" s="113">
         <v>17</v>
       </c>
-      <c r="H16" s="153">
+      <c r="H16" s="152">
         <v>5606652</v>
       </c>
       <c r="I16" t="s">
@@ -17444,25 +18801,25 @@
       <c r="A17" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="152" t="s">
+      <c r="B17" s="151" t="s">
         <v>213</v>
       </c>
       <c r="C17" s="108">
         <v>41820</v>
       </c>
-      <c r="D17" s="160">
+      <c r="D17" s="159">
         <v>-212930921</v>
       </c>
       <c r="E17" s="113">
         <v>20</v>
       </c>
-      <c r="F17" s="158">
+      <c r="F17" s="157">
         <v>-213513903</v>
       </c>
       <c r="G17" s="113">
         <v>18</v>
       </c>
-      <c r="H17" s="153">
+      <c r="H17" s="152">
         <v>-15486648</v>
       </c>
       <c r="I17" t="s">
@@ -17473,25 +18830,25 @@
       <c r="A18" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="152" t="s">
+      <c r="B18" s="151" t="s">
         <v>212</v>
       </c>
       <c r="C18" s="108">
         <v>41820</v>
       </c>
-      <c r="D18" s="160">
+      <c r="D18" s="159">
         <v>-65152628</v>
       </c>
       <c r="E18" s="113">
         <v>25</v>
       </c>
-      <c r="F18" s="158">
+      <c r="F18" s="157">
         <v>-66723384</v>
       </c>
       <c r="G18" s="113">
         <v>23</v>
       </c>
-      <c r="H18" s="153">
+      <c r="H18" s="152">
         <v>-4076232</v>
       </c>
       <c r="I18" t="s">
@@ -17502,25 +18859,25 @@
       <c r="A19" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="152" t="s">
+      <c r="B19" s="151" t="s">
         <v>213</v>
       </c>
       <c r="C19" s="108">
         <v>42185</v>
       </c>
-      <c r="D19" s="160">
+      <c r="D19" s="159">
         <v>-288914220</v>
       </c>
       <c r="E19" s="113">
         <v>20</v>
       </c>
-      <c r="F19" s="158">
+      <c r="F19" s="157">
         <v>-289698031</v>
       </c>
       <c r="G19" s="113">
         <v>19</v>
       </c>
-      <c r="H19" s="153">
+      <c r="H19" s="152">
         <v>-20204787</v>
       </c>
       <c r="I19" t="s">
@@ -17531,25 +18888,25 @@
       <c r="A20" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="152" t="s">
+      <c r="B20" s="151" t="s">
         <v>213</v>
       </c>
       <c r="C20" s="108">
         <v>42551</v>
       </c>
-      <c r="D20" s="160">
+      <c r="D20" s="159">
         <v>-82781971</v>
       </c>
       <c r="E20" s="113">
         <v>20</v>
       </c>
-      <c r="F20" s="159">
+      <c r="F20" s="158">
         <v>-82781971</v>
       </c>
       <c r="G20" s="113">
         <v>20</v>
       </c>
-      <c r="H20" s="155">
+      <c r="H20" s="154">
         <v>-5566571</v>
       </c>
       <c r="I20" t="s">
@@ -17566,19 +18923,19 @@
       <c r="C21" s="107">
         <v>32689</v>
       </c>
-      <c r="D21" s="163">
+      <c r="D21" s="162">
         <v>-15977993</v>
       </c>
       <c r="E21" s="112">
         <v>14</v>
       </c>
-      <c r="F21" s="157">
+      <c r="F21" s="156">
         <v>-6476269</v>
       </c>
       <c r="G21" s="112">
         <v>3</v>
       </c>
-      <c r="H21" s="151">
+      <c r="H21" s="150">
         <v>-2230592</v>
       </c>
       <c r="I21" t="s">
@@ -17595,19 +18952,19 @@
       <c r="C22" s="108">
         <v>33054</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="159">
         <v>279608</v>
       </c>
       <c r="E22" s="113">
         <v>15</v>
       </c>
-      <c r="F22" s="158">
+      <c r="F22" s="157">
         <v>140887</v>
       </c>
       <c r="G22" s="113">
         <v>4</v>
       </c>
-      <c r="H22" s="153">
+      <c r="H22" s="152">
         <v>36989</v>
       </c>
       <c r="I22" t="s">
@@ -17624,19 +18981,19 @@
       <c r="C23" s="108">
         <v>33054</v>
       </c>
-      <c r="D23" s="160">
+      <c r="D23" s="159">
         <v>-6281127</v>
       </c>
       <c r="E23" s="113">
         <v>15</v>
       </c>
-      <c r="F23" s="158">
+      <c r="F23" s="157">
         <v>-3164910</v>
       </c>
       <c r="G23" s="113">
         <v>4</v>
       </c>
-      <c r="H23" s="153">
+      <c r="H23" s="152">
         <v>-830934</v>
       </c>
       <c r="I23" t="s">
@@ -17653,19 +19010,19 @@
       <c r="C24" s="108">
         <v>33785</v>
       </c>
-      <c r="D24" s="160">
+      <c r="D24" s="159">
         <v>2454735</v>
       </c>
       <c r="E24" s="113">
         <v>17</v>
       </c>
-      <c r="F24" s="158">
+      <c r="F24" s="157">
         <v>1633633</v>
       </c>
       <c r="G24" s="113">
         <v>6</v>
       </c>
-      <c r="H24" s="153">
+      <c r="H24" s="152">
         <v>295289</v>
       </c>
       <c r="I24" t="s">
@@ -17682,19 +19039,19 @@
       <c r="C25" s="108">
         <v>34880</v>
       </c>
-      <c r="D25" s="160">
+      <c r="D25" s="159">
         <v>-20329471</v>
       </c>
       <c r="E25" s="113">
         <v>20</v>
       </c>
-      <c r="F25" s="158">
+      <c r="F25" s="157">
         <v>-17196117</v>
       </c>
       <c r="G25" s="113">
         <v>9</v>
       </c>
-      <c r="H25" s="153">
+      <c r="H25" s="152">
         <v>-2173219</v>
       </c>
       <c r="I25" t="s">
@@ -17711,19 +19068,19 @@
       <c r="C26" s="108">
         <v>35246</v>
       </c>
-      <c r="D26" s="160">
+      <c r="D26" s="159">
         <v>2832341</v>
       </c>
       <c r="E26" s="113">
         <v>21</v>
       </c>
-      <c r="F26" s="158">
+      <c r="F26" s="157">
         <v>2532605</v>
       </c>
       <c r="G26" s="113">
         <v>10</v>
       </c>
-      <c r="H26" s="153">
+      <c r="H26" s="152">
         <v>292614</v>
       </c>
       <c r="I26" t="s">
@@ -17740,19 +19097,19 @@
       <c r="C27" s="108">
         <v>35246</v>
       </c>
-      <c r="D27" s="160">
+      <c r="D27" s="159">
         <v>-18309076</v>
       </c>
       <c r="E27" s="113">
         <v>21</v>
       </c>
-      <c r="F27" s="158">
+      <c r="F27" s="157">
         <v>-16371495</v>
       </c>
       <c r="G27" s="113">
         <v>10</v>
       </c>
-      <c r="H27" s="153">
+      <c r="H27" s="152">
         <v>-1891540</v>
       </c>
       <c r="I27" t="s">
@@ -17769,19 +19126,19 @@
       <c r="C28" s="108">
         <v>35976</v>
       </c>
-      <c r="D28" s="160">
+      <c r="D28" s="159">
         <v>5510715</v>
       </c>
       <c r="E28" s="113">
         <v>23</v>
       </c>
-      <c r="F28" s="158">
+      <c r="F28" s="157">
         <v>5387707</v>
       </c>
       <c r="G28" s="113">
         <v>12</v>
       </c>
-      <c r="H28" s="153">
+      <c r="H28" s="152">
         <v>535124</v>
       </c>
       <c r="I28" t="s">
@@ -17798,19 +19155,19 @@
       <c r="C29" s="108">
         <v>35976</v>
       </c>
-      <c r="D29" s="160">
+      <c r="D29" s="159">
         <v>9268417</v>
       </c>
       <c r="E29" s="113">
         <v>23</v>
       </c>
-      <c r="F29" s="158">
+      <c r="F29" s="157">
         <v>9061528</v>
       </c>
       <c r="G29" s="113">
         <v>12</v>
       </c>
-      <c r="H29" s="153">
+      <c r="H29" s="152">
         <v>900020</v>
       </c>
       <c r="I29" t="s">
@@ -17827,19 +19184,19 @@
       <c r="C30" s="108">
         <v>36707</v>
       </c>
-      <c r="D30" s="160">
+      <c r="D30" s="159">
         <v>949873</v>
       </c>
       <c r="E30" s="113">
         <v>25</v>
       </c>
-      <c r="F30" s="158">
+      <c r="F30" s="157">
         <v>994721</v>
       </c>
       <c r="G30" s="113">
         <v>14</v>
       </c>
-      <c r="H30" s="153">
+      <c r="H30" s="152">
         <v>87328</v>
       </c>
       <c r="I30" t="s">
@@ -17856,19 +19213,19 @@
       <c r="C31" s="108">
         <v>37072</v>
       </c>
-      <c r="D31" s="160">
+      <c r="D31" s="159">
         <v>-39924972</v>
       </c>
       <c r="E31" s="113">
         <v>11</v>
       </c>
-      <c r="F31" s="158">
+      <c r="F31" s="157">
         <v>0</v>
       </c>
       <c r="G31" s="113">
         <v>10</v>
       </c>
-      <c r="H31" s="153">
+      <c r="H31" s="152">
         <v>0</v>
       </c>
       <c r="I31" t="s">
@@ -17885,19 +19242,19 @@
       <c r="C32" s="108">
         <v>37072</v>
       </c>
-      <c r="D32" s="160">
+      <c r="D32" s="159">
         <v>-29148684</v>
       </c>
       <c r="E32" s="113">
         <v>26</v>
       </c>
-      <c r="F32" s="158">
+      <c r="F32" s="157">
         <v>-31415090</v>
       </c>
       <c r="G32" s="113">
         <v>15</v>
       </c>
-      <c r="H32" s="153">
+      <c r="H32" s="152">
         <v>-2613612</v>
       </c>
       <c r="I32" t="s">
@@ -17914,19 +19271,19 @@
       <c r="C33" s="108">
         <v>37437</v>
       </c>
-      <c r="D33" s="160">
+      <c r="D33" s="159">
         <v>110014634</v>
       </c>
       <c r="E33" s="113">
         <v>12</v>
       </c>
-      <c r="F33" s="158">
+      <c r="F33" s="157">
         <v>17377556</v>
       </c>
       <c r="G33" s="113">
         <v>1</v>
       </c>
-      <c r="H33" s="153">
+      <c r="H33" s="152">
         <v>17377556</v>
       </c>
       <c r="I33" t="s">
@@ -17943,19 +19300,19 @@
       <c r="C34" s="108">
         <v>37802</v>
       </c>
-      <c r="D34" s="160">
+      <c r="D34" s="159">
         <v>151681782</v>
       </c>
       <c r="E34" s="113">
         <v>13</v>
       </c>
-      <c r="F34" s="158">
+      <c r="F34" s="157">
         <v>44185963</v>
       </c>
       <c r="G34" s="113">
         <v>2</v>
       </c>
-      <c r="H34" s="153">
+      <c r="H34" s="152">
         <v>22458586</v>
       </c>
       <c r="I34" t="s">
@@ -17972,19 +19329,19 @@
       <c r="C35" s="108">
         <v>38168</v>
       </c>
-      <c r="D35" s="160">
+      <c r="D35" s="159">
         <v>10104562</v>
       </c>
       <c r="E35" s="113">
         <v>14</v>
       </c>
-      <c r="F35" s="158">
+      <c r="F35" s="157">
         <v>4095624</v>
       </c>
       <c r="G35" s="113">
         <v>3</v>
       </c>
-      <c r="H35" s="153">
+      <c r="H35" s="152">
         <v>1410637</v>
       </c>
       <c r="I35" t="s">
@@ -18001,19 +19358,19 @@
       <c r="C36" s="108">
         <v>38168</v>
       </c>
-      <c r="D36" s="160">
+      <c r="D36" s="159">
         <v>-8698728</v>
       </c>
       <c r="E36" s="113">
         <v>29</v>
       </c>
-      <c r="F36" s="158">
+      <c r="F36" s="157">
         <v>-10055415</v>
       </c>
       <c r="G36" s="113">
         <v>18</v>
       </c>
-      <c r="H36" s="153">
+      <c r="H36" s="152">
         <v>-729342</v>
       </c>
       <c r="I36" t="s">
@@ -18030,19 +19387,19 @@
       <c r="C37" s="108">
         <v>38533</v>
       </c>
-      <c r="D37" s="160">
+      <c r="D37" s="159">
         <v>21605884</v>
       </c>
       <c r="E37" s="113">
         <v>15</v>
       </c>
-      <c r="F37" s="158">
+      <c r="F37" s="157">
         <v>10886689</v>
       </c>
       <c r="G37" s="113">
         <v>4</v>
       </c>
-      <c r="H37" s="153">
+      <c r="H37" s="152">
         <v>2858256</v>
       </c>
       <c r="I37" t="s">
@@ -18059,19 +19416,19 @@
       <c r="C38" s="108">
         <v>38533</v>
       </c>
-      <c r="D38" s="160">
+      <c r="D38" s="159">
         <v>27253819</v>
       </c>
       <c r="E38" s="113">
         <v>30</v>
       </c>
-      <c r="F38" s="158">
+      <c r="F38" s="157">
         <v>32113516</v>
       </c>
       <c r="G38" s="113">
         <v>19</v>
       </c>
-      <c r="H38" s="153">
+      <c r="H38" s="152">
         <v>2239735</v>
       </c>
       <c r="I38" t="s">
@@ -18088,19 +19445,19 @@
       <c r="C39" s="108">
         <v>38898</v>
       </c>
-      <c r="D39" s="160">
+      <c r="D39" s="159">
         <v>16400257</v>
       </c>
       <c r="E39" s="113">
         <v>15</v>
       </c>
-      <c r="F39" s="158">
+      <c r="F39" s="157">
         <v>9681030</v>
       </c>
       <c r="G39" s="113">
         <v>5</v>
       </c>
-      <c r="H39" s="153">
+      <c r="H39" s="152">
         <v>2066456</v>
       </c>
       <c r="I39" t="s">
@@ -18117,19 +19474,19 @@
       <c r="C40" s="108">
         <v>38898</v>
       </c>
-      <c r="D40" s="160">
+      <c r="D40" s="159">
         <v>29340123</v>
       </c>
       <c r="E40" s="113">
         <v>30</v>
       </c>
-      <c r="F40" s="158">
+      <c r="F40" s="157">
         <v>34152022</v>
       </c>
       <c r="G40" s="113">
         <v>20</v>
       </c>
-      <c r="H40" s="153">
+      <c r="H40" s="152">
         <v>2296511</v>
       </c>
       <c r="I40" t="s">
@@ -18146,19 +19503,19 @@
       <c r="C41" s="108">
         <v>39263</v>
       </c>
-      <c r="D41" s="160">
+      <c r="D41" s="159">
         <v>-20934587</v>
       </c>
       <c r="E41" s="113">
         <v>21</v>
       </c>
-      <c r="F41" s="158">
+      <c r="F41" s="157">
         <v>-19876488</v>
       </c>
       <c r="G41" s="113">
         <v>12</v>
       </c>
-      <c r="H41" s="153">
+      <c r="H41" s="152">
         <v>-1974196</v>
       </c>
       <c r="I41" t="s">
@@ -18175,19 +19532,19 @@
       <c r="C42" s="108">
         <v>39263</v>
       </c>
-      <c r="D42" s="160">
+      <c r="D42" s="159">
         <v>-5027630</v>
       </c>
       <c r="E42" s="113">
         <v>30</v>
       </c>
-      <c r="F42" s="158">
+      <c r="F42" s="157">
         <v>-5803736</v>
       </c>
       <c r="G42" s="113">
         <v>21</v>
       </c>
-      <c r="H42" s="153">
+      <c r="H42" s="152">
         <v>-377182</v>
       </c>
       <c r="I42" t="s">
@@ -18198,25 +19555,25 @@
       <c r="A43" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="150" t="s">
+      <c r="B43" s="149" t="s">
         <v>213</v>
       </c>
       <c r="C43" s="107">
         <v>39629</v>
       </c>
-      <c r="D43" s="163">
+      <c r="D43" s="162">
         <v>-18292189</v>
       </c>
       <c r="E43" s="112">
         <v>17</v>
       </c>
-      <c r="F43" s="157">
+      <c r="F43" s="156">
         <v>-15230411</v>
       </c>
       <c r="G43" s="112">
         <v>9</v>
       </c>
-      <c r="H43" s="151">
+      <c r="H43" s="150">
         <v>-1924796</v>
       </c>
       <c r="I43" t="s">
@@ -18227,25 +19584,25 @@
       <c r="A44" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B44" s="152" t="s">
+      <c r="B44" s="151" t="s">
         <v>212</v>
       </c>
       <c r="C44" s="108">
         <v>39629</v>
       </c>
-      <c r="D44" s="160">
+      <c r="D44" s="159">
         <v>8034472</v>
       </c>
       <c r="E44" s="113">
         <v>30</v>
       </c>
-      <c r="F44" s="158">
+      <c r="F44" s="157">
         <v>9178030</v>
       </c>
       <c r="G44" s="113">
         <v>22</v>
       </c>
-      <c r="H44" s="153">
+      <c r="H44" s="152">
         <v>577739</v>
       </c>
       <c r="I44" t="s">
@@ -18256,25 +19613,25 @@
       <c r="A45" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="152" t="s">
+      <c r="B45" s="151" t="s">
         <v>211</v>
       </c>
       <c r="C45" s="108">
         <v>39994</v>
       </c>
-      <c r="D45" s="160">
+      <c r="D45" s="159">
         <v>10158177</v>
       </c>
       <c r="E45" s="113">
         <v>15</v>
       </c>
-      <c r="F45" s="158">
+      <c r="F45" s="157">
         <v>8048938</v>
       </c>
       <c r="G45" s="113">
         <v>8</v>
       </c>
-      <c r="H45" s="153">
+      <c r="H45" s="152">
         <v>1126453</v>
       </c>
       <c r="I45" t="s">
@@ -18285,25 +19642,25 @@
       <c r="A46" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="152" t="s">
+      <c r="B46" s="151" t="s">
         <v>211</v>
       </c>
       <c r="C46" s="108">
         <v>40359</v>
       </c>
-      <c r="D46" s="160">
+      <c r="D46" s="159">
         <v>2144522</v>
       </c>
       <c r="E46" s="113">
         <v>15</v>
       </c>
-      <c r="F46" s="158">
+      <c r="F46" s="157">
         <v>1803321</v>
       </c>
       <c r="G46" s="113">
         <v>9</v>
       </c>
-      <c r="H46" s="153">
+      <c r="H46" s="152">
         <v>227901</v>
       </c>
       <c r="I46" t="s">
@@ -18314,25 +19671,25 @@
       <c r="A47" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="152" t="s">
+      <c r="B47" s="151" t="s">
         <v>212</v>
       </c>
       <c r="C47" s="108">
         <v>40359</v>
       </c>
-      <c r="D47" s="160">
+      <c r="D47" s="159">
         <v>25997606</v>
       </c>
       <c r="E47" s="113">
         <v>30</v>
       </c>
-      <c r="F47" s="158">
+      <c r="F47" s="157">
         <v>28915692</v>
       </c>
       <c r="G47" s="113">
         <v>24</v>
       </c>
-      <c r="H47" s="153">
+      <c r="H47" s="152">
         <v>1717497</v>
       </c>
       <c r="I47" t="s">
@@ -18343,25 +19700,25 @@
       <c r="A48" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="152" t="s">
+      <c r="B48" s="151" t="s">
         <v>217</v>
       </c>
       <c r="C48" s="108">
         <v>40724</v>
       </c>
-      <c r="D48" s="160">
+      <c r="D48" s="159">
         <v>-18044</v>
       </c>
       <c r="E48" s="113">
         <v>30</v>
       </c>
-      <c r="F48" s="158">
+      <c r="F48" s="157">
         <v>-19769</v>
       </c>
       <c r="G48" s="113">
         <v>25</v>
       </c>
-      <c r="H48" s="153">
+      <c r="H48" s="152">
         <v>-1144</v>
       </c>
       <c r="I48" t="s">
@@ -18372,25 +19729,25 @@
       <c r="A49" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="152" t="s">
+      <c r="B49" s="151" t="s">
         <v>211</v>
       </c>
       <c r="C49" s="108">
         <v>40724</v>
       </c>
-      <c r="D49" s="160">
+      <c r="D49" s="159">
         <v>1095451</v>
       </c>
       <c r="E49" s="113">
         <v>15</v>
       </c>
-      <c r="F49" s="158">
+      <c r="F49" s="157">
         <v>966540</v>
       </c>
       <c r="G49" s="113">
         <v>10</v>
       </c>
-      <c r="H49" s="153">
+      <c r="H49" s="152">
         <v>111673</v>
       </c>
       <c r="I49" t="s">
@@ -18401,25 +19758,25 @@
       <c r="A50" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B50" s="152" t="s">
+      <c r="B50" s="151" t="s">
         <v>212</v>
       </c>
       <c r="C50" s="108">
         <v>40724</v>
       </c>
-      <c r="D50" s="160">
+      <c r="D50" s="159">
         <v>25593931</v>
       </c>
       <c r="E50" s="113">
         <v>30</v>
       </c>
-      <c r="F50" s="158">
+      <c r="F50" s="157">
         <v>28039833</v>
       </c>
       <c r="G50" s="113">
         <v>25</v>
       </c>
-      <c r="H50" s="153">
+      <c r="H50" s="152">
         <v>1621943</v>
       </c>
       <c r="I50" t="s">
@@ -18430,25 +19787,25 @@
       <c r="A51" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B51" s="152" t="s">
+      <c r="B51" s="151" t="s">
         <v>211</v>
       </c>
       <c r="C51" s="108">
         <v>41090</v>
       </c>
-      <c r="D51" s="160">
+      <c r="D51" s="159">
         <v>10983184</v>
       </c>
       <c r="E51" s="113">
         <v>20</v>
       </c>
-      <c r="F51" s="158">
+      <c r="F51" s="157">
         <v>10962823</v>
       </c>
       <c r="G51" s="113">
         <v>16</v>
       </c>
-      <c r="H51" s="153">
+      <c r="H51" s="152">
         <v>868105</v>
       </c>
       <c r="I51" t="s">
@@ -18459,25 +19816,25 @@
       <c r="A52" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="152" t="s">
+      <c r="B52" s="151" t="s">
         <v>211</v>
       </c>
       <c r="C52" s="108">
         <v>41455</v>
       </c>
-      <c r="D52" s="160">
+      <c r="D52" s="159">
         <v>6011719</v>
       </c>
       <c r="E52" s="113">
         <v>20</v>
       </c>
-      <c r="F52" s="158">
+      <c r="F52" s="157">
         <v>6024525</v>
       </c>
       <c r="G52" s="113">
         <v>17</v>
       </c>
-      <c r="H52" s="153">
+      <c r="H52" s="152">
         <v>455806</v>
       </c>
       <c r="I52" t="s">
@@ -18488,25 +19845,25 @@
       <c r="A53" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="152" t="s">
+      <c r="B53" s="151" t="s">
         <v>213</v>
       </c>
       <c r="C53" s="108">
         <v>41820</v>
       </c>
-      <c r="D53" s="160">
+      <c r="D53" s="159">
         <v>-15610972</v>
       </c>
       <c r="E53" s="113">
         <v>20</v>
       </c>
-      <c r="F53" s="158">
+      <c r="F53" s="157">
         <v>-15653713</v>
       </c>
       <c r="G53" s="113">
         <v>18</v>
       </c>
-      <c r="H53" s="153">
+      <c r="H53" s="152">
         <v>-1135399</v>
       </c>
       <c r="I53" t="s">
@@ -18517,25 +19874,25 @@
       <c r="A54" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B54" s="152" t="s">
+      <c r="B54" s="151" t="s">
         <v>212</v>
       </c>
       <c r="C54" s="108">
         <v>41820</v>
       </c>
-      <c r="D54" s="160">
+      <c r="D54" s="159">
         <v>-3528915</v>
       </c>
       <c r="E54" s="113">
         <v>25</v>
       </c>
-      <c r="F54" s="158">
+      <c r="F54" s="157">
         <v>-3613993</v>
       </c>
       <c r="G54" s="113">
         <v>23</v>
       </c>
-      <c r="H54" s="153">
+      <c r="H54" s="152">
         <v>-220784</v>
       </c>
       <c r="I54" t="s">
@@ -18546,25 +19903,25 @@
       <c r="A55" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="152" t="s">
+      <c r="B55" s="151" t="s">
         <v>213</v>
       </c>
       <c r="C55" s="108">
         <v>42185</v>
       </c>
-      <c r="D55" s="160">
+      <c r="D55" s="159">
         <v>-46361062</v>
       </c>
       <c r="E55" s="113">
         <v>20</v>
       </c>
-      <c r="F55" s="158">
+      <c r="F55" s="157">
         <v>-46486838</v>
       </c>
       <c r="G55" s="113">
         <v>19</v>
       </c>
-      <c r="H55" s="153">
+      <c r="H55" s="152">
         <v>-3242192</v>
       </c>
       <c r="I55" t="s">
@@ -18575,25 +19932,25 @@
       <c r="A56" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="152" t="s">
+      <c r="B56" s="151" t="s">
         <v>213</v>
       </c>
       <c r="C56" s="108">
         <v>42551</v>
       </c>
-      <c r="D56" s="160">
+      <c r="D56" s="159">
         <v>-18410183</v>
       </c>
       <c r="E56" s="113">
         <v>20</v>
       </c>
-      <c r="F56" s="159">
+      <c r="F56" s="158">
         <v>-18410183</v>
       </c>
       <c r="G56" s="113">
         <v>20</v>
       </c>
-      <c r="H56" s="155">
+      <c r="H56" s="154">
         <v>-1237970</v>
       </c>
       <c r="I56" t="s">
@@ -18610,19 +19967,19 @@
       <c r="C57" s="107">
         <v>32689</v>
       </c>
-      <c r="D57" s="163">
+      <c r="D57" s="162">
         <v>-6262457</v>
       </c>
       <c r="E57" s="112">
         <v>14</v>
       </c>
-      <c r="F57" s="157">
+      <c r="F57" s="156">
         <v>-2538327</v>
       </c>
       <c r="G57" s="112">
         <v>3</v>
       </c>
-      <c r="H57" s="151">
+      <c r="H57" s="150">
         <v>-874264</v>
       </c>
       <c r="I57" t="s">
@@ -18639,19 +19996,19 @@
       <c r="C58" s="108">
         <v>33054</v>
       </c>
-      <c r="D58" s="160">
+      <c r="D58" s="159">
         <v>109592</v>
       </c>
       <c r="E58" s="113">
         <v>15</v>
       </c>
-      <c r="F58" s="158">
+      <c r="F58" s="157">
         <v>55221</v>
       </c>
       <c r="G58" s="113">
         <v>4</v>
       </c>
-      <c r="H58" s="153">
+      <c r="H58" s="152">
         <v>14498</v>
       </c>
       <c r="I58" t="s">
@@ -18668,19 +20025,19 @@
       <c r="C59" s="108">
         <v>33054</v>
       </c>
-      <c r="D59" s="160">
+      <c r="D59" s="159">
         <v>-2461841</v>
       </c>
       <c r="E59" s="113">
         <v>15</v>
       </c>
-      <c r="F59" s="158">
+      <c r="F59" s="157">
         <v>-1240463</v>
       </c>
       <c r="G59" s="113">
         <v>4</v>
       </c>
-      <c r="H59" s="153">
+      <c r="H59" s="152">
         <v>-325679</v>
       </c>
       <c r="I59" t="s">
@@ -18697,19 +20054,19 @@
       <c r="C60" s="108">
         <v>33785</v>
       </c>
-      <c r="D60" s="160">
+      <c r="D60" s="159">
         <v>962115</v>
       </c>
       <c r="E60" s="113">
         <v>17</v>
       </c>
-      <c r="F60" s="158">
+      <c r="F60" s="157">
         <v>640290</v>
       </c>
       <c r="G60" s="113">
         <v>6</v>
       </c>
-      <c r="H60" s="153">
+      <c r="H60" s="152">
         <v>115736</v>
       </c>
       <c r="I60" t="s">
@@ -18726,19 +20083,19 @@
       <c r="C61" s="108">
         <v>34880</v>
       </c>
-      <c r="D61" s="160">
+      <c r="D61" s="159">
         <v>-7967987</v>
       </c>
       <c r="E61" s="113">
         <v>20</v>
       </c>
-      <c r="F61" s="158">
+      <c r="F61" s="157">
         <v>-6739891</v>
       </c>
       <c r="G61" s="113">
         <v>9</v>
       </c>
-      <c r="H61" s="153">
+      <c r="H61" s="152">
         <v>-851777</v>
       </c>
       <c r="I61" t="s">
@@ -18755,19 +20112,19 @@
       <c r="C62" s="108">
         <v>35246</v>
       </c>
-      <c r="D62" s="160">
+      <c r="D62" s="159">
         <v>1110115</v>
       </c>
       <c r="E62" s="113">
         <v>21</v>
       </c>
-      <c r="F62" s="158">
+      <c r="F62" s="157">
         <v>992638</v>
       </c>
       <c r="G62" s="113">
         <v>10</v>
       </c>
-      <c r="H62" s="153">
+      <c r="H62" s="152">
         <v>114688</v>
       </c>
       <c r="I62" t="s">
@@ -18784,19 +20141,19 @@
       <c r="C63" s="108">
         <v>35246</v>
       </c>
-      <c r="D63" s="160">
+      <c r="D63" s="159">
         <v>-7176108</v>
       </c>
       <c r="E63" s="113">
         <v>21</v>
       </c>
-      <c r="F63" s="158">
+      <c r="F63" s="157">
         <v>-6416689</v>
       </c>
       <c r="G63" s="113">
         <v>10</v>
       </c>
-      <c r="H63" s="153">
+      <c r="H63" s="152">
         <v>-741375</v>
       </c>
       <c r="I63" t="s">
@@ -18813,19 +20170,19 @@
       <c r="C64" s="108">
         <v>35976</v>
       </c>
-      <c r="D64" s="160">
+      <c r="D64" s="159">
         <v>2159884</v>
       </c>
       <c r="E64" s="113">
         <v>23</v>
       </c>
-      <c r="F64" s="158">
+      <c r="F64" s="157">
         <v>2111673</v>
       </c>
       <c r="G64" s="113">
         <v>12</v>
       </c>
-      <c r="H64" s="153">
+      <c r="H64" s="152">
         <v>209738</v>
       </c>
       <c r="I64" t="s">
@@ -18842,19 +20199,19 @@
       <c r="C65" s="108">
         <v>35976</v>
       </c>
-      <c r="D65" s="160">
+      <c r="D65" s="159">
         <v>3632689</v>
       </c>
       <c r="E65" s="113">
         <v>23</v>
       </c>
-      <c r="F65" s="158">
+      <c r="F65" s="157">
         <v>3551602</v>
       </c>
       <c r="G65" s="113">
         <v>12</v>
       </c>
-      <c r="H65" s="153">
+      <c r="H65" s="152">
         <v>352756</v>
       </c>
       <c r="I65" t="s">
@@ -18871,19 +20228,19 @@
       <c r="C66" s="108">
         <v>36707</v>
       </c>
-      <c r="D66" s="160">
+      <c r="D66" s="159">
         <v>370129</v>
       </c>
       <c r="E66" s="113">
         <v>25</v>
       </c>
-      <c r="F66" s="158">
+      <c r="F66" s="157">
         <v>387604</v>
       </c>
       <c r="G66" s="113">
         <v>14</v>
       </c>
-      <c r="H66" s="153">
+      <c r="H66" s="152">
         <v>34028</v>
       </c>
       <c r="I66" t="s">
@@ -18900,19 +20257,19 @@
       <c r="C67" s="108">
         <v>37072</v>
       </c>
-      <c r="D67" s="160">
+      <c r="D67" s="159">
         <v>-9231354</v>
       </c>
       <c r="E67" s="113">
         <v>11</v>
       </c>
-      <c r="F67" s="158">
+      <c r="F67" s="157">
         <v>0</v>
       </c>
       <c r="G67" s="113">
         <v>10</v>
       </c>
-      <c r="H67" s="153">
+      <c r="H67" s="152">
         <v>0</v>
       </c>
       <c r="I67" t="s">
@@ -18929,19 +20286,19 @@
       <c r="C68" s="108">
         <v>37072</v>
       </c>
-      <c r="D68" s="160">
+      <c r="D68" s="159">
         <v>-4878745</v>
       </c>
       <c r="E68" s="113">
         <v>26</v>
       </c>
-      <c r="F68" s="158">
+      <c r="F68" s="157">
         <v>-5258083</v>
       </c>
       <c r="G68" s="113">
         <v>15</v>
       </c>
-      <c r="H68" s="153">
+      <c r="H68" s="152">
         <v>-437452</v>
       </c>
       <c r="I68" t="s">
@@ -18958,19 +20315,19 @@
       <c r="C69" s="108">
         <v>37437</v>
       </c>
-      <c r="D69" s="160">
+      <c r="D69" s="159">
         <v>18536288</v>
       </c>
       <c r="E69" s="113">
         <v>12</v>
       </c>
-      <c r="F69" s="158">
+      <c r="F69" s="157">
         <v>2927932</v>
       </c>
       <c r="G69" s="113">
         <v>1</v>
       </c>
-      <c r="H69" s="153">
+      <c r="H69" s="152">
         <v>2927932</v>
       </c>
       <c r="I69" t="s">
@@ -18987,19 +20344,19 @@
       <c r="C70" s="108">
         <v>37802</v>
       </c>
-      <c r="D70" s="160">
+      <c r="D70" s="159">
         <v>59690449</v>
       </c>
       <c r="E70" s="113">
         <v>13</v>
       </c>
-      <c r="F70" s="158">
+      <c r="F70" s="157">
         <v>17388245</v>
       </c>
       <c r="G70" s="113">
         <v>2</v>
       </c>
-      <c r="H70" s="153">
+      <c r="H70" s="152">
         <v>8837997</v>
       </c>
       <c r="I70" t="s">
@@ -19016,19 +20373,19 @@
       <c r="C71" s="108">
         <v>38168</v>
       </c>
-      <c r="D71" s="160">
+      <c r="D71" s="159">
         <v>10147466</v>
       </c>
       <c r="E71" s="113">
         <v>14</v>
       </c>
-      <c r="F71" s="158">
+      <c r="F71" s="157">
         <v>4113015</v>
       </c>
       <c r="G71" s="113">
         <v>3</v>
       </c>
-      <c r="H71" s="153">
+      <c r="H71" s="152">
         <v>1416627</v>
       </c>
       <c r="I71" t="s">
@@ -19045,19 +20402,19 @@
       <c r="C72" s="108">
         <v>38168</v>
       </c>
-      <c r="D72" s="160">
+      <c r="D72" s="159">
         <v>-5220974</v>
       </c>
       <c r="E72" s="113">
         <v>29</v>
       </c>
-      <c r="F72" s="158">
+      <c r="F72" s="157">
         <v>-6035260</v>
       </c>
       <c r="G72" s="113">
         <v>18</v>
       </c>
-      <c r="H72" s="153">
+      <c r="H72" s="152">
         <v>-437751</v>
       </c>
       <c r="I72" t="s">
@@ -19074,19 +20431,19 @@
       <c r="C73" s="108">
         <v>38533</v>
       </c>
-      <c r="D73" s="160">
+      <c r="D73" s="159">
         <v>13244413</v>
       </c>
       <c r="E73" s="113">
         <v>15</v>
       </c>
-      <c r="F73" s="158">
+      <c r="F73" s="157">
         <v>6673545</v>
       </c>
       <c r="G73" s="113">
         <v>4</v>
       </c>
-      <c r="H73" s="153">
+      <c r="H73" s="152">
         <v>1752112</v>
       </c>
       <c r="I73" t="s">
@@ -19103,19 +20460,19 @@
       <c r="C74" s="108">
         <v>38533</v>
       </c>
-      <c r="D74" s="160">
+      <c r="D74" s="159">
         <v>14033320</v>
       </c>
       <c r="E74" s="113">
         <v>30</v>
       </c>
-      <c r="F74" s="158">
+      <c r="F74" s="157">
         <v>16535635</v>
       </c>
       <c r="G74" s="113">
         <v>19</v>
       </c>
-      <c r="H74" s="153">
+      <c r="H74" s="152">
         <v>1153266</v>
       </c>
       <c r="I74" t="s">
@@ -19132,19 +20489,19 @@
       <c r="C75" s="108">
         <v>38898</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <v>6063600</v>
       </c>
       <c r="E75" s="113">
         <v>15</v>
       </c>
-      <c r="F75" s="158">
+      <c r="F75" s="157">
         <v>3579328</v>
       </c>
       <c r="G75" s="113">
         <v>5</v>
       </c>
-      <c r="H75" s="153">
+      <c r="H75" s="152">
         <v>764022</v>
       </c>
       <c r="I75" t="s">
@@ -19161,19 +20518,19 @@
       <c r="C76" s="108">
         <v>38898</v>
       </c>
-      <c r="D76" s="160">
+      <c r="D76" s="159">
         <v>14561746</v>
       </c>
       <c r="E76" s="113">
         <v>30</v>
       </c>
-      <c r="F76" s="158">
+      <c r="F76" s="157">
         <v>16949930</v>
       </c>
       <c r="G76" s="113">
         <v>20</v>
       </c>
-      <c r="H76" s="153">
+      <c r="H76" s="152">
         <v>1139777</v>
       </c>
       <c r="I76" t="s">
@@ -19190,19 +20547,19 @@
       <c r="C77" s="108">
         <v>39263</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <v>-8926309</v>
       </c>
       <c r="E77" s="113">
         <v>21</v>
       </c>
-      <c r="F77" s="158">
+      <c r="F77" s="157">
         <v>-8475147</v>
       </c>
       <c r="G77" s="113">
         <v>12</v>
       </c>
-      <c r="H77" s="153">
+      <c r="H77" s="152">
         <v>-841779</v>
       </c>
       <c r="I77" t="s">
@@ -19219,19 +20576,19 @@
       <c r="C78" s="108">
         <v>39263</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <v>-3015790</v>
       </c>
       <c r="E78" s="113">
         <v>30</v>
       </c>
-      <c r="F78" s="158">
+      <c r="F78" s="157">
         <v>-3481331</v>
       </c>
       <c r="G78" s="113">
         <v>21</v>
       </c>
-      <c r="H78" s="153">
+      <c r="H78" s="152">
         <v>-226250</v>
       </c>
       <c r="I78" t="s">
@@ -19242,25 +20599,25 @@
       <c r="A79" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B79" s="150" t="s">
+      <c r="B79" s="149" t="s">
         <v>213</v>
       </c>
       <c r="C79" s="107">
         <v>39629</v>
       </c>
-      <c r="D79" s="163">
+      <c r="D79" s="162">
         <v>-4429445</v>
       </c>
       <c r="E79" s="112">
         <v>17</v>
       </c>
-      <c r="F79" s="157">
+      <c r="F79" s="156">
         <v>-3688038</v>
       </c>
       <c r="G79" s="112">
         <v>9</v>
       </c>
-      <c r="H79" s="151">
+      <c r="H79" s="150">
         <v>-466089</v>
       </c>
       <c r="I79" t="s">
@@ -19271,25 +20628,25 @@
       <c r="A80" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B80" s="152" t="s">
+      <c r="B80" s="151" t="s">
         <v>212</v>
       </c>
       <c r="C80" s="108">
         <v>39629</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <v>10599393</v>
       </c>
       <c r="E80" s="113">
         <v>30</v>
       </c>
-      <c r="F80" s="158">
+      <c r="F80" s="157">
         <v>12108018</v>
       </c>
       <c r="G80" s="113">
         <v>22</v>
       </c>
-      <c r="H80" s="153">
+      <c r="H80" s="152">
         <v>762176</v>
       </c>
       <c r="I80" t="s">
@@ -19300,25 +20657,25 @@
       <c r="A81" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B81" s="152" t="s">
+      <c r="B81" s="151" t="s">
         <v>211</v>
       </c>
       <c r="C81" s="108">
         <v>39994</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <v>11924683</v>
       </c>
       <c r="E81" s="113">
         <v>15</v>
       </c>
-      <c r="F81" s="158">
+      <c r="F81" s="157">
         <v>9448646</v>
       </c>
       <c r="G81" s="113">
         <v>8</v>
       </c>
-      <c r="H81" s="153">
+      <c r="H81" s="152">
         <v>1322343</v>
       </c>
       <c r="I81" t="s">
@@ -19329,25 +20686,25 @@
       <c r="A82" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B82" s="152" t="s">
+      <c r="B82" s="151" t="s">
         <v>211</v>
       </c>
       <c r="C82" s="108">
         <v>40359</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <v>4794050</v>
       </c>
       <c r="E82" s="113">
         <v>15</v>
       </c>
-      <c r="F82" s="158">
+      <c r="F82" s="157">
         <v>4031299</v>
       </c>
       <c r="G82" s="113">
         <v>9</v>
       </c>
-      <c r="H82" s="153">
+      <c r="H82" s="152">
         <v>509469</v>
       </c>
       <c r="I82" t="s">
@@ -19358,25 +20715,25 @@
       <c r="A83" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B83" s="152" t="s">
+      <c r="B83" s="151" t="s">
         <v>212</v>
       </c>
       <c r="C83" s="108">
         <v>40359</v>
       </c>
-      <c r="D83" s="160">
+      <c r="D83" s="159">
         <v>12948180</v>
       </c>
       <c r="E83" s="113">
         <v>30</v>
       </c>
-      <c r="F83" s="158">
+      <c r="F83" s="157">
         <v>14401539</v>
       </c>
       <c r="G83" s="113">
         <v>24</v>
       </c>
-      <c r="H83" s="153">
+      <c r="H83" s="152">
         <v>855404</v>
       </c>
       <c r="I83" t="s">
@@ -19387,25 +20744,25 @@
       <c r="A84" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B84" s="152" t="s">
+      <c r="B84" s="151" t="s">
         <v>217</v>
       </c>
       <c r="C84" s="108">
         <v>40724</v>
       </c>
-      <c r="D84" s="160">
+      <c r="D84" s="159">
         <v>1483135</v>
       </c>
       <c r="E84" s="113">
         <v>30</v>
       </c>
-      <c r="F84" s="158">
+      <c r="F84" s="157">
         <v>1624871</v>
       </c>
       <c r="G84" s="113">
         <v>25</v>
       </c>
-      <c r="H84" s="153">
+      <c r="H84" s="152">
         <v>93989</v>
       </c>
       <c r="I84" t="s">
@@ -19416,25 +20773,25 @@
       <c r="A85" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B85" s="152" t="s">
+      <c r="B85" s="151" t="s">
         <v>211</v>
       </c>
       <c r="C85" s="108">
         <v>40724</v>
       </c>
-      <c r="D85" s="160">
+      <c r="D85" s="159">
         <v>5867945</v>
       </c>
       <c r="E85" s="113">
         <v>15</v>
       </c>
-      <c r="F85" s="158">
+      <c r="F85" s="157">
         <v>5177419</v>
       </c>
       <c r="G85" s="113">
         <v>10</v>
       </c>
-      <c r="H85" s="153">
+      <c r="H85" s="152">
         <v>598192</v>
       </c>
       <c r="I85" t="s">
@@ -19445,25 +20802,25 @@
       <c r="A86" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B86" s="152" t="s">
+      <c r="B86" s="151" t="s">
         <v>212</v>
       </c>
       <c r="C86" s="108">
         <v>40724</v>
       </c>
-      <c r="D86" s="160">
+      <c r="D86" s="159">
         <v>12753767</v>
       </c>
       <c r="E86" s="113">
         <v>30</v>
       </c>
-      <c r="F86" s="158">
+      <c r="F86" s="157">
         <v>13972590</v>
       </c>
       <c r="G86" s="113">
         <v>25</v>
       </c>
-      <c r="H86" s="153">
+      <c r="H86" s="152">
         <v>808234</v>
       </c>
       <c r="I86" t="s">
@@ -19474,25 +20831,25 @@
       <c r="A87" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B87" s="152" t="s">
+      <c r="B87" s="151" t="s">
         <v>211</v>
       </c>
       <c r="C87" s="108">
         <v>41090</v>
       </c>
-      <c r="D87" s="160">
+      <c r="D87" s="159">
         <v>9377426</v>
       </c>
       <c r="E87" s="113">
         <v>20</v>
       </c>
-      <c r="F87" s="158">
+      <c r="F87" s="157">
         <v>9360043</v>
       </c>
       <c r="G87" s="113">
         <v>16</v>
       </c>
-      <c r="H87" s="153">
+      <c r="H87" s="152">
         <v>741187</v>
       </c>
       <c r="I87" t="s">
@@ -19503,25 +20860,25 @@
       <c r="A88" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B88" s="152" t="s">
+      <c r="B88" s="151" t="s">
         <v>211</v>
       </c>
       <c r="C88" s="108">
         <v>41455</v>
       </c>
-      <c r="D88" s="160">
+      <c r="D88" s="159">
         <v>6625380</v>
       </c>
       <c r="E88" s="113">
         <v>20</v>
       </c>
-      <c r="F88" s="158">
+      <c r="F88" s="157">
         <v>6639492</v>
       </c>
       <c r="G88" s="113">
         <v>17</v>
       </c>
-      <c r="H88" s="153">
+      <c r="H88" s="152">
         <v>502334</v>
       </c>
       <c r="I88" t="s">
@@ -19532,25 +20889,25 @@
       <c r="A89" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B89" s="152" t="s">
+      <c r="B89" s="151" t="s">
         <v>213</v>
       </c>
       <c r="C89" s="108">
         <v>41820</v>
       </c>
-      <c r="D89" s="160">
+      <c r="D89" s="159">
         <v>-11060872</v>
       </c>
       <c r="E89" s="113">
         <v>20</v>
       </c>
-      <c r="F89" s="158">
+      <c r="F89" s="157">
         <v>-11091155</v>
       </c>
       <c r="G89" s="113">
         <v>18</v>
       </c>
-      <c r="H89" s="153">
+      <c r="H89" s="152">
         <v>-804467</v>
       </c>
       <c r="I89" t="s">
@@ -19561,25 +20918,25 @@
       <c r="A90" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B90" s="152" t="s">
+      <c r="B90" s="151" t="s">
         <v>212</v>
       </c>
       <c r="C90" s="108">
         <v>41820</v>
       </c>
-      <c r="D90" s="160">
+      <c r="D90" s="159">
         <v>9988189</v>
       </c>
       <c r="E90" s="113">
         <v>25</v>
       </c>
-      <c r="F90" s="158">
+      <c r="F90" s="157">
         <v>10228993</v>
       </c>
       <c r="G90" s="113">
         <v>23</v>
       </c>
-      <c r="H90" s="153">
+      <c r="H90" s="152">
         <v>624905</v>
       </c>
       <c r="I90" t="s">
@@ -19590,25 +20947,25 @@
       <c r="A91" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B91" s="152" t="s">
+      <c r="B91" s="151" t="s">
         <v>213</v>
       </c>
       <c r="C91" s="108">
         <v>42185</v>
       </c>
-      <c r="D91" s="160">
+      <c r="D91" s="159">
         <v>-16640244</v>
       </c>
       <c r="E91" s="113">
         <v>20</v>
       </c>
-      <c r="F91" s="158">
+      <c r="F91" s="157">
         <v>-16685388</v>
       </c>
       <c r="G91" s="113">
         <v>19</v>
       </c>
-      <c r="H91" s="153">
+      <c r="H91" s="152">
         <v>-1163711</v>
       </c>
       <c r="I91" t="s">
@@ -19619,25 +20976,25 @@
       <c r="A92" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B92" s="152" t="s">
+      <c r="B92" s="151" t="s">
         <v>213</v>
       </c>
       <c r="C92" s="108">
         <v>42551</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <v>-3718134</v>
       </c>
       <c r="E92" s="113">
         <v>20</v>
       </c>
-      <c r="F92" s="159">
+      <c r="F92" s="158">
         <v>-3718134</v>
       </c>
       <c r="G92" s="113">
         <v>20</v>
       </c>
-      <c r="H92" s="155">
+      <c r="H92" s="154">
         <v>-250021</v>
       </c>
       <c r="I92" t="s">
@@ -19646,7 +21003,7 @@
     </row>
     <row r="93" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B93" s="103" t="s">
         <v>218</v>
@@ -19654,19 +21011,19 @@
       <c r="C93" s="107">
         <v>37437</v>
       </c>
-      <c r="D93" s="163">
+      <c r="D93" s="162">
         <v>-157564364</v>
       </c>
       <c r="E93" s="112">
         <v>27</v>
       </c>
-      <c r="F93" s="157">
+      <c r="F93" s="156">
         <v>-174249137</v>
       </c>
       <c r="G93" s="112">
         <v>16</v>
       </c>
-      <c r="H93" s="151">
+      <c r="H93" s="150">
         <v>-13798134</v>
       </c>
       <c r="I93" t="s">
@@ -19675,7 +21032,7 @@
     </row>
     <row r="94" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B94" s="104" t="s">
         <v>213</v>
@@ -19683,19 +21040,19 @@
       <c r="C94" s="108">
         <v>37802</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <v>-314459851</v>
       </c>
       <c r="E94" s="113">
         <v>13</v>
       </c>
-      <c r="F94" s="158">
+      <c r="F94" s="157">
         <v>-91604351</v>
       </c>
       <c r="G94" s="113">
         <v>2</v>
       </c>
-      <c r="H94" s="153">
+      <c r="H94" s="152">
         <v>-46560131</v>
       </c>
       <c r="I94" t="s">
@@ -19704,7 +21061,7 @@
     </row>
     <row r="95" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B95" s="104" t="s">
         <v>211</v>
@@ -19712,19 +21069,19 @@
       <c r="C95" s="108">
         <v>38168</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <v>106500938</v>
       </c>
       <c r="E95" s="113">
         <v>14</v>
       </c>
-      <c r="F95" s="158">
+      <c r="F95" s="157">
         <v>43167419</v>
       </c>
       <c r="G95" s="113">
         <v>3</v>
       </c>
-      <c r="H95" s="153">
+      <c r="H95" s="152">
         <v>14867959</v>
       </c>
       <c r="I95" t="s">
@@ -19733,7 +21090,7 @@
     </row>
     <row r="96" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B96" s="104" t="s">
         <v>212</v>
@@ -19741,19 +21098,19 @@
       <c r="C96" s="108">
         <v>38168</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <v>-242147820</v>
       </c>
       <c r="E96" s="113">
         <v>29</v>
       </c>
-      <c r="F96" s="158">
+      <c r="F96" s="157">
         <v>-279914118</v>
       </c>
       <c r="G96" s="113">
         <v>18</v>
       </c>
-      <c r="H96" s="153">
+      <c r="H96" s="152">
         <v>-20302806</v>
       </c>
       <c r="I96" t="s">
@@ -19762,7 +21119,7 @@
     </row>
     <row r="97" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B97" s="104" t="s">
         <v>211</v>
@@ -19770,19 +21127,19 @@
       <c r="C97" s="108">
         <v>38533</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <v>241854245</v>
       </c>
       <c r="E97" s="113">
         <v>15</v>
       </c>
-      <c r="F97" s="158">
+      <c r="F97" s="157">
         <v>121864580</v>
       </c>
       <c r="G97" s="113">
         <v>4</v>
       </c>
-      <c r="H97" s="153">
+      <c r="H97" s="152">
         <v>31995055</v>
       </c>
       <c r="I97" t="s">
@@ -19791,7 +21148,7 @@
     </row>
     <row r="98" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B98" s="104" t="s">
         <v>212</v>
@@ -19799,19 +21156,19 @@
       <c r="C98" s="108">
         <v>38533</v>
       </c>
-      <c r="D98" s="160">
+      <c r="D98" s="159">
         <v>421011169</v>
       </c>
       <c r="E98" s="113">
         <v>30</v>
       </c>
-      <c r="F98" s="158">
+      <c r="F98" s="157">
         <v>496082720</v>
       </c>
       <c r="G98" s="113">
         <v>19</v>
       </c>
-      <c r="H98" s="153">
+      <c r="H98" s="152">
         <v>34598943</v>
       </c>
       <c r="I98" t="s">
@@ -19820,7 +21177,7 @@
     </row>
     <row r="99" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B99" s="104" t="s">
         <v>211</v>
@@ -19828,19 +21185,19 @@
       <c r="C99" s="108">
         <v>38898</v>
       </c>
-      <c r="D99" s="160">
+      <c r="D99" s="159">
         <v>64026458</v>
       </c>
       <c r="E99" s="113">
         <v>15</v>
       </c>
-      <c r="F99" s="158">
+      <c r="F99" s="157">
         <v>37794660</v>
       </c>
       <c r="G99" s="113">
         <v>5</v>
       </c>
-      <c r="H99" s="153">
+      <c r="H99" s="152">
         <v>8067426</v>
       </c>
       <c r="I99" t="s">
@@ -19849,7 +21206,7 @@
     </row>
     <row r="100" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B100" s="104" t="s">
         <v>212</v>
@@ -19857,19 +21214,19 @@
       <c r="C100" s="108">
         <v>38898</v>
       </c>
-      <c r="D100" s="160">
+      <c r="D100" s="159">
         <v>291388037</v>
       </c>
       <c r="E100" s="113">
         <v>30</v>
       </c>
-      <c r="F100" s="158">
+      <c r="F100" s="157">
         <v>339176843</v>
       </c>
       <c r="G100" s="113">
         <v>20</v>
       </c>
-      <c r="H100" s="153">
+      <c r="H100" s="152">
         <v>22807527</v>
       </c>
       <c r="I100" t="s">
@@ -19878,7 +21235,7 @@
     </row>
     <row r="101" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B101" s="104" t="s">
         <v>213</v>
@@ -19886,19 +21243,19 @@
       <c r="C101" s="108">
         <v>39263</v>
       </c>
-      <c r="D101" s="160">
+      <c r="D101" s="159">
         <v>-200979530</v>
       </c>
       <c r="E101" s="113">
         <v>21</v>
       </c>
-      <c r="F101" s="158">
+      <c r="F101" s="157">
         <v>-190821407</v>
       </c>
       <c r="G101" s="113">
         <v>12</v>
       </c>
-      <c r="H101" s="153">
+      <c r="H101" s="152">
         <v>-18952989</v>
       </c>
       <c r="I101" t="s">
@@ -19907,7 +21264,7 @@
     </row>
     <row r="102" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B102" s="104" t="s">
         <v>212</v>
@@ -19915,19 +21272,19 @@
       <c r="C102" s="108">
         <v>39263</v>
       </c>
-      <c r="D102" s="160">
+      <c r="D102" s="159">
         <v>-71262522</v>
       </c>
       <c r="E102" s="113">
         <v>30</v>
       </c>
-      <c r="F102" s="158">
+      <c r="F102" s="157">
         <v>-82263181</v>
       </c>
       <c r="G102" s="113">
         <v>21</v>
       </c>
-      <c r="H102" s="153">
+      <c r="H102" s="152">
         <v>-5346248</v>
       </c>
       <c r="I102" t="s">
@@ -19936,7 +21293,7 @@
     </row>
     <row r="103" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B103" s="104" t="s">
         <v>213</v>
@@ -19944,19 +21301,19 @@
       <c r="C103" s="108">
         <v>39629</v>
       </c>
-      <c r="D103" s="160">
+      <c r="D103" s="159">
         <v>-79435149</v>
       </c>
       <c r="E103" s="113">
         <v>17</v>
       </c>
-      <c r="F103" s="158">
+      <c r="F103" s="157">
         <v>-66139156</v>
       </c>
       <c r="G103" s="113">
         <v>9</v>
       </c>
-      <c r="H103" s="153">
+      <c r="H103" s="152">
         <v>-8358566</v>
       </c>
       <c r="I103" t="s">
@@ -19965,7 +21322,7 @@
     </row>
     <row r="104" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B104" s="104" t="s">
         <v>212</v>
@@ -19973,19 +21330,19 @@
       <c r="C104" s="108">
         <v>39629</v>
       </c>
-      <c r="D104" s="160">
+      <c r="D104" s="159">
         <v>312669142</v>
       </c>
       <c r="E104" s="113">
         <v>30</v>
       </c>
-      <c r="F104" s="158">
+      <c r="F104" s="157">
         <v>357171721</v>
       </c>
       <c r="G104" s="113">
         <v>22</v>
       </c>
-      <c r="H104" s="153">
+      <c r="H104" s="152">
         <v>22483269</v>
       </c>
       <c r="I104" t="s">
@@ -19994,7 +21351,7 @@
     </row>
     <row r="105" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B105" s="104" t="s">
         <v>211</v>
@@ -20002,19 +21359,19 @@
       <c r="C105" s="108">
         <v>39994</v>
       </c>
-      <c r="D105" s="160">
+      <c r="D105" s="159">
         <v>357256711</v>
       </c>
       <c r="E105" s="113">
         <v>15</v>
       </c>
-      <c r="F105" s="158">
+      <c r="F105" s="157">
         <v>283076049</v>
       </c>
       <c r="G105" s="113">
         <v>8</v>
       </c>
-      <c r="H105" s="153">
+      <c r="H105" s="152">
         <v>39616655</v>
       </c>
       <c r="I105" t="s">
@@ -20023,7 +21380,7 @@
     </row>
     <row r="106" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B106" s="104" t="s">
         <v>211</v>
@@ -20031,19 +21388,19 @@
       <c r="C106" s="108">
         <v>40359</v>
       </c>
-      <c r="D106" s="160">
+      <c r="D106" s="159">
         <v>207594800</v>
       </c>
       <c r="E106" s="113">
         <v>15</v>
       </c>
-      <c r="F106" s="158">
+      <c r="F106" s="157">
         <v>174565699</v>
       </c>
       <c r="G106" s="113">
         <v>9</v>
       </c>
-      <c r="H106" s="153">
+      <c r="H106" s="152">
         <v>22061348</v>
       </c>
       <c r="I106" t="s">
@@ -20057,7 +21414,7 @@
     </row>
     <row r="107" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B107" s="104" t="s">
         <v>212</v>
@@ -20065,19 +21422,19 @@
       <c r="C107" s="108">
         <v>40359</v>
       </c>
-      <c r="D107" s="160">
+      <c r="D107" s="159">
         <v>277673454</v>
       </c>
       <c r="E107" s="113">
         <v>30</v>
       </c>
-      <c r="F107" s="158">
+      <c r="F107" s="157">
         <v>308840731</v>
       </c>
       <c r="G107" s="113">
         <v>24</v>
       </c>
-      <c r="H107" s="153">
+      <c r="H107" s="152">
         <v>18344124</v>
       </c>
       <c r="I107" t="s">
@@ -20086,7 +21443,7 @@
     </row>
     <row r="108" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B108" s="104" t="s">
         <v>217</v>
@@ -20094,19 +21451,19 @@
       <c r="C108" s="108">
         <v>40724</v>
       </c>
-      <c r="D108" s="160">
+      <c r="D108" s="159">
         <v>5693576</v>
       </c>
       <c r="E108" s="113">
         <v>30</v>
       </c>
-      <c r="F108" s="158">
+      <c r="F108" s="157">
         <v>6237688</v>
       </c>
       <c r="G108" s="113">
         <v>25</v>
       </c>
-      <c r="H108" s="153">
+      <c r="H108" s="152">
         <v>360814</v>
       </c>
       <c r="I108" t="s">
@@ -20115,7 +21472,7 @@
     </row>
     <row r="109" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B109" s="104" t="s">
         <v>211</v>
@@ -20123,19 +21480,19 @@
       <c r="C109" s="108">
         <v>40724</v>
       </c>
-      <c r="D109" s="160">
+      <c r="D109" s="159">
         <v>125215079</v>
       </c>
       <c r="E109" s="113">
         <v>15</v>
       </c>
-      <c r="F109" s="158">
+      <c r="F109" s="157">
         <v>110480040</v>
       </c>
       <c r="G109" s="113">
         <v>10</v>
       </c>
-      <c r="H109" s="153">
+      <c r="H109" s="152">
         <v>12764710</v>
       </c>
       <c r="I109" t="s">
@@ -20147,7 +21504,7 @@
     </row>
     <row r="110" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B110" s="104" t="s">
         <v>212</v>
@@ -20155,19 +21512,19 @@
       <c r="C110" s="108">
         <v>40724</v>
       </c>
-      <c r="D110" s="160">
+      <c r="D110" s="159">
         <v>244615700</v>
       </c>
       <c r="E110" s="113">
         <v>30</v>
       </c>
-      <c r="F110" s="158">
+      <c r="F110" s="157">
         <v>267992582</v>
       </c>
       <c r="G110" s="113">
         <v>25</v>
       </c>
-      <c r="H110" s="153">
+      <c r="H110" s="152">
         <v>15501831</v>
       </c>
       <c r="I110" t="s">
@@ -20176,7 +21533,7 @@
     </row>
     <row r="111" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B111" s="104" t="s">
         <v>211</v>
@@ -20184,19 +21541,19 @@
       <c r="C111" s="108">
         <v>41090</v>
       </c>
-      <c r="D111" s="160">
+      <c r="D111" s="159">
         <v>248617082</v>
       </c>
       <c r="E111" s="113">
         <v>20</v>
       </c>
-      <c r="F111" s="158">
+      <c r="F111" s="157">
         <v>248156219</v>
       </c>
       <c r="G111" s="113">
         <v>16</v>
       </c>
-      <c r="H111" s="153">
+      <c r="H111" s="152">
         <v>19650558</v>
       </c>
       <c r="I111" t="s">
@@ -20205,7 +21562,7 @@
     </row>
     <row r="112" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B112" s="104" t="s">
         <v>211</v>
@@ -20213,19 +21570,19 @@
       <c r="C112" s="108">
         <v>41455</v>
       </c>
-      <c r="D112" s="160">
+      <c r="D112" s="159">
         <v>115390840</v>
       </c>
       <c r="E112" s="113">
         <v>20</v>
       </c>
-      <c r="F112" s="158">
+      <c r="F112" s="157">
         <v>115636623</v>
       </c>
       <c r="G112" s="113">
         <v>17</v>
       </c>
-      <c r="H112" s="153">
+      <c r="H112" s="152">
         <v>8748885</v>
       </c>
       <c r="I112" t="s">
@@ -20234,7 +21591,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B113" s="104" t="s">
         <v>213</v>
@@ -20242,19 +21599,19 @@
       <c r="C113" s="108">
         <v>41820</v>
       </c>
-      <c r="D113" s="160">
+      <c r="D113" s="159">
         <v>-246417577</v>
       </c>
       <c r="E113" s="113">
         <v>20</v>
       </c>
-      <c r="F113" s="158">
+      <c r="F113" s="157">
         <v>-247092243</v>
       </c>
       <c r="G113" s="113">
         <v>18</v>
       </c>
-      <c r="H113" s="153">
+      <c r="H113" s="152">
         <v>-17922161</v>
       </c>
       <c r="I113" t="s">
@@ -20263,7 +21620,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B114" s="104" t="s">
         <v>212</v>
@@ -20271,19 +21628,19 @@
       <c r="C114" s="108">
         <v>41820</v>
       </c>
-      <c r="D114" s="160">
+      <c r="D114" s="159">
         <v>35896722</v>
       </c>
       <c r="E114" s="113">
         <v>25</v>
       </c>
-      <c r="F114" s="158">
+      <c r="F114" s="157">
         <v>36762151</v>
       </c>
       <c r="G114" s="113">
         <v>23</v>
       </c>
-      <c r="H114" s="153">
+      <c r="H114" s="152">
         <v>2245855</v>
       </c>
       <c r="I114" t="s">
@@ -20292,27 +21649,27 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="50" t="s">
-        <v>279</v>
-      </c>
-      <c r="B115" s="152" t="s">
+        <v>278</v>
+      </c>
+      <c r="B115" s="151" t="s">
         <v>213</v>
       </c>
       <c r="C115" s="108">
         <v>42185</v>
       </c>
-      <c r="D115" s="160">
+      <c r="D115" s="159">
         <v>-458582182</v>
       </c>
       <c r="E115" s="113">
         <v>20</v>
       </c>
-      <c r="F115" s="158">
+      <c r="F115" s="157">
         <v>-459826294</v>
       </c>
       <c r="G115" s="113">
         <v>19</v>
       </c>
-      <c r="H115" s="153">
+      <c r="H115" s="152">
         <v>-32070264</v>
       </c>
       <c r="I115" t="s">
@@ -20321,27 +21678,27 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="50" t="s">
-        <v>279</v>
-      </c>
-      <c r="B116" s="152" t="s">
+        <v>278</v>
+      </c>
+      <c r="B116" s="151" t="s">
         <v>213</v>
       </c>
       <c r="C116" s="108">
         <v>42551</v>
       </c>
-      <c r="D116" s="160">
+      <c r="D116" s="159">
         <v>-228076007</v>
       </c>
       <c r="E116" s="113">
         <v>20</v>
       </c>
-      <c r="F116" s="159">
+      <c r="F116" s="158">
         <v>-228076007</v>
       </c>
       <c r="G116" s="113">
         <v>20</v>
       </c>
-      <c r="H116" s="155">
+      <c r="H116" s="154">
         <v>-15336689</v>
       </c>
       <c r="I116" t="s">
@@ -20350,7 +21707,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B117" s="103" t="s">
         <v>213</v>
@@ -20358,19 +21715,19 @@
       <c r="C117" s="107">
         <v>39629</v>
       </c>
-      <c r="D117" s="163">
+      <c r="D117" s="162">
         <v>-169104</v>
       </c>
       <c r="E117" s="112">
         <v>17</v>
       </c>
-      <c r="F117" s="157">
+      <c r="F117" s="156">
         <v>-140798</v>
       </c>
       <c r="G117" s="112">
         <v>9</v>
       </c>
-      <c r="H117" s="151">
+      <c r="H117" s="150">
         <v>-17794</v>
       </c>
       <c r="I117" t="s">
@@ -20379,7 +21736,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B118" s="104" t="s">
         <v>212</v>
@@ -20387,19 +21744,19 @@
       <c r="C118" s="108">
         <v>39629</v>
       </c>
-      <c r="D118" s="160">
+      <c r="D118" s="159">
         <v>126433</v>
       </c>
       <c r="E118" s="113">
         <v>30</v>
       </c>
-      <c r="F118" s="158">
+      <c r="F118" s="157">
         <v>144427</v>
       </c>
       <c r="G118" s="113">
         <v>22</v>
       </c>
-      <c r="H118" s="153">
+      <c r="H118" s="152">
         <v>9091</v>
       </c>
       <c r="I118" t="s">
@@ -20408,7 +21765,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B119" s="104" t="s">
         <v>211</v>
@@ -20416,19 +21773,19 @@
       <c r="C119" s="108">
         <v>39994</v>
       </c>
-      <c r="D119" s="160">
+      <c r="D119" s="159">
         <v>6588231</v>
       </c>
       <c r="E119" s="113">
         <v>15</v>
       </c>
-      <c r="F119" s="158">
+      <c r="F119" s="157">
         <v>5220253</v>
       </c>
       <c r="G119" s="113">
         <v>8</v>
       </c>
-      <c r="H119" s="153">
+      <c r="H119" s="152">
         <v>730577</v>
       </c>
       <c r="I119" t="s">
@@ -20437,7 +21794,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B120" s="104" t="s">
         <v>211</v>
@@ -20445,19 +21802,19 @@
       <c r="C120" s="108">
         <v>40359</v>
       </c>
-      <c r="D120" s="160">
+      <c r="D120" s="159">
         <v>1742728</v>
       </c>
       <c r="E120" s="113">
         <v>15</v>
       </c>
-      <c r="F120" s="158">
+      <c r="F120" s="157">
         <v>1465453</v>
       </c>
       <c r="G120" s="113">
         <v>9</v>
       </c>
-      <c r="H120" s="153">
+      <c r="H120" s="152">
         <v>185202</v>
       </c>
       <c r="I120" t="s">
@@ -20466,7 +21823,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B121" s="104" t="s">
         <v>212</v>
@@ -20474,19 +21831,19 @@
       <c r="C121" s="108">
         <v>40359</v>
       </c>
-      <c r="D121" s="160">
+      <c r="D121" s="159">
         <v>1043633</v>
       </c>
       <c r="E121" s="113">
         <v>30</v>
       </c>
-      <c r="F121" s="158">
+      <c r="F121" s="157">
         <v>1160776</v>
       </c>
       <c r="G121" s="113">
         <v>24</v>
       </c>
-      <c r="H121" s="153">
+      <c r="H121" s="152">
         <v>68946</v>
       </c>
       <c r="I121" t="s">
@@ -20495,27 +21852,27 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="B122" s="154" t="s">
+        <v>279</v>
+      </c>
+      <c r="B122" s="153" t="s">
         <v>217</v>
       </c>
       <c r="C122" s="108">
         <v>40724</v>
       </c>
-      <c r="D122" s="160">
+      <c r="D122" s="159">
         <v>41208</v>
       </c>
       <c r="E122" s="113">
         <v>30</v>
       </c>
-      <c r="F122" s="158">
+      <c r="F122" s="157">
         <v>45146</v>
       </c>
       <c r="G122" s="113">
         <v>25</v>
       </c>
-      <c r="H122" s="153">
+      <c r="H122" s="152">
         <v>2611</v>
       </c>
       <c r="I122" t="s">
@@ -20524,27 +21881,27 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="B123" s="154" t="s">
+        <v>279</v>
+      </c>
+      <c r="B123" s="153" t="s">
         <v>213</v>
       </c>
       <c r="C123" s="108">
         <v>40724</v>
       </c>
-      <c r="D123" s="160">
+      <c r="D123" s="159">
         <v>-447574</v>
       </c>
       <c r="E123" s="113">
         <v>15</v>
       </c>
-      <c r="F123" s="158">
+      <c r="F123" s="157">
         <v>-394904</v>
       </c>
       <c r="G123" s="113">
         <v>10</v>
       </c>
-      <c r="H123" s="153">
+      <c r="H123" s="152">
         <v>-45627</v>
       </c>
       <c r="I123" t="s">
@@ -20553,7 +21910,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B124" s="104" t="s">
         <v>212</v>
@@ -20561,19 +21918,19 @@
       <c r="C124" s="108">
         <v>40724</v>
       </c>
-      <c r="D124" s="160">
+      <c r="D124" s="159">
         <v>734993</v>
       </c>
       <c r="E124" s="113">
         <v>30</v>
       </c>
-      <c r="F124" s="158">
+      <c r="F124" s="157">
         <v>805234</v>
       </c>
       <c r="G124" s="113">
         <v>25</v>
       </c>
-      <c r="H124" s="153">
+      <c r="H124" s="152">
         <v>46578</v>
       </c>
       <c r="I124" t="s">
@@ -20582,7 +21939,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B125" s="104" t="s">
         <v>211</v>
@@ -20590,19 +21947,19 @@
       <c r="C125" s="108">
         <v>41090</v>
       </c>
-      <c r="D125" s="160">
+      <c r="D125" s="159">
         <v>1311840</v>
       </c>
       <c r="E125" s="113">
         <v>20</v>
       </c>
-      <c r="F125" s="158">
+      <c r="F125" s="157">
         <v>1309407</v>
       </c>
       <c r="G125" s="113">
         <v>16</v>
       </c>
-      <c r="H125" s="153">
+      <c r="H125" s="152">
         <v>103687</v>
       </c>
       <c r="I125" t="s">
@@ -20611,7 +21968,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B126" s="104" t="s">
         <v>211</v>
@@ -20619,19 +21976,19 @@
       <c r="C126" s="108">
         <v>41455</v>
       </c>
-      <c r="D126" s="160">
+      <c r="D126" s="159">
         <v>1253385</v>
       </c>
       <c r="E126" s="113">
         <v>20</v>
       </c>
-      <c r="F126" s="158">
+      <c r="F126" s="157">
         <v>1256055</v>
       </c>
       <c r="G126" s="113">
         <v>17</v>
       </c>
-      <c r="H126" s="153">
+      <c r="H126" s="152">
         <v>95031</v>
       </c>
       <c r="I126" t="s">
@@ -20640,7 +21997,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B127" s="104" t="s">
         <v>213</v>
@@ -20648,19 +22005,19 @@
       <c r="C127" s="108">
         <v>41820</v>
       </c>
-      <c r="D127" s="160">
+      <c r="D127" s="159">
         <v>-2336763</v>
       </c>
       <c r="E127" s="113">
         <v>20</v>
       </c>
-      <c r="F127" s="158">
+      <c r="F127" s="157">
         <v>-2343160</v>
       </c>
       <c r="G127" s="113">
         <v>18</v>
       </c>
-      <c r="H127" s="153">
+      <c r="H127" s="152">
         <v>-169955</v>
       </c>
       <c r="I127" t="s">
@@ -20669,7 +22026,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B128" s="104" t="s">
         <v>212</v>
@@ -20677,19 +22034,19 @@
       <c r="C128" s="108">
         <v>41820</v>
       </c>
-      <c r="D128" s="160">
+      <c r="D128" s="159">
         <v>-476026</v>
       </c>
       <c r="E128" s="113">
         <v>25</v>
       </c>
-      <c r="F128" s="158">
+      <c r="F128" s="157">
         <v>-487503</v>
       </c>
       <c r="G128" s="113">
         <v>23</v>
       </c>
-      <c r="H128" s="153">
+      <c r="H128" s="152">
         <v>-29782</v>
       </c>
       <c r="I128" t="s">
@@ -20698,7 +22055,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B129" s="104" t="s">
         <v>213</v>
@@ -20706,19 +22063,19 @@
       <c r="C129" s="108">
         <v>42185</v>
       </c>
-      <c r="D129" s="160">
+      <c r="D129" s="159">
         <v>-2306059</v>
       </c>
       <c r="E129" s="113">
         <v>20</v>
       </c>
-      <c r="F129" s="158">
+      <c r="F129" s="157">
         <v>-2312315</v>
       </c>
       <c r="G129" s="113">
         <v>19</v>
       </c>
-      <c r="H129" s="153">
+      <c r="H129" s="152">
         <v>-161271</v>
       </c>
       <c r="I129" t="s">
@@ -20727,7 +22084,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B130" s="104" t="s">
         <v>213</v>
@@ -20735,19 +22092,19 @@
       <c r="C130" s="108">
         <v>42551</v>
       </c>
-      <c r="D130" s="160">
+      <c r="D130" s="159">
         <v>-1753214</v>
       </c>
       <c r="E130" s="113">
         <v>20</v>
       </c>
-      <c r="F130" s="159">
+      <c r="F130" s="158">
         <v>-1753214</v>
       </c>
       <c r="G130" s="113">
         <v>20</v>
       </c>
-      <c r="H130" s="155">
+      <c r="H130" s="154">
         <v>-117893</v>
       </c>
       <c r="I130" t="s">
@@ -20824,7 +22181,7 @@
       <c r="B7">
         <v>2017</v>
       </c>
-      <c r="C7" s="158">
+      <c r="C7" s="157">
         <v>-31778122</v>
       </c>
     </row>
@@ -20832,7 +22189,7 @@
       <c r="B8">
         <v>2018</v>
       </c>
-      <c r="C8" s="158">
+      <c r="C8" s="157">
         <v>-31778122</v>
       </c>
     </row>
@@ -20840,7 +22197,7 @@
       <c r="B9">
         <v>2019</v>
       </c>
-      <c r="C9" s="158">
+      <c r="C9" s="157">
         <v>-31778122</v>
       </c>
     </row>
@@ -20848,7 +22205,7 @@
       <c r="B10">
         <v>2020</v>
       </c>
-      <c r="C10" s="158">
+      <c r="C10" s="157">
         <v>-44654689</v>
       </c>
     </row>
@@ -20856,7 +22213,7 @@
       <c r="B11">
         <v>2021</v>
       </c>
-      <c r="C11" s="158">
+      <c r="C11" s="157">
         <v>-269200210</v>
       </c>
     </row>
@@ -20864,7 +22221,7 @@
       <c r="B12">
         <v>2022</v>
       </c>
-      <c r="C12" s="159">
+      <c r="C12" s="158">
         <v>-177279127</v>
       </c>
     </row>

--- a/Data_inputs/LAFPP_PlanInfo_2016.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo_2016.xlsx
@@ -3332,6 +3332,49 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="26" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="26" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="15" fillId="6" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3382,49 +3425,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="26" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="26" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="15" fillId="6" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6672,15 +6672,15 @@
       <c r="A5" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="194" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="174"/>
-      <c r="D5" s="171" t="s">
+      <c r="C5" s="195"/>
+      <c r="D5" s="192" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
       <c r="G5" s="42" t="s">
         <v>75</v>
       </c>
@@ -6703,10 +6703,10 @@
       <c r="E6" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="175" t="s">
+      <c r="F6" s="196" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="175"/>
+      <c r="G6" s="196"/>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
     </row>
@@ -6730,10 +6730,10 @@
       <c r="C9" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="172" t="s">
+      <c r="D9" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="172"/>
+      <c r="E9" s="193"/>
       <c r="F9" s="38" t="s">
         <v>61</v>
       </c>
@@ -6745,16 +6745,16 @@
       <c r="A10" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="197" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="176"/>
-      <c r="D10" s="176" t="s">
+      <c r="C10" s="197"/>
+      <c r="D10" s="197" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="176"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="176"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="197"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
@@ -6765,18 +6765,18 @@
       <c r="A12" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="172" t="s">
+      <c r="B12" s="193" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="174"/>
-      <c r="D12" s="172" t="s">
+      <c r="C12" s="195"/>
+      <c r="D12" s="193" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172" t="s">
+      <c r="E12" s="193"/>
+      <c r="F12" s="193" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="172"/>
+      <c r="G12" s="193"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
@@ -6946,22 +6946,22 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="178" t="s">
+      <c r="B5" s="199" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178" t="s">
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="177"/>
+      <c r="A6" s="198"/>
       <c r="B6" s="57" t="s">
         <v>90</v>
       </c>
@@ -9683,10 +9683,10 @@
       <c r="E4" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="172" t="s">
+      <c r="F4" s="193" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="174"/>
+      <c r="G4" s="195"/>
     </row>
     <row r="5" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
@@ -9704,21 +9704,21 @@
       <c r="E5" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="172" t="s">
+      <c r="F5" s="193" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="172"/>
+      <c r="G5" s="193"/>
     </row>
     <row r="6" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="179" t="s">
+      <c r="A6" s="200" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
+      <c r="B6" s="200"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
     </row>
     <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -10330,30 +10330,30 @@
       <c r="A4" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="201" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
     </row>
     <row r="5" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="194" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
     </row>
     <row r="7" spans="1:7" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="181" t="s">
+      <c r="A7" s="202" t="s">
         <v>198</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -10362,10 +10362,10 @@
       <c r="C7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="172" t="s">
+      <c r="D7" s="193" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="174"/>
+      <c r="E7" s="195"/>
       <c r="F7" s="8" t="s">
         <v>61</v>
       </c>
@@ -10374,15 +10374,15 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182" t="s">
+      <c r="A8" s="202"/>
+      <c r="B8" s="203" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="204"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -10682,10 +10682,10 @@
       <c r="D5" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="E5" s="184" t="s">
+      <c r="E5" s="205" t="s">
         <v>192</v>
       </c>
-      <c r="F5" s="184"/>
+      <c r="F5" s="205"/>
       <c r="G5" s="98" t="s">
         <v>195</v>
       </c>
@@ -10703,10 +10703,10 @@
       <c r="D6" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="184" t="s">
+      <c r="E6" s="205" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="184"/>
+      <c r="F6" s="205"/>
       <c r="G6" s="98" t="s">
         <v>193</v>
       </c>
@@ -10727,10 +10727,10 @@
       <c r="D7" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="184" t="s">
+      <c r="E7" s="205" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="184"/>
+      <c r="F7" s="205"/>
       <c r="G7" s="98" t="s">
         <v>194</v>
       </c>
@@ -10839,7 +10839,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11200,24 +11200,24 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="J5" s="185" t="s">
+      <c r="J5" s="206" t="s">
         <v>166</v>
       </c>
-      <c r="K5" s="185"/>
-      <c r="L5" s="185"/>
-      <c r="M5" s="185"/>
-      <c r="N5" s="185"/>
-      <c r="O5" s="185"/>
-      <c r="P5" s="185"/>
-      <c r="Q5" s="185" t="s">
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
+      <c r="O5" s="206"/>
+      <c r="P5" s="206"/>
+      <c r="Q5" s="206" t="s">
         <v>179</v>
       </c>
-      <c r="R5" s="185"/>
-      <c r="S5" s="185"/>
-      <c r="T5" s="185"/>
-      <c r="U5" s="185"/>
-      <c r="V5" s="185"/>
-      <c r="W5" s="185"/>
+      <c r="R5" s="206"/>
+      <c r="S5" s="206"/>
+      <c r="T5" s="206"/>
+      <c r="U5" s="206"/>
+      <c r="V5" s="206"/>
+      <c r="W5" s="206"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -17065,13 +17065,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
     </row>
     <row r="2" spans="2:18" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="147" t="s">
@@ -17095,23 +17095,23 @@
       <c r="H2" s="137" t="s">
         <v>269</v>
       </c>
-      <c r="I2" s="189"/>
-      <c r="J2" s="199" t="s">
+      <c r="I2" s="172"/>
+      <c r="J2" s="182" t="s">
         <v>301</v>
       </c>
-      <c r="K2" s="199" t="s">
+      <c r="K2" s="182" t="s">
         <v>315</v>
       </c>
-      <c r="L2" s="199" t="s">
+      <c r="L2" s="182" t="s">
         <v>314</v>
       </c>
-      <c r="M2" s="199" t="s">
+      <c r="M2" s="182" t="s">
         <v>311</v>
       </c>
-      <c r="N2" s="199" t="s">
+      <c r="N2" s="182" t="s">
         <v>312</v>
       </c>
-      <c r="O2" s="190"/>
+      <c r="O2" s="173"/>
       <c r="P2" s="169" t="s">
         <v>268</v>
       </c>
@@ -17131,13 +17131,13 @@
       <c r="F3" s="142"/>
       <c r="G3" s="142"/>
       <c r="H3" s="142"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="194"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
     </row>
     <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -17163,17 +17163,17 @@
         <f t="shared" ref="H4:H8" si="1">G4/D4</f>
         <v>0.78078533842712794</v>
       </c>
-      <c r="I4" s="195"/>
-      <c r="J4" s="196">
+      <c r="I4" s="178"/>
+      <c r="J4" s="179">
         <v>2006</v>
       </c>
-      <c r="K4" s="203">
+      <c r="K4" s="186">
         <v>224946082</v>
       </c>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="204"/>
-      <c r="O4" s="194"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="187"/>
+      <c r="O4" s="177"/>
       <c r="P4" s="170">
         <v>91545104</v>
       </c>
@@ -17206,24 +17206,24 @@
         <f t="shared" si="1"/>
         <v>0.77500961773194643</v>
       </c>
-      <c r="I5" s="195"/>
-      <c r="J5" s="196">
+      <c r="I5" s="178"/>
+      <c r="J5" s="179">
         <v>2007</v>
       </c>
-      <c r="K5" s="203">
+      <c r="K5" s="186">
         <v>261635491</v>
       </c>
-      <c r="L5" s="205">
+      <c r="L5" s="188">
         <v>232876538</v>
       </c>
-      <c r="M5" s="200" t="s">
+      <c r="M5" s="183" t="s">
         <v>300</v>
       </c>
-      <c r="N5" s="201">
+      <c r="N5" s="184">
         <f>K5/L5</f>
         <v>1.1234944200347052</v>
       </c>
-      <c r="O5" s="198"/>
+      <c r="O5" s="181"/>
       <c r="P5" s="170">
         <v>95700124</v>
       </c>
@@ -17259,24 +17259,24 @@
         <f t="shared" si="1"/>
         <v>0.73390839722357937</v>
       </c>
-      <c r="I6" s="195"/>
-      <c r="J6" s="196">
+      <c r="I6" s="178"/>
+      <c r="J6" s="179">
         <v>2008</v>
       </c>
-      <c r="K6" s="203">
+      <c r="K6" s="186">
         <v>238697929</v>
       </c>
-      <c r="L6" s="205">
+      <c r="L6" s="188">
         <v>217935879</v>
       </c>
-      <c r="M6" s="200" t="s">
+      <c r="M6" s="183" t="s">
         <v>302</v>
       </c>
-      <c r="N6" s="201">
+      <c r="N6" s="184">
         <f t="shared" ref="N6:N13" si="3">K6/L6</f>
         <v>1.095266782575071</v>
       </c>
-      <c r="O6" s="198"/>
+      <c r="O6" s="181"/>
       <c r="P6" s="170">
         <v>102485719</v>
       </c>
@@ -17309,24 +17309,24 @@
         <f t="shared" si="1"/>
         <v>0.68495539066326572</v>
       </c>
-      <c r="I7" s="195"/>
-      <c r="J7" s="196">
+      <c r="I7" s="178"/>
+      <c r="J7" s="179">
         <v>2009</v>
       </c>
-      <c r="K7" s="203">
+      <c r="K7" s="186">
         <v>250516858</v>
       </c>
-      <c r="L7" s="205">
+      <c r="L7" s="188">
         <v>238683312</v>
       </c>
-      <c r="M7" s="200" t="s">
+      <c r="M7" s="183" t="s">
         <v>303</v>
       </c>
-      <c r="N7" s="201">
+      <c r="N7" s="184">
         <f t="shared" si="3"/>
         <v>1.0495784388981497</v>
       </c>
-      <c r="O7" s="198"/>
+      <c r="O7" s="181"/>
       <c r="P7" s="170">
         <v>112286300</v>
       </c>
@@ -17359,24 +17359,24 @@
         <f t="shared" si="1"/>
         <v>0.69662969456976231</v>
       </c>
-      <c r="I8" s="195"/>
-      <c r="J8" s="196">
+      <c r="I8" s="178"/>
+      <c r="J8" s="179">
         <v>2010</v>
       </c>
-      <c r="K8" s="203">
+      <c r="K8" s="186">
         <v>277092251</v>
       </c>
-      <c r="L8" s="205">
+      <c r="L8" s="188">
         <v>290310941</v>
       </c>
-      <c r="M8" s="200" t="s">
+      <c r="M8" s="183" t="s">
         <v>304</v>
       </c>
-      <c r="N8" s="201">
+      <c r="N8" s="184">
         <f t="shared" si="3"/>
         <v>0.95446713115782988</v>
       </c>
-      <c r="O8" s="198"/>
+      <c r="O8" s="181"/>
       <c r="P8" s="170">
         <v>111732379</v>
       </c>
@@ -17409,24 +17409,24 @@
         <f>G9/D9</f>
         <v>0.74437165003644323</v>
       </c>
-      <c r="I9" s="195"/>
-      <c r="J9" s="196">
+      <c r="I9" s="178"/>
+      <c r="J9" s="179">
         <v>2011</v>
       </c>
-      <c r="K9" s="203">
+      <c r="K9" s="186">
         <v>321593433</v>
       </c>
-      <c r="L9" s="205">
+      <c r="L9" s="188">
         <v>368197823</v>
       </c>
-      <c r="M9" s="200" t="s">
+      <c r="M9" s="183" t="s">
         <v>305</v>
       </c>
-      <c r="N9" s="201">
+      <c r="N9" s="184">
         <f t="shared" si="3"/>
         <v>0.8734256774788155</v>
       </c>
-      <c r="O9" s="198"/>
+      <c r="O9" s="181"/>
       <c r="P9" s="170">
         <v>110770763</v>
       </c>
@@ -17459,24 +17459,24 @@
         <f t="shared" ref="H10:H12" si="5">G10/D10</f>
         <v>0.72755930049493389</v>
       </c>
-      <c r="I10" s="195"/>
-      <c r="J10" s="196">
+      <c r="I10" s="178"/>
+      <c r="J10" s="179">
         <v>2012</v>
       </c>
-      <c r="K10" s="203">
+      <c r="K10" s="186">
         <v>375448092</v>
       </c>
-      <c r="L10" s="205">
+      <c r="L10" s="188">
         <v>436274233</v>
       </c>
-      <c r="M10" s="200" t="s">
+      <c r="M10" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="N10" s="201">
+      <c r="N10" s="184">
         <f t="shared" si="3"/>
         <v>0.86057819509134292</v>
       </c>
-      <c r="O10" s="198"/>
+      <c r="O10" s="181"/>
       <c r="P10" s="170">
         <v>127343851</v>
       </c>
@@ -17509,24 +17509,24 @@
         <f t="shared" si="5"/>
         <v>0.75279709651905335</v>
       </c>
-      <c r="I11" s="195"/>
-      <c r="J11" s="196">
+      <c r="I11" s="178"/>
+      <c r="J11" s="179">
         <v>2013</v>
       </c>
-      <c r="K11" s="203">
+      <c r="K11" s="186">
         <v>440698260</v>
       </c>
-      <c r="L11" s="205">
+      <c r="L11" s="188">
         <v>464480855</v>
       </c>
-      <c r="M11" s="200" t="s">
+      <c r="M11" s="183" t="s">
         <v>307</v>
       </c>
-      <c r="N11" s="201">
+      <c r="N11" s="184">
         <f t="shared" si="3"/>
         <v>0.94879746981175361</v>
       </c>
-      <c r="O11" s="198"/>
+      <c r="O11" s="181"/>
       <c r="P11" s="170">
         <v>129370345</v>
       </c>
@@ -17559,24 +17559,24 @@
         <f t="shared" si="5"/>
         <v>0.78470417086092681</v>
       </c>
-      <c r="I12" s="195"/>
-      <c r="J12" s="196">
+      <c r="I12" s="178"/>
+      <c r="J12" s="179">
         <v>2014</v>
       </c>
-      <c r="K12" s="203">
+      <c r="K12" s="186">
         <v>480332251</v>
       </c>
-      <c r="L12" s="205">
+      <c r="L12" s="188">
         <v>498094638</v>
       </c>
-      <c r="M12" s="200" t="s">
+      <c r="M12" s="183" t="s">
         <v>308</v>
       </c>
-      <c r="N12" s="201">
+      <c r="N12" s="184">
         <f t="shared" si="3"/>
         <v>0.96433933304056163</v>
       </c>
-      <c r="O12" s="198"/>
+      <c r="O12" s="181"/>
       <c r="P12" s="170">
         <v>132691115</v>
       </c>
@@ -17597,24 +17597,24 @@
       </c>
       <c r="G13" s="144"/>
       <c r="H13" s="145"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="196">
+      <c r="I13" s="178"/>
+      <c r="J13" s="179">
         <v>2015</v>
       </c>
-      <c r="K13" s="203">
+      <c r="K13" s="186">
         <v>478385438</v>
       </c>
-      <c r="L13" s="205">
+      <c r="L13" s="188">
         <v>493428859</v>
       </c>
-      <c r="M13" s="200" t="s">
+      <c r="M13" s="183" t="s">
         <v>309</v>
       </c>
-      <c r="N13" s="201">
+      <c r="N13" s="184">
         <f t="shared" si="3"/>
         <v>0.96951248244683641</v>
       </c>
-      <c r="O13" s="198"/>
+      <c r="O13" s="181"/>
       <c r="P13" s="170">
         <v>134441085</v>
       </c>
@@ -17624,39 +17624,39 @@
       </c>
     </row>
     <row r="14" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I14" s="188"/>
-      <c r="J14" s="208">
+      <c r="I14" s="171"/>
+      <c r="J14" s="191">
         <v>2016</v>
       </c>
-      <c r="K14" s="206"/>
-      <c r="L14" s="207">
+      <c r="K14" s="189"/>
+      <c r="L14" s="190">
         <v>456783928</v>
       </c>
-      <c r="M14" s="202" t="s">
+      <c r="M14" s="185" t="s">
         <v>310</v>
       </c>
-      <c r="N14" s="207"/>
-      <c r="O14" s="197"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="180"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I15" s="188"/>
-      <c r="J15" s="194" t="s">
+      <c r="I15" s="171"/>
+      <c r="J15" s="177" t="s">
         <v>313</v>
       </c>
-      <c r="K15" s="188"/>
-      <c r="L15" s="188"/>
-      <c r="M15" s="188"/>
-      <c r="N15" s="188"/>
-      <c r="O15" s="188"/>
+      <c r="K15" s="171"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="171"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I16" s="188"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="188"/>
-      <c r="L16" s="188"/>
-      <c r="M16" s="188"/>
-      <c r="N16" s="188"/>
-      <c r="O16" s="188"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="171"/>
+      <c r="L16" s="171"/>
+      <c r="M16" s="171"/>
+      <c r="N16" s="171"/>
+      <c r="O16" s="171"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17684,15 +17684,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E2" s="186" t="s">
+      <c r="E2" s="207" t="s">
         <v>272</v>
       </c>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="187" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="208" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="187"/>
+      <c r="I2" s="208"/>
       <c r="L2" t="s">
         <v>276</v>
       </c>

--- a/Data_inputs/LAFPP_PlanInfo_2016.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo_2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="1" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -2607,7 +2607,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
+  <numFmts count="10">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -2615,6 +2615,9 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="168" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -2892,7 +2895,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3425,6 +3428,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5861,8 +5871,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>399145</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>570595</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>113619</xdr:rowOff>
     </xdr:to>
@@ -6913,15 +6923,16 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -7721,6 +7732,470 @@
       </c>
       <c r="G32" s="66">
         <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E39" s="211"/>
+      <c r="L39">
+        <v>57</v>
+      </c>
+      <c r="M39" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="N39" s="209">
+        <f>1-M39</f>
+        <v>0.8</v>
+      </c>
+      <c r="O39" s="210">
+        <f>PRODUCT($N$39:N39)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q39">
+        <v>0.2</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f>R39*Q39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1243</v>
+      </c>
+      <c r="D40">
+        <v>6056</v>
+      </c>
+      <c r="E40" s="211"/>
+      <c r="L40">
+        <v>58</v>
+      </c>
+      <c r="M40" s="66">
+        <v>0.22</v>
+      </c>
+      <c r="N40" s="209">
+        <f t="shared" ref="N40:N47" si="0">1-M40</f>
+        <v>0.78</v>
+      </c>
+      <c r="O40" s="210">
+        <f>PRODUCT($N$39:N40)</f>
+        <v>0.62400000000000011</v>
+      </c>
+      <c r="P40" s="210">
+        <f>O39</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q40" s="210">
+        <f>P40*M40</f>
+        <v>0.17600000000000002</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <f t="shared" ref="S40:S48" si="1">R40*Q40</f>
+        <v>0.17600000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <f>$B$40*B41</f>
+        <v>1243</v>
+      </c>
+      <c r="D41">
+        <f>$D$40*(1.03)^(A41-1)</f>
+        <v>6056</v>
+      </c>
+      <c r="E41" s="211">
+        <f>C41*D41*12</f>
+        <v>90331296</v>
+      </c>
+      <c r="F41">
+        <f>E41/(1.075)^(A41-1)</f>
+        <v>90331296</v>
+      </c>
+      <c r="G41">
+        <f>282080479.38686/5</f>
+        <v>56416095.877372004</v>
+      </c>
+      <c r="H41">
+        <f>G41/(1.075)^(A41-1)</f>
+        <v>56416095.877372004</v>
+      </c>
+      <c r="L41">
+        <v>59</v>
+      </c>
+      <c r="M41" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="N41" s="209">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="O41" s="210">
+        <f>PRODUCT($N$39:N41)</f>
+        <v>0.46800000000000008</v>
+      </c>
+      <c r="P41" s="210">
+        <f t="shared" ref="P41:P48" si="2">O40</f>
+        <v>0.62400000000000011</v>
+      </c>
+      <c r="Q41" s="210">
+        <f t="shared" ref="Q41:Q48" si="3">P41*M41</f>
+        <v>0.15600000000000003</v>
+      </c>
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="1"/>
+        <v>0.31200000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>0.8</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:C45" si="4">$B$40*B42</f>
+        <v>994.40000000000009</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:D45" si="5">$D$40*(1.03)^(A42-1)</f>
+        <v>6237.68</v>
+      </c>
+      <c r="E42" s="211">
+        <f t="shared" ref="E42:E45" si="6">C42*D42*12</f>
+        <v>74432987.904000014</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42:H45" si="7">E42/(1.075)^(A42-1)</f>
+        <v>69239988.747906998</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ref="G42:G45" si="8">282080479.38686/5</f>
+        <v>56416095.877372004</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ref="H42:H45" si="9">G42/(1.075)^(A42-1)</f>
+        <v>52480089.18825303</v>
+      </c>
+      <c r="L42">
+        <v>60</v>
+      </c>
+      <c r="M42" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="N42" s="209">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="O42" s="210">
+        <f>PRODUCT($N$39:N42)</f>
+        <v>0.35100000000000009</v>
+      </c>
+      <c r="P42" s="210">
+        <f t="shared" si="2"/>
+        <v>0.46800000000000008</v>
+      </c>
+      <c r="Q42" s="210">
+        <f t="shared" si="3"/>
+        <v>0.11700000000000002</v>
+      </c>
+      <c r="R42">
+        <v>3</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="1"/>
+        <v>0.35100000000000009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>0.6</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="4"/>
+        <v>745.8</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="5"/>
+        <v>6424.8103999999994</v>
+      </c>
+      <c r="E43" s="211">
+        <f t="shared" si="6"/>
+        <v>57499483.155839995</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="7"/>
+        <v>49756177.960705243</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="8"/>
+        <v>56416095.877372004</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="9"/>
+        <v>48818687.616979562</v>
+      </c>
+      <c r="L43">
+        <v>61</v>
+      </c>
+      <c r="M43" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="N43" s="209">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="O43" s="210">
+        <f>PRODUCT($N$39:N43)</f>
+        <v>0.2632500000000001</v>
+      </c>
+      <c r="P43" s="210">
+        <f t="shared" si="2"/>
+        <v>0.35100000000000009</v>
+      </c>
+      <c r="Q43" s="210">
+        <f t="shared" si="3"/>
+        <v>8.7750000000000022E-2</v>
+      </c>
+      <c r="R43">
+        <v>4</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="1"/>
+        <v>0.35100000000000009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>0.4</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="4"/>
+        <v>497.20000000000005</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="5"/>
+        <v>6617.5547120000001</v>
+      </c>
+      <c r="E44" s="211">
+        <f t="shared" si="6"/>
+        <v>39482978.433676802</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="7"/>
+        <v>31782240.805907853</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="8"/>
+        <v>56416095.877372004</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="9"/>
+        <v>45412732.666957736</v>
+      </c>
+      <c r="L44">
+        <v>62</v>
+      </c>
+      <c r="M44" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="N44" s="209">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="O44" s="210">
+        <f>PRODUCT($N$39:N44)</f>
+        <v>0.19743750000000007</v>
+      </c>
+      <c r="P44" s="210">
+        <f t="shared" si="2"/>
+        <v>0.2632500000000001</v>
+      </c>
+      <c r="Q44" s="210">
+        <f t="shared" si="3"/>
+        <v>6.5812500000000024E-2</v>
+      </c>
+      <c r="R44">
+        <v>5</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="1"/>
+        <v>0.32906250000000015</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>0.2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="4"/>
+        <v>248.60000000000002</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="5"/>
+        <v>6816.0813533599994</v>
+      </c>
+      <c r="E45" s="211">
+        <f t="shared" si="6"/>
+        <v>20333733.893343553</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="7"/>
+        <v>15225910.711667482</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="8"/>
+        <v>56416095.877372004</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="9"/>
+        <v>42244402.480890915</v>
+      </c>
+      <c r="L45">
+        <v>63</v>
+      </c>
+      <c r="M45" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="N45" s="209">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="O45" s="210">
+        <f>PRODUCT($N$39:N45)</f>
+        <v>0.14807812500000006</v>
+      </c>
+      <c r="P45" s="210">
+        <f t="shared" si="2"/>
+        <v>0.19743750000000007</v>
+      </c>
+      <c r="Q45" s="210">
+        <f t="shared" si="3"/>
+        <v>4.9359375000000018E-2</v>
+      </c>
+      <c r="R45">
+        <v>6</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="1"/>
+        <v>0.29615625000000012</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E46" s="212">
+        <f>SUM(E41:E45)</f>
+        <v>282080479.38686037</v>
+      </c>
+      <c r="F46" s="212">
+        <f>SUM(F41:F45)</f>
+        <v>256335614.22618756</v>
+      </c>
+      <c r="H46" s="213">
+        <f>SUM(H41:H45)</f>
+        <v>245372007.83045328</v>
+      </c>
+      <c r="L46">
+        <v>64</v>
+      </c>
+      <c r="M46" s="66">
+        <v>0.3</v>
+      </c>
+      <c r="N46" s="209">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="O46" s="210">
+        <f>PRODUCT($N$39:N46)</f>
+        <v>0.10365468750000004</v>
+      </c>
+      <c r="P46" s="210">
+        <f t="shared" si="2"/>
+        <v>0.14807812500000006</v>
+      </c>
+      <c r="Q46" s="210">
+        <f t="shared" si="3"/>
+        <v>4.4423437500000017E-2</v>
+      </c>
+      <c r="R46">
+        <v>7</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="1"/>
+        <v>0.31096406250000014</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>65</v>
+      </c>
+      <c r="M47" s="66">
+        <v>1</v>
+      </c>
+      <c r="N47" s="209">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="210">
+        <f>PRODUCT($N$39:N47)</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="210">
+        <f t="shared" si="2"/>
+        <v>0.10365468750000004</v>
+      </c>
+      <c r="Q47" s="210">
+        <f t="shared" si="3"/>
+        <v>0.10365468750000004</v>
+      </c>
+      <c r="R47">
+        <v>8</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="1"/>
+        <v>0.82923750000000029</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>66</v>
+      </c>
+      <c r="P48" s="210">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="210">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>9</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7743,8 +8218,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10838,7 +11313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -18224,7 +18699,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18430,7 +18905,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:U130"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>

--- a/Data_inputs/LAFPP_PlanInfo_2016.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo_2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="10" activeTab="10"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -2617,7 +2617,7 @@
     <numFmt numFmtId="168" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="169" formatCode="0.000%"/>
     <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -2895,7 +2895,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3168,12 +3168,6 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3188,12 +3182,6 @@
     </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3276,26 +3264,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -3318,18 +3294,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3377,6 +3341,13 @@
     <xf numFmtId="3" fontId="26" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="15" fillId="6" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3429,12 +3400,47 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6682,15 +6688,15 @@
       <c r="A5" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="194" t="s">
+      <c r="B5" s="187" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="195"/>
-      <c r="D5" s="192" t="s">
+      <c r="C5" s="188"/>
+      <c r="D5" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
       <c r="G5" s="42" t="s">
         <v>75</v>
       </c>
@@ -6713,10 +6719,10 @@
       <c r="E6" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="196" t="s">
+      <c r="F6" s="189" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="196"/>
+      <c r="G6" s="189"/>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
     </row>
@@ -6740,10 +6746,10 @@
       <c r="C9" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="193" t="s">
+      <c r="D9" s="186" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="193"/>
+      <c r="E9" s="186"/>
       <c r="F9" s="38" t="s">
         <v>61</v>
       </c>
@@ -6755,16 +6761,16 @@
       <c r="A10" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="197" t="s">
+      <c r="B10" s="190" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="197"/>
-      <c r="D10" s="197" t="s">
+      <c r="C10" s="190"/>
+      <c r="D10" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="197"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="197"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
@@ -6775,18 +6781,18 @@
       <c r="A12" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="193" t="s">
+      <c r="B12" s="186" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="195"/>
-      <c r="D12" s="193" t="s">
+      <c r="C12" s="188"/>
+      <c r="D12" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193" t="s">
+      <c r="E12" s="186"/>
+      <c r="F12" s="186" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="193"/>
+      <c r="G12" s="186"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
@@ -6925,7 +6931,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+    <sheetView topLeftCell="E13" workbookViewId="0">
       <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
@@ -6957,22 +6963,22 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="198" t="s">
+      <c r="A5" s="191" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="192" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199" t="s">
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="198"/>
+      <c r="A6" s="191"/>
       <c r="B6" s="57" t="s">
         <v>90</v>
       </c>
@@ -7735,18 +7741,18 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E39" s="211"/>
+      <c r="E39" s="182"/>
       <c r="L39">
         <v>57</v>
       </c>
       <c r="M39" s="66">
         <v>0.2</v>
       </c>
-      <c r="N39" s="209">
+      <c r="N39" s="180">
         <f>1-M39</f>
         <v>0.8</v>
       </c>
-      <c r="O39" s="210">
+      <c r="O39" s="181">
         <f>PRODUCT($N$39:N39)</f>
         <v>0.8</v>
       </c>
@@ -7768,26 +7774,26 @@
       <c r="D40">
         <v>6056</v>
       </c>
-      <c r="E40" s="211"/>
+      <c r="E40" s="182"/>
       <c r="L40">
         <v>58</v>
       </c>
       <c r="M40" s="66">
         <v>0.22</v>
       </c>
-      <c r="N40" s="209">
+      <c r="N40" s="180">
         <f t="shared" ref="N40:N47" si="0">1-M40</f>
         <v>0.78</v>
       </c>
-      <c r="O40" s="210">
+      <c r="O40" s="181">
         <f>PRODUCT($N$39:N40)</f>
         <v>0.62400000000000011</v>
       </c>
-      <c r="P40" s="210">
+      <c r="P40" s="181">
         <f>O39</f>
         <v>0.8</v>
       </c>
-      <c r="Q40" s="210">
+      <c r="Q40" s="181">
         <f>P40*M40</f>
         <v>0.17600000000000002</v>
       </c>
@@ -7814,7 +7820,7 @@
         <f>$D$40*(1.03)^(A41-1)</f>
         <v>6056</v>
       </c>
-      <c r="E41" s="211">
+      <c r="E41" s="182">
         <f>C41*D41*12</f>
         <v>90331296</v>
       </c>
@@ -7836,19 +7842,19 @@
       <c r="M41" s="66">
         <v>0.25</v>
       </c>
-      <c r="N41" s="209">
+      <c r="N41" s="180">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="O41" s="210">
+      <c r="O41" s="181">
         <f>PRODUCT($N$39:N41)</f>
         <v>0.46800000000000008</v>
       </c>
-      <c r="P41" s="210">
+      <c r="P41" s="181">
         <f t="shared" ref="P41:P48" si="2">O40</f>
         <v>0.62400000000000011</v>
       </c>
-      <c r="Q41" s="210">
+      <c r="Q41" s="181">
         <f t="shared" ref="Q41:Q48" si="3">P41*M41</f>
         <v>0.15600000000000003</v>
       </c>
@@ -7875,12 +7881,12 @@
         <f t="shared" ref="D42:D45" si="5">$D$40*(1.03)^(A42-1)</f>
         <v>6237.68</v>
       </c>
-      <c r="E42" s="211">
+      <c r="E42" s="182">
         <f t="shared" ref="E42:E45" si="6">C42*D42*12</f>
         <v>74432987.904000014</v>
       </c>
       <c r="F42">
-        <f t="shared" ref="F42:H45" si="7">E42/(1.075)^(A42-1)</f>
+        <f t="shared" ref="F42:F45" si="7">E42/(1.075)^(A42-1)</f>
         <v>69239988.747906998</v>
       </c>
       <c r="G42">
@@ -7897,19 +7903,19 @@
       <c r="M42" s="66">
         <v>0.25</v>
       </c>
-      <c r="N42" s="209">
+      <c r="N42" s="180">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="O42" s="210">
+      <c r="O42" s="181">
         <f>PRODUCT($N$39:N42)</f>
         <v>0.35100000000000009</v>
       </c>
-      <c r="P42" s="210">
+      <c r="P42" s="181">
         <f t="shared" si="2"/>
         <v>0.46800000000000008</v>
       </c>
-      <c r="Q42" s="210">
+      <c r="Q42" s="181">
         <f t="shared" si="3"/>
         <v>0.11700000000000002</v>
       </c>
@@ -7936,7 +7942,7 @@
         <f t="shared" si="5"/>
         <v>6424.8103999999994</v>
       </c>
-      <c r="E43" s="211">
+      <c r="E43" s="182">
         <f t="shared" si="6"/>
         <v>57499483.155839995</v>
       </c>
@@ -7958,19 +7964,19 @@
       <c r="M43" s="66">
         <v>0.25</v>
       </c>
-      <c r="N43" s="209">
+      <c r="N43" s="180">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="O43" s="210">
+      <c r="O43" s="181">
         <f>PRODUCT($N$39:N43)</f>
         <v>0.2632500000000001</v>
       </c>
-      <c r="P43" s="210">
+      <c r="P43" s="181">
         <f t="shared" si="2"/>
         <v>0.35100000000000009</v>
       </c>
-      <c r="Q43" s="210">
+      <c r="Q43" s="181">
         <f t="shared" si="3"/>
         <v>8.7750000000000022E-2</v>
       </c>
@@ -7997,7 +8003,7 @@
         <f t="shared" si="5"/>
         <v>6617.5547120000001</v>
       </c>
-      <c r="E44" s="211">
+      <c r="E44" s="182">
         <f t="shared" si="6"/>
         <v>39482978.433676802</v>
       </c>
@@ -8019,19 +8025,19 @@
       <c r="M44" s="66">
         <v>0.25</v>
       </c>
-      <c r="N44" s="209">
+      <c r="N44" s="180">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="O44" s="210">
+      <c r="O44" s="181">
         <f>PRODUCT($N$39:N44)</f>
         <v>0.19743750000000007</v>
       </c>
-      <c r="P44" s="210">
+      <c r="P44" s="181">
         <f t="shared" si="2"/>
         <v>0.2632500000000001</v>
       </c>
-      <c r="Q44" s="210">
+      <c r="Q44" s="181">
         <f t="shared" si="3"/>
         <v>6.5812500000000024E-2</v>
       </c>
@@ -8058,7 +8064,7 @@
         <f t="shared" si="5"/>
         <v>6816.0813533599994</v>
       </c>
-      <c r="E45" s="211">
+      <c r="E45" s="182">
         <f t="shared" si="6"/>
         <v>20333733.893343553</v>
       </c>
@@ -8080,19 +8086,19 @@
       <c r="M45" s="66">
         <v>0.25</v>
       </c>
-      <c r="N45" s="209">
+      <c r="N45" s="180">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="O45" s="210">
+      <c r="O45" s="181">
         <f>PRODUCT($N$39:N45)</f>
         <v>0.14807812500000006</v>
       </c>
-      <c r="P45" s="210">
+      <c r="P45" s="181">
         <f t="shared" si="2"/>
         <v>0.19743750000000007</v>
       </c>
-      <c r="Q45" s="210">
+      <c r="Q45" s="181">
         <f t="shared" si="3"/>
         <v>4.9359375000000018E-2</v>
       </c>
@@ -8105,15 +8111,15 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E46" s="212">
+      <c r="E46" s="183">
         <f>SUM(E41:E45)</f>
         <v>282080479.38686037</v>
       </c>
-      <c r="F46" s="212">
+      <c r="F46" s="183">
         <f>SUM(F41:F45)</f>
         <v>256335614.22618756</v>
       </c>
-      <c r="H46" s="213">
+      <c r="H46" s="184">
         <f>SUM(H41:H45)</f>
         <v>245372007.83045328</v>
       </c>
@@ -8123,19 +8129,19 @@
       <c r="M46" s="66">
         <v>0.3</v>
       </c>
-      <c r="N46" s="209">
+      <c r="N46" s="180">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="O46" s="210">
+      <c r="O46" s="181">
         <f>PRODUCT($N$39:N46)</f>
         <v>0.10365468750000004</v>
       </c>
-      <c r="P46" s="210">
+      <c r="P46" s="181">
         <f t="shared" si="2"/>
         <v>0.14807812500000006</v>
       </c>
-      <c r="Q46" s="210">
+      <c r="Q46" s="181">
         <f t="shared" si="3"/>
         <v>4.4423437500000017E-2</v>
       </c>
@@ -8154,19 +8160,19 @@
       <c r="M47" s="66">
         <v>1</v>
       </c>
-      <c r="N47" s="209">
+      <c r="N47" s="180">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O47" s="210">
+      <c r="O47" s="181">
         <f>PRODUCT($N$39:N47)</f>
         <v>0</v>
       </c>
-      <c r="P47" s="210">
+      <c r="P47" s="181">
         <f t="shared" si="2"/>
         <v>0.10365468750000004</v>
       </c>
-      <c r="Q47" s="210">
+      <c r="Q47" s="181">
         <f t="shared" si="3"/>
         <v>0.10365468750000004</v>
       </c>
@@ -8182,11 +8188,11 @@
       <c r="L48">
         <v>66</v>
       </c>
-      <c r="P48" s="210">
+      <c r="P48" s="181">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="210">
+      <c r="Q48" s="181">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10158,10 +10164,10 @@
       <c r="E4" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="193" t="s">
+      <c r="F4" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="195"/>
+      <c r="G4" s="188"/>
     </row>
     <row r="5" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
@@ -10179,21 +10185,21 @@
       <c r="E5" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="193" t="s">
+      <c r="F5" s="186" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="193"/>
+      <c r="G5" s="186"/>
     </row>
     <row r="6" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="193" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="200"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="193"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
     </row>
     <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -10805,30 +10811,30 @@
       <c r="A4" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="201" t="s">
+      <c r="B4" s="194" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
     </row>
     <row r="5" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="194" t="s">
+      <c r="B5" s="187" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
     </row>
     <row r="7" spans="1:7" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="202" t="s">
+      <c r="A7" s="195" t="s">
         <v>198</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -10837,10 +10843,10 @@
       <c r="C7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="193" t="s">
+      <c r="D7" s="186" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="195"/>
+      <c r="E7" s="188"/>
       <c r="F7" s="8" t="s">
         <v>61</v>
       </c>
@@ -10849,15 +10855,15 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="202"/>
-      <c r="B8" s="203" t="s">
+      <c r="A8" s="195"/>
+      <c r="B8" s="196" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="204"/>
+      <c r="C8" s="197"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -11148,7 +11154,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="131" t="s">
         <v>254</v>
       </c>
       <c r="C5" s="98" t="s">
@@ -11157,10 +11163,10 @@
       <c r="D5" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="E5" s="205" t="s">
+      <c r="E5" s="198" t="s">
         <v>192</v>
       </c>
-      <c r="F5" s="205"/>
+      <c r="F5" s="198"/>
       <c r="G5" s="98" t="s">
         <v>195</v>
       </c>
@@ -11178,10 +11184,10 @@
       <c r="D6" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="205" t="s">
+      <c r="E6" s="198" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="205"/>
+      <c r="F6" s="198"/>
       <c r="G6" s="98" t="s">
         <v>193</v>
       </c>
@@ -11190,7 +11196,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="132" t="s">
         <v>255</v>
       </c>
       <c r="B7" s="95" t="s">
@@ -11202,10 +11208,10 @@
       <c r="D7" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="205" t="s">
+      <c r="E7" s="198" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="205"/>
+      <c r="F7" s="198"/>
       <c r="G7" s="98" t="s">
         <v>194</v>
       </c>
@@ -11593,34 +11599,34 @@
       <c r="A13" s="79" t="s">
         <v>282</v>
       </c>
-      <c r="B13" s="148">
+      <c r="B13" s="144">
         <v>20</v>
       </c>
-      <c r="C13" s="148">
+      <c r="C13" s="144">
         <v>50</v>
       </c>
-      <c r="D13" s="148">
+      <c r="D13" s="144">
         <v>2</v>
       </c>
-      <c r="E13" s="148">
+      <c r="E13" s="144">
         <v>0.03</v>
       </c>
-      <c r="F13" s="148">
+      <c r="F13" s="144">
         <v>0.7</v>
       </c>
-      <c r="G13" s="148">
+      <c r="G13" s="144">
         <v>0.8</v>
       </c>
-      <c r="H13" s="148">
+      <c r="H13" s="144">
         <v>50</v>
       </c>
-      <c r="I13" s="148">
+      <c r="I13" s="144">
         <v>20</v>
       </c>
-      <c r="J13" s="148">
+      <c r="J13" s="144">
         <v>0.09</v>
       </c>
-      <c r="K13" s="148">
+      <c r="K13" s="144">
         <v>33</v>
       </c>
     </row>
@@ -11675,24 +11681,24 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="J5" s="206" t="s">
+      <c r="J5" s="199" t="s">
         <v>166</v>
       </c>
-      <c r="K5" s="206"/>
-      <c r="L5" s="206"/>
-      <c r="M5" s="206"/>
-      <c r="N5" s="206"/>
-      <c r="O5" s="206"/>
-      <c r="P5" s="206"/>
-      <c r="Q5" s="206" t="s">
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="199"/>
+      <c r="P5" s="199"/>
+      <c r="Q5" s="199" t="s">
         <v>179</v>
       </c>
-      <c r="R5" s="206"/>
-      <c r="S5" s="206"/>
-      <c r="T5" s="206"/>
-      <c r="U5" s="206"/>
-      <c r="V5" s="206"/>
-      <c r="W5" s="206"/>
+      <c r="R5" s="199"/>
+      <c r="S5" s="199"/>
+      <c r="T5" s="199"/>
+      <c r="U5" s="199"/>
+      <c r="V5" s="199"/>
+      <c r="W5" s="199"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -16358,542 +16364,542 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="68.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="116" t="s">
         <v>238</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="117" t="s">
         <v>240</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="117" t="s">
         <v>241</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="117" t="s">
         <v>242</v>
       </c>
-      <c r="G5" s="121" t="s">
+      <c r="G5" s="117" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="118" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="119" t="s">
         <v>244</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="119" t="s">
         <v>245</v>
       </c>
-      <c r="E6" s="123" t="s">
+      <c r="E6" s="119" t="s">
         <v>246</v>
       </c>
-      <c r="F6" s="123" t="s">
+      <c r="F6" s="119" t="s">
         <v>247</v>
       </c>
-      <c r="G6" s="123" t="s">
+      <c r="G6" s="119" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="124">
+      <c r="B7" s="120">
         <v>2014</v>
       </c>
-      <c r="C7" s="125">
+      <c r="C7" s="121">
         <v>16990</v>
       </c>
-      <c r="D7" s="126">
+      <c r="D7" s="122">
         <v>607</v>
       </c>
-      <c r="E7" s="125">
+      <c r="E7" s="121">
         <v>919</v>
       </c>
-      <c r="F7" s="126">
+      <c r="F7" s="122">
         <v>18</v>
       </c>
-      <c r="G7" s="125">
+      <c r="G7" s="121">
         <v>686</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="127">
+      <c r="B8" s="123">
         <v>2015</v>
       </c>
-      <c r="C8" s="128">
+      <c r="C8" s="124">
         <v>17347</v>
       </c>
-      <c r="D8" s="129">
+      <c r="D8" s="125">
         <v>632</v>
       </c>
-      <c r="E8" s="128">
+      <c r="E8" s="124">
         <v>970</v>
       </c>
-      <c r="F8" s="129">
+      <c r="F8" s="125">
         <v>13</v>
       </c>
-      <c r="G8" s="128">
+      <c r="G8" s="124">
         <v>1306</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="127">
+      <c r="B9" s="123">
         <v>2016</v>
       </c>
-      <c r="C9" s="128">
+      <c r="C9" s="124">
         <v>18302</v>
       </c>
-      <c r="D9" s="129">
+      <c r="D9" s="125">
         <v>634</v>
       </c>
-      <c r="E9" s="128">
+      <c r="E9" s="124">
         <v>1104</v>
       </c>
-      <c r="F9" s="129">
+      <c r="F9" s="125">
         <v>13</v>
       </c>
-      <c r="G9" s="128">
+      <c r="G9" s="124">
         <v>1372</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="127">
+      <c r="B10" s="123">
         <v>2017</v>
       </c>
-      <c r="C10" s="128">
+      <c r="C10" s="124">
         <v>19190</v>
       </c>
-      <c r="D10" s="129">
+      <c r="D10" s="125">
         <v>609</v>
       </c>
-      <c r="E10" s="128">
+      <c r="E10" s="124">
         <v>1050</v>
       </c>
-      <c r="F10" s="129">
+      <c r="F10" s="125">
         <v>13</v>
       </c>
-      <c r="G10" s="128">
+      <c r="G10" s="124">
         <v>1439</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="127">
+      <c r="B11" s="123">
         <v>2018</v>
       </c>
-      <c r="C11" s="128">
+      <c r="C11" s="124">
         <v>20176</v>
       </c>
-      <c r="D11" s="129">
+      <c r="D11" s="125">
         <v>616</v>
       </c>
-      <c r="E11" s="128">
+      <c r="E11" s="124">
         <v>1149</v>
       </c>
-      <c r="F11" s="129">
+      <c r="F11" s="125">
         <v>13</v>
       </c>
-      <c r="G11" s="128">
+      <c r="G11" s="124">
         <v>1509</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="127">
+      <c r="B12" s="123">
         <v>2019</v>
       </c>
-      <c r="C12" s="128">
+      <c r="C12" s="124">
         <v>21139</v>
       </c>
-      <c r="D12" s="129">
+      <c r="D12" s="125">
         <v>586</v>
       </c>
-      <c r="E12" s="128">
+      <c r="E12" s="124">
         <v>1267</v>
       </c>
-      <c r="F12" s="129">
+      <c r="F12" s="125">
         <v>12</v>
       </c>
-      <c r="G12" s="128">
+      <c r="G12" s="124">
         <v>1574</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="127">
+      <c r="B13" s="123">
         <v>2020</v>
       </c>
-      <c r="C13" s="128">
+      <c r="C13" s="124">
         <v>22019</v>
       </c>
-      <c r="D13" s="129">
+      <c r="D13" s="125">
         <v>538</v>
       </c>
-      <c r="E13" s="128">
+      <c r="E13" s="124">
         <v>1212</v>
       </c>
-      <c r="F13" s="129">
+      <c r="F13" s="125">
         <v>12</v>
       </c>
-      <c r="G13" s="128">
+      <c r="G13" s="124">
         <v>1639</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="127">
+      <c r="B14" s="123">
         <v>2021</v>
       </c>
-      <c r="C14" s="128">
+      <c r="C14" s="124">
         <v>22971</v>
       </c>
-      <c r="D14" s="129">
+      <c r="D14" s="125">
         <v>537</v>
       </c>
-      <c r="E14" s="128">
+      <c r="E14" s="124">
         <v>1283</v>
       </c>
-      <c r="F14" s="129">
+      <c r="F14" s="125">
         <v>12</v>
       </c>
-      <c r="G14" s="128">
+      <c r="G14" s="124">
         <v>1707</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="127">
+      <c r="B15" s="123">
         <v>2022</v>
       </c>
-      <c r="C15" s="128">
+      <c r="C15" s="124">
         <v>23920</v>
       </c>
-      <c r="D15" s="129">
+      <c r="D15" s="125">
         <v>538</v>
       </c>
-      <c r="E15" s="128">
+      <c r="E15" s="124">
         <v>1350</v>
       </c>
-      <c r="F15" s="129">
+      <c r="F15" s="125">
         <v>12</v>
       </c>
-      <c r="G15" s="128">
+      <c r="G15" s="124">
         <v>1775</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="130">
+      <c r="B16" s="126">
         <v>2023</v>
       </c>
-      <c r="C16" s="131">
+      <c r="C16" s="127">
         <v>24871</v>
       </c>
-      <c r="D16" s="132">
+      <c r="D16" s="128">
         <v>539</v>
       </c>
-      <c r="E16" s="131">
+      <c r="E16" s="127">
         <v>1416</v>
       </c>
-      <c r="F16" s="132">
+      <c r="F16" s="128">
         <v>12</v>
       </c>
-      <c r="G16" s="131">
+      <c r="G16" s="127">
         <v>1844</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="127">
+      <c r="B17" s="123">
         <v>2038</v>
       </c>
-      <c r="C17" s="128">
+      <c r="C17" s="124">
         <v>32905</v>
       </c>
-      <c r="D17" s="129">
+      <c r="D17" s="125">
         <v>197</v>
       </c>
-      <c r="E17" s="128">
+      <c r="E17" s="124">
         <v>2584</v>
       </c>
-      <c r="F17" s="129">
+      <c r="F17" s="125">
         <v>5</v>
       </c>
-      <c r="G17" s="128">
+      <c r="G17" s="124">
         <v>2370</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="127">
+      <c r="B18" s="123">
         <v>2039</v>
       </c>
-      <c r="C18" s="128">
+      <c r="C18" s="124">
         <v>32883</v>
       </c>
-      <c r="D18" s="129">
+      <c r="D18" s="125">
         <v>214</v>
       </c>
-      <c r="E18" s="128">
+      <c r="E18" s="124">
         <v>2667</v>
       </c>
-      <c r="F18" s="129">
+      <c r="F18" s="125">
         <v>4</v>
       </c>
-      <c r="G18" s="128">
+      <c r="G18" s="124">
         <v>2366</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="127">
+      <c r="B19" s="123">
         <v>2040</v>
       </c>
-      <c r="C19" s="128">
+      <c r="C19" s="124">
         <v>32791</v>
       </c>
-      <c r="D19" s="129">
+      <c r="D19" s="125">
         <v>174</v>
       </c>
-      <c r="E19" s="128">
+      <c r="E19" s="124">
         <v>2734</v>
       </c>
-      <c r="F19" s="129">
+      <c r="F19" s="125">
         <v>4</v>
       </c>
-      <c r="G19" s="128">
+      <c r="G19" s="124">
         <v>2353</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="127">
+      <c r="B20" s="123">
         <v>2041</v>
       </c>
-      <c r="C20" s="128">
+      <c r="C20" s="124">
         <v>32581</v>
       </c>
-      <c r="D20" s="129">
+      <c r="D20" s="125">
         <v>91</v>
       </c>
-      <c r="E20" s="128">
+      <c r="E20" s="124">
         <v>2785</v>
       </c>
-      <c r="F20" s="129">
+      <c r="F20" s="125">
         <v>3</v>
       </c>
-      <c r="G20" s="128">
+      <c r="G20" s="124">
         <v>2329</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="130">
+      <c r="B21" s="126">
         <v>2042</v>
       </c>
-      <c r="C21" s="131">
+      <c r="C21" s="127">
         <v>32213</v>
       </c>
-      <c r="D21" s="132">
+      <c r="D21" s="128">
         <v>74</v>
       </c>
-      <c r="E21" s="131">
+      <c r="E21" s="127">
         <v>2824</v>
       </c>
-      <c r="F21" s="132">
+      <c r="F21" s="128">
         <v>2</v>
       </c>
-      <c r="G21" s="131">
+      <c r="G21" s="127">
         <v>2298</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="127">
+      <c r="B22" s="123">
         <v>2082</v>
       </c>
-      <c r="C22" s="128">
+      <c r="C22" s="124">
         <v>1097</v>
       </c>
-      <c r="D22" s="129">
-        <v>0</v>
-      </c>
-      <c r="E22" s="128">
+      <c r="D22" s="125">
+        <v>0</v>
+      </c>
+      <c r="E22" s="124">
         <v>290</v>
       </c>
-      <c r="F22" s="129">
-        <v>0</v>
-      </c>
-      <c r="G22" s="128">
+      <c r="F22" s="125">
+        <v>0</v>
+      </c>
+      <c r="G22" s="124">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="127">
+      <c r="B23" s="123">
         <v>2083</v>
       </c>
-      <c r="C23" s="128">
+      <c r="C23" s="124">
         <v>877</v>
       </c>
-      <c r="D23" s="129">
-        <v>0</v>
-      </c>
-      <c r="E23" s="128">
+      <c r="D23" s="125">
+        <v>0</v>
+      </c>
+      <c r="E23" s="124">
         <v>239</v>
       </c>
-      <c r="F23" s="129">
-        <v>0</v>
-      </c>
-      <c r="G23" s="128">
+      <c r="F23" s="125">
+        <v>0</v>
+      </c>
+      <c r="G23" s="124">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="127">
+      <c r="B24" s="123">
         <v>2084</v>
       </c>
-      <c r="C24" s="128">
+      <c r="C24" s="124">
         <v>694</v>
       </c>
-      <c r="D24" s="129">
-        <v>0</v>
-      </c>
-      <c r="E24" s="128">
+      <c r="D24" s="125">
+        <v>0</v>
+      </c>
+      <c r="E24" s="124">
         <v>194</v>
       </c>
-      <c r="F24" s="129">
-        <v>0</v>
-      </c>
-      <c r="G24" s="128">
+      <c r="F24" s="125">
+        <v>0</v>
+      </c>
+      <c r="G24" s="124">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="127">
+      <c r="B25" s="123">
         <v>2085</v>
       </c>
-      <c r="C25" s="128">
+      <c r="C25" s="124">
         <v>543</v>
       </c>
-      <c r="D25" s="129">
-        <v>0</v>
-      </c>
-      <c r="E25" s="128">
+      <c r="D25" s="125">
+        <v>0</v>
+      </c>
+      <c r="E25" s="124">
         <v>156</v>
       </c>
-      <c r="F25" s="129">
-        <v>0</v>
-      </c>
-      <c r="G25" s="128">
+      <c r="F25" s="125">
+        <v>0</v>
+      </c>
+      <c r="G25" s="124">
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="130">
+      <c r="B26" s="126">
         <v>2086</v>
       </c>
-      <c r="C26" s="131">
+      <c r="C26" s="127">
         <v>420</v>
       </c>
-      <c r="D26" s="132">
-        <v>0</v>
-      </c>
-      <c r="E26" s="131">
+      <c r="D26" s="128">
+        <v>0</v>
+      </c>
+      <c r="E26" s="127">
         <v>124</v>
       </c>
-      <c r="F26" s="132">
-        <v>0</v>
-      </c>
-      <c r="G26" s="131">
+      <c r="F26" s="128">
+        <v>0</v>
+      </c>
+      <c r="G26" s="127">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="127">
+      <c r="B27" s="123">
         <v>2101</v>
       </c>
-      <c r="C27" s="128">
+      <c r="C27" s="124">
         <v>2</v>
       </c>
-      <c r="D27" s="129">
-        <v>0</v>
-      </c>
-      <c r="E27" s="128">
+      <c r="D27" s="125">
+        <v>0</v>
+      </c>
+      <c r="E27" s="124">
         <v>1</v>
       </c>
-      <c r="F27" s="129">
-        <v>0</v>
-      </c>
-      <c r="G27" s="128">
+      <c r="F27" s="125">
+        <v>0</v>
+      </c>
+      <c r="G27" s="124">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="127">
+      <c r="B28" s="123">
         <v>2102</v>
       </c>
-      <c r="C28" s="128">
+      <c r="C28" s="124">
         <v>2</v>
       </c>
-      <c r="D28" s="129">
-        <v>0</v>
-      </c>
-      <c r="E28" s="128">
+      <c r="D28" s="125">
+        <v>0</v>
+      </c>
+      <c r="E28" s="124">
         <v>1</v>
       </c>
-      <c r="F28" s="129">
-        <v>0</v>
-      </c>
-      <c r="G28" s="128">
+      <c r="F28" s="125">
+        <v>0</v>
+      </c>
+      <c r="G28" s="124">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="130">
+      <c r="B29" s="126">
         <v>2103</v>
       </c>
-      <c r="C29" s="131">
+      <c r="C29" s="127">
         <v>1</v>
       </c>
-      <c r="D29" s="132">
-        <v>0</v>
-      </c>
-      <c r="E29" s="131">
-        <v>0</v>
-      </c>
-      <c r="F29" s="132">
-        <v>0</v>
-      </c>
-      <c r="G29" s="131">
+      <c r="D29" s="128">
+        <v>0</v>
+      </c>
+      <c r="E29" s="127">
+        <v>0</v>
+      </c>
+      <c r="F29" s="128">
+        <v>0</v>
+      </c>
+      <c r="G29" s="127">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="127">
+      <c r="B30" s="123">
         <v>2115</v>
       </c>
-      <c r="C30" s="128">
-        <v>0</v>
-      </c>
-      <c r="D30" s="129">
-        <v>0</v>
-      </c>
-      <c r="E30" s="128">
-        <v>0</v>
-      </c>
-      <c r="F30" s="129">
-        <v>0</v>
-      </c>
-      <c r="G30" s="128">
+      <c r="C30" s="124">
+        <v>0</v>
+      </c>
+      <c r="D30" s="125">
+        <v>0</v>
+      </c>
+      <c r="E30" s="124">
+        <v>0</v>
+      </c>
+      <c r="F30" s="125">
+        <v>0</v>
+      </c>
+      <c r="G30" s="124">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="133">
+      <c r="B31" s="129">
         <v>2116</v>
       </c>
-      <c r="C31" s="134">
-        <v>0</v>
-      </c>
-      <c r="D31" s="129">
-        <v>0</v>
-      </c>
-      <c r="E31" s="128">
-        <v>0</v>
-      </c>
-      <c r="F31" s="129">
-        <v>0</v>
-      </c>
-      <c r="G31" s="128">
+      <c r="C31" s="130">
+        <v>0</v>
+      </c>
+      <c r="D31" s="125">
+        <v>0</v>
+      </c>
+      <c r="E31" s="124">
+        <v>0</v>
+      </c>
+      <c r="F31" s="125">
+        <v>0</v>
+      </c>
+      <c r="G31" s="124">
         <v>0</v>
       </c>
     </row>
@@ -16971,19 +16977,19 @@
       <c r="C6">
         <v>2015</v>
       </c>
-      <c r="D6" s="138">
+      <c r="D6" s="134">
         <f>D7/(1+0.044)</f>
         <v>5324062.2605363978</v>
       </c>
-      <c r="E6" s="138">
+      <c r="E6" s="134">
         <f t="shared" ref="E6:G6" si="0">E7/(1+0.044)</f>
         <v>5324062.2605363978</v>
       </c>
-      <c r="F6" s="138">
+      <c r="F6" s="134">
         <f t="shared" si="0"/>
         <v>5324062.2605363978</v>
       </c>
-      <c r="G6" s="138">
+      <c r="G6" s="134">
         <f t="shared" si="0"/>
         <v>5324062.2605363978</v>
       </c>
@@ -16998,22 +17004,22 @@
       <c r="C7">
         <v>2016</v>
       </c>
-      <c r="D7" s="139">
+      <c r="D7" s="135">
         <v>5558321</v>
       </c>
-      <c r="E7" s="139">
+      <c r="E7" s="135">
         <v>5558321</v>
       </c>
-      <c r="F7" s="139">
+      <c r="F7" s="135">
         <v>5558321</v>
       </c>
-      <c r="G7" s="139">
+      <c r="G7" s="135">
         <v>5558321</v>
       </c>
       <c r="I7" t="s">
         <v>259</v>
       </c>
-      <c r="J7" s="140">
+      <c r="J7" s="136">
         <v>0.02</v>
       </c>
     </row>
@@ -17021,16 +17027,16 @@
       <c r="C8">
         <v>2017</v>
       </c>
-      <c r="D8" s="139">
+      <c r="D8" s="135">
         <v>5600426</v>
       </c>
-      <c r="E8" s="139">
+      <c r="E8" s="135">
         <v>5600426</v>
       </c>
-      <c r="F8" s="139">
+      <c r="F8" s="135">
         <v>5600426</v>
       </c>
-      <c r="G8" s="139">
+      <c r="G8" s="135">
         <v>5600426</v>
       </c>
     </row>
@@ -17038,16 +17044,16 @@
       <c r="C9">
         <v>2018</v>
       </c>
-      <c r="D9" s="139">
+      <c r="D9" s="135">
         <v>5783199</v>
       </c>
-      <c r="E9" s="139">
+      <c r="E9" s="135">
         <v>5783199</v>
       </c>
-      <c r="F9" s="139">
+      <c r="F9" s="135">
         <v>5783199</v>
       </c>
-      <c r="G9" s="139">
+      <c r="G9" s="135">
         <v>5783199</v>
       </c>
     </row>
@@ -17055,16 +17061,16 @@
       <c r="C10">
         <v>2019</v>
       </c>
-      <c r="D10" s="139">
+      <c r="D10" s="135">
         <v>5983030</v>
       </c>
-      <c r="E10" s="139">
+      <c r="E10" s="135">
         <v>5983030</v>
       </c>
-      <c r="F10" s="139">
+      <c r="F10" s="135">
         <v>5983030</v>
       </c>
-      <c r="G10" s="139">
+      <c r="G10" s="135">
         <v>5983030</v>
       </c>
     </row>
@@ -17072,16 +17078,16 @@
       <c r="C11">
         <v>2020</v>
       </c>
-      <c r="D11" s="139">
+      <c r="D11" s="135">
         <v>6156556</v>
       </c>
-      <c r="E11" s="139">
+      <c r="E11" s="135">
         <v>6156556</v>
       </c>
-      <c r="F11" s="139">
+      <c r="F11" s="135">
         <v>6156556</v>
       </c>
-      <c r="G11" s="139">
+      <c r="G11" s="135">
         <v>6156556</v>
       </c>
     </row>
@@ -17089,16 +17095,16 @@
       <c r="C12">
         <v>2021</v>
       </c>
-      <c r="D12" s="139"/>
-      <c r="E12" s="141">
+      <c r="D12" s="135"/>
+      <c r="E12" s="137">
         <f>E11*(1 + $J$5)</f>
         <v>6372035.46</v>
       </c>
-      <c r="F12" s="141">
+      <c r="F12" s="137">
         <f>F11*(1 + $J$6)</f>
         <v>6335096.1239999998</v>
       </c>
-      <c r="G12" s="141">
+      <c r="G12" s="137">
         <f>G11*(1 + $J$7)</f>
         <v>6279687.1200000001</v>
       </c>
@@ -17107,15 +17113,15 @@
       <c r="C13">
         <v>2022</v>
       </c>
-      <c r="E13" s="141">
+      <c r="E13" s="137">
         <f t="shared" ref="E13:E35" si="1">E12*(1 + J$5)</f>
         <v>6595056.7010999992</v>
       </c>
-      <c r="F13" s="141">
+      <c r="F13" s="137">
         <f t="shared" ref="F13:F36" si="2">F12*(1 + $J$6)</f>
         <v>6518813.9115959993</v>
       </c>
-      <c r="G13" s="141">
+      <c r="G13" s="137">
         <f t="shared" ref="G13:G36" si="3">G12*(1 + $J$7)</f>
         <v>6405280.8624</v>
       </c>
@@ -17124,15 +17130,15 @@
       <c r="C14">
         <v>2023</v>
       </c>
-      <c r="E14" s="141">
+      <c r="E14" s="137">
         <f t="shared" si="1"/>
         <v>6825883.6856384985</v>
       </c>
-      <c r="F14" s="141">
+      <c r="F14" s="137">
         <f t="shared" si="2"/>
         <v>6707859.515032283</v>
       </c>
-      <c r="G14" s="141">
+      <c r="G14" s="137">
         <f t="shared" si="3"/>
         <v>6533386.4796480006</v>
       </c>
@@ -17141,15 +17147,15 @@
       <c r="C15">
         <v>2024</v>
       </c>
-      <c r="E15" s="141">
+      <c r="E15" s="137">
         <f t="shared" si="1"/>
         <v>7064789.6146358456</v>
       </c>
-      <c r="F15" s="141">
+      <c r="F15" s="137">
         <f t="shared" si="2"/>
         <v>6902387.4409682183</v>
       </c>
-      <c r="G15" s="141">
+      <c r="G15" s="137">
         <f t="shared" si="3"/>
         <v>6664054.2092409609</v>
       </c>
@@ -17158,15 +17164,15 @@
       <c r="C16">
         <v>2025</v>
       </c>
-      <c r="E16" s="141">
+      <c r="E16" s="137">
         <f t="shared" si="1"/>
         <v>7312057.2511481</v>
       </c>
-      <c r="F16" s="141">
+      <c r="F16" s="137">
         <f t="shared" si="2"/>
         <v>7102556.6767562963</v>
       </c>
-      <c r="G16" s="141">
+      <c r="G16" s="137">
         <f t="shared" si="3"/>
         <v>6797335.2934257798</v>
       </c>
@@ -17175,15 +17181,15 @@
       <c r="C17">
         <v>2026</v>
       </c>
-      <c r="E17" s="141">
+      <c r="E17" s="137">
         <f t="shared" si="1"/>
         <v>7567979.254938283</v>
       </c>
-      <c r="F17" s="141">
+      <c r="F17" s="137">
         <f t="shared" si="2"/>
         <v>7308530.8203822281</v>
       </c>
-      <c r="G17" s="141">
+      <c r="G17" s="137">
         <f t="shared" si="3"/>
         <v>6933281.9992942959</v>
       </c>
@@ -17192,15 +17198,15 @@
       <c r="C18">
         <v>2027</v>
       </c>
-      <c r="E18" s="141">
+      <c r="E18" s="137">
         <f t="shared" si="1"/>
         <v>7832858.5288611222</v>
       </c>
-      <c r="F18" s="141">
+      <c r="F18" s="137">
         <f t="shared" si="2"/>
         <v>7520478.2141733123</v>
       </c>
-      <c r="G18" s="141">
+      <c r="G18" s="137">
         <f t="shared" si="3"/>
         <v>7071947.6392801823</v>
       </c>
@@ -17209,15 +17215,15 @@
       <c r="C19">
         <v>2028</v>
       </c>
-      <c r="E19" s="141">
+      <c r="E19" s="137">
         <f t="shared" si="1"/>
         <v>8107008.5773712611</v>
       </c>
-      <c r="F19" s="141">
+      <c r="F19" s="137">
         <f t="shared" si="2"/>
         <v>7738572.0823843377</v>
       </c>
-      <c r="G19" s="141">
+      <c r="G19" s="137">
         <f t="shared" si="3"/>
         <v>7213386.592065786</v>
       </c>
@@ -17226,15 +17232,15 @@
       <c r="C20">
         <v>2029</v>
       </c>
-      <c r="E20" s="141">
+      <c r="E20" s="137">
         <f t="shared" si="1"/>
         <v>8390753.877579255</v>
       </c>
-      <c r="F20" s="141">
+      <c r="F20" s="137">
         <f t="shared" si="2"/>
         <v>7962990.6727734832</v>
       </c>
-      <c r="G20" s="141">
+      <c r="G20" s="137">
         <f t="shared" si="3"/>
         <v>7357654.3239071015</v>
       </c>
@@ -17243,15 +17249,15 @@
       <c r="C21">
         <v>2030</v>
       </c>
-      <c r="E21" s="141">
+      <c r="E21" s="137">
         <f t="shared" si="1"/>
         <v>8684430.2632945292</v>
       </c>
-      <c r="F21" s="141">
+      <c r="F21" s="137">
         <f t="shared" si="2"/>
         <v>8193917.4022839135</v>
       </c>
-      <c r="G21" s="141">
+      <c r="G21" s="137">
         <f t="shared" si="3"/>
         <v>7504807.4103852436</v>
       </c>
@@ -17260,15 +17266,15 @@
       <c r="C22">
         <v>2031</v>
       </c>
-      <c r="E22" s="141">
+      <c r="E22" s="137">
         <f t="shared" si="1"/>
         <v>8988385.3225098364</v>
       </c>
-      <c r="F22" s="141">
+      <c r="F22" s="137">
         <f t="shared" si="2"/>
         <v>8431541.0069501456</v>
       </c>
-      <c r="G22" s="141">
+      <c r="G22" s="137">
         <f t="shared" si="3"/>
         <v>7654903.5585929491</v>
       </c>
@@ -17277,15 +17283,15 @@
       <c r="C23">
         <v>2032</v>
       </c>
-      <c r="E23" s="141">
+      <c r="E23" s="137">
         <f t="shared" si="1"/>
         <v>9302978.8087976798</v>
       </c>
-      <c r="F23" s="141">
+      <c r="F23" s="137">
         <f t="shared" si="2"/>
         <v>8676055.6961516999</v>
       </c>
-      <c r="G23" s="141">
+      <c r="G23" s="137">
         <f t="shared" si="3"/>
         <v>7808001.6297648083</v>
       </c>
@@ -17294,15 +17300,15 @@
       <c r="C24">
         <v>2033</v>
       </c>
-      <c r="E24" s="141">
+      <c r="E24" s="137">
         <f t="shared" si="1"/>
         <v>9628583.0671055987</v>
       </c>
-      <c r="F24" s="141">
+      <c r="F24" s="137">
         <f t="shared" si="2"/>
         <v>8927661.3113400992</v>
       </c>
-      <c r="G24" s="141">
+      <c r="G24" s="137">
         <f t="shared" si="3"/>
         <v>7964161.6623601047</v>
       </c>
@@ -17311,15 +17317,15 @@
       <c r="C25">
         <v>2034</v>
       </c>
-      <c r="E25" s="141">
+      <c r="E25" s="137">
         <f t="shared" si="1"/>
         <v>9965583.474454293</v>
       </c>
-      <c r="F25" s="141">
+      <c r="F25" s="137">
         <f t="shared" si="2"/>
         <v>9186563.4893689621</v>
       </c>
-      <c r="G25" s="141">
+      <c r="G25" s="137">
         <f t="shared" si="3"/>
         <v>8123444.8956073066</v>
       </c>
@@ -17328,15 +17334,15 @@
       <c r="C26">
         <v>2035</v>
       </c>
-      <c r="E26" s="141">
+      <c r="E26" s="137">
         <f t="shared" si="1"/>
         <v>10314378.896060193</v>
       </c>
-      <c r="F26" s="141">
+      <c r="F26" s="137">
         <f t="shared" si="2"/>
         <v>9452973.8305606619</v>
       </c>
-      <c r="G26" s="141">
+      <c r="G26" s="137">
         <f t="shared" si="3"/>
         <v>8285913.7935194531</v>
       </c>
@@ -17345,15 +17351,15 @@
       <c r="C27">
         <v>2036</v>
       </c>
-      <c r="E27" s="141">
+      <c r="E27" s="137">
         <f t="shared" si="1"/>
         <v>10675382.157422299</v>
       </c>
-      <c r="F27" s="141">
+      <c r="F27" s="137">
         <f t="shared" si="2"/>
         <v>9727110.0716469195</v>
       </c>
-      <c r="G27" s="141">
+      <c r="G27" s="137">
         <f t="shared" si="3"/>
         <v>8451632.0693898425</v>
       </c>
@@ -17362,15 +17368,15 @@
       <c r="C28">
         <v>2037</v>
       </c>
-      <c r="E28" s="141">
+      <c r="E28" s="137">
         <f t="shared" si="1"/>
         <v>11049020.532932078</v>
       </c>
-      <c r="F28" s="141">
+      <c r="F28" s="137">
         <f t="shared" si="2"/>
         <v>10009196.263724679</v>
       </c>
-      <c r="G28" s="141">
+      <c r="G28" s="137">
         <f t="shared" si="3"/>
         <v>8620664.7107776403</v>
       </c>
@@ -17379,15 +17385,15 @@
       <c r="C29">
         <v>2038</v>
       </c>
-      <c r="E29" s="141">
+      <c r="E29" s="137">
         <f t="shared" si="1"/>
         <v>11435736.251584701</v>
       </c>
-      <c r="F29" s="141">
+      <c r="F29" s="137">
         <f t="shared" si="2"/>
         <v>10299462.955372695</v>
       </c>
-      <c r="G29" s="141">
+      <c r="G29" s="137">
         <f t="shared" si="3"/>
         <v>8793078.0049931929</v>
       </c>
@@ -17396,15 +17402,15 @@
       <c r="C30">
         <v>2039</v>
       </c>
-      <c r="E30" s="141">
+      <c r="E30" s="137">
         <f t="shared" si="1"/>
         <v>11835987.020390164</v>
       </c>
-      <c r="F30" s="141">
+      <c r="F30" s="137">
         <f t="shared" si="2"/>
         <v>10598147.381078502</v>
       </c>
-      <c r="G30" s="141">
+      <c r="G30" s="137">
         <f t="shared" si="3"/>
         <v>8968939.5650930572</v>
       </c>
@@ -17413,15 +17419,15 @@
       <c r="C31">
         <v>2040</v>
       </c>
-      <c r="E31" s="141">
+      <c r="E31" s="137">
         <f t="shared" si="1"/>
         <v>12250246.56610382</v>
       </c>
-      <c r="F31" s="141">
+      <c r="F31" s="137">
         <f t="shared" si="2"/>
         <v>10905493.655129777</v>
       </c>
-      <c r="G31" s="141">
+      <c r="G31" s="137">
         <f t="shared" si="3"/>
         <v>9148318.3563949186</v>
       </c>
@@ -17430,15 +17436,15 @@
       <c r="C32">
         <v>2041</v>
       </c>
-      <c r="E32" s="141">
+      <c r="E32" s="137">
         <f t="shared" si="1"/>
         <v>12679005.195917452</v>
       </c>
-      <c r="F32" s="141">
+      <c r="F32" s="137">
         <f t="shared" si="2"/>
         <v>11221752.97112854</v>
       </c>
-      <c r="G32" s="141">
+      <c r="G32" s="137">
         <f t="shared" si="3"/>
         <v>9331284.7235228177</v>
       </c>
@@ -17447,15 +17453,15 @@
       <c r="C33">
         <v>2042</v>
       </c>
-      <c r="E33" s="141">
+      <c r="E33" s="137">
         <f t="shared" si="1"/>
         <v>13122770.377774561</v>
       </c>
-      <c r="F33" s="141">
+      <c r="F33" s="137">
         <f t="shared" si="2"/>
         <v>11547183.807291267</v>
       </c>
-      <c r="G33" s="141">
+      <c r="G33" s="137">
         <f t="shared" si="3"/>
         <v>9517910.4179932736</v>
       </c>
@@ -17464,15 +17470,15 @@
       <c r="C34">
         <v>2043</v>
       </c>
-      <c r="E34" s="141">
+      <c r="E34" s="137">
         <f t="shared" si="1"/>
         <v>13582067.34099667</v>
       </c>
-      <c r="F34" s="141">
+      <c r="F34" s="137">
         <f t="shared" si="2"/>
         <v>11882052.137702713</v>
       </c>
-      <c r="G34" s="141">
+      <c r="G34" s="137">
         <f t="shared" si="3"/>
         <v>9708268.6263531391</v>
       </c>
@@ -17481,15 +17487,15 @@
       <c r="C35">
         <v>2044</v>
       </c>
-      <c r="E35" s="141">
+      <c r="E35" s="137">
         <f t="shared" si="1"/>
         <v>14057439.697931552</v>
       </c>
-      <c r="F35" s="141">
+      <c r="F35" s="137">
         <f t="shared" si="2"/>
         <v>12226631.649696091</v>
       </c>
-      <c r="G35" s="141">
+      <c r="G35" s="137">
         <f t="shared" si="3"/>
         <v>9902433.998880202</v>
       </c>
@@ -17498,15 +17504,15 @@
       <c r="C36">
         <v>2045</v>
       </c>
-      <c r="E36" s="141">
+      <c r="E36" s="137">
         <f t="shared" ref="E36" si="4">E35*(1 + J$5)</f>
         <v>14549450.087359155</v>
       </c>
-      <c r="F36" s="141">
+      <c r="F36" s="137">
         <f t="shared" si="2"/>
         <v>12581203.967537276</v>
       </c>
-      <c r="G36" s="141">
+      <c r="G36" s="137">
         <f t="shared" si="3"/>
         <v>10100482.678857807</v>
       </c>
@@ -17540,119 +17546,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
     </row>
     <row r="2" spans="2:18" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="143" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="143" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="133" t="s">
         <v>264</v>
       </c>
-      <c r="E2" s="137" t="s">
+      <c r="E2" s="133" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="133" t="s">
         <v>268</v>
       </c>
-      <c r="G2" s="137" t="s">
+      <c r="G2" s="133" t="s">
         <v>276</v>
       </c>
-      <c r="H2" s="137" t="s">
+      <c r="H2" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="I2" s="172"/>
-      <c r="J2" s="182" t="s">
+      <c r="I2" s="160"/>
+      <c r="J2" s="170" t="s">
         <v>301</v>
       </c>
-      <c r="K2" s="182" t="s">
+      <c r="K2" s="170" t="s">
         <v>315</v>
       </c>
-      <c r="L2" s="182" t="s">
+      <c r="L2" s="170" t="s">
         <v>314</v>
       </c>
-      <c r="M2" s="182" t="s">
+      <c r="M2" s="170" t="s">
         <v>311</v>
       </c>
-      <c r="N2" s="182" t="s">
+      <c r="N2" s="170" t="s">
         <v>312</v>
       </c>
-      <c r="O2" s="173"/>
-      <c r="P2" s="169" t="s">
+      <c r="O2" s="161"/>
+      <c r="P2" s="157" t="s">
         <v>268</v>
       </c>
-      <c r="Q2" s="169"/>
+      <c r="Q2" s="157"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2005</v>
       </c>
-      <c r="C3" s="143">
+      <c r="C3" s="139">
         <v>2006</v>
       </c>
-      <c r="D3" s="142"/>
-      <c r="E3" s="144">
+      <c r="D3" s="138"/>
+      <c r="E3" s="140">
         <v>223219844</v>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="177"/>
-      <c r="O3" s="177"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
     </row>
     <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2006</v>
       </c>
-      <c r="C4" s="143">
+      <c r="C4" s="139">
         <v>2007</v>
       </c>
-      <c r="D4" s="144">
+      <c r="D4" s="140">
         <v>286167278</v>
       </c>
-      <c r="E4" s="144">
+      <c r="E4" s="140">
         <v>314980319</v>
       </c>
-      <c r="F4" s="144">
+      <c r="F4" s="140">
         <v>91545104</v>
       </c>
-      <c r="G4" s="144">
+      <c r="G4" s="140">
         <f t="shared" ref="G4:G8" si="0">E4-F4</f>
         <v>223435215</v>
       </c>
-      <c r="H4" s="145">
+      <c r="H4" s="141">
         <f t="shared" ref="H4:H8" si="1">G4/D4</f>
         <v>0.78078533842712794</v>
       </c>
-      <c r="I4" s="178"/>
-      <c r="J4" s="179">
+      <c r="I4" s="166"/>
+      <c r="J4" s="167">
         <v>2006</v>
       </c>
-      <c r="K4" s="186">
+      <c r="K4" s="174">
         <v>224946082</v>
       </c>
-      <c r="L4" s="187"/>
-      <c r="M4" s="187"/>
-      <c r="N4" s="187"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="170">
+      <c r="L4" s="175"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="158">
         <v>91545104</v>
       </c>
-      <c r="Q4" s="170">
+      <c r="Q4" s="158">
         <f t="shared" ref="Q4:Q13" si="2">P4+L5</f>
         <v>324421642</v>
       </c>
@@ -17661,48 +17667,48 @@
       <c r="B5">
         <v>2007</v>
       </c>
-      <c r="C5" s="143">
+      <c r="C5" s="139">
         <v>2008</v>
       </c>
-      <c r="D5" s="144">
+      <c r="D5" s="140">
         <v>333672743</v>
       </c>
-      <c r="E5" s="144">
+      <c r="E5" s="140">
         <v>354299709</v>
       </c>
-      <c r="F5" s="144">
+      <c r="F5" s="140">
         <v>95700124</v>
       </c>
-      <c r="G5" s="144">
+      <c r="G5" s="140">
         <f t="shared" si="0"/>
         <v>258599585</v>
       </c>
-      <c r="H5" s="145">
+      <c r="H5" s="141">
         <f t="shared" si="1"/>
         <v>0.77500961773194643</v>
       </c>
-      <c r="I5" s="178"/>
-      <c r="J5" s="179">
+      <c r="I5" s="166"/>
+      <c r="J5" s="167">
         <v>2007</v>
       </c>
-      <c r="K5" s="186">
+      <c r="K5" s="174">
         <v>261635491</v>
       </c>
-      <c r="L5" s="188">
+      <c r="L5" s="176">
         <v>232876538</v>
       </c>
-      <c r="M5" s="183" t="s">
+      <c r="M5" s="171" t="s">
         <v>300</v>
       </c>
-      <c r="N5" s="184">
+      <c r="N5" s="172">
         <f>K5/L5</f>
         <v>1.1234944200347052</v>
       </c>
-      <c r="O5" s="181"/>
-      <c r="P5" s="170">
+      <c r="O5" s="169"/>
+      <c r="P5" s="158">
         <v>95700124</v>
       </c>
-      <c r="Q5" s="170">
+      <c r="Q5" s="158">
         <f t="shared" si="2"/>
         <v>313636003</v>
       </c>
@@ -17714,48 +17720,48 @@
       <c r="B6">
         <v>2008</v>
       </c>
-      <c r="C6" s="143">
+      <c r="C6" s="139">
         <v>2009</v>
       </c>
-      <c r="D6" s="144">
+      <c r="D6" s="140">
         <v>326876839</v>
       </c>
-      <c r="E6" s="144">
+      <c r="E6" s="140">
         <v>342383376</v>
       </c>
-      <c r="F6" s="144">
+      <c r="F6" s="140">
         <v>102485719</v>
       </c>
-      <c r="G6" s="144">
+      <c r="G6" s="140">
         <f t="shared" si="0"/>
         <v>239897657</v>
       </c>
-      <c r="H6" s="145">
+      <c r="H6" s="141">
         <f t="shared" si="1"/>
         <v>0.73390839722357937</v>
       </c>
-      <c r="I6" s="178"/>
-      <c r="J6" s="179">
+      <c r="I6" s="166"/>
+      <c r="J6" s="167">
         <v>2008</v>
       </c>
-      <c r="K6" s="186">
+      <c r="K6" s="174">
         <v>238697929</v>
       </c>
-      <c r="L6" s="188">
+      <c r="L6" s="176">
         <v>217935879</v>
       </c>
-      <c r="M6" s="183" t="s">
+      <c r="M6" s="171" t="s">
         <v>302</v>
       </c>
-      <c r="N6" s="184">
+      <c r="N6" s="172">
         <f t="shared" ref="N6:N13" si="3">K6/L6</f>
         <v>1.095266782575071</v>
       </c>
-      <c r="O6" s="181"/>
-      <c r="P6" s="170">
+      <c r="O6" s="169"/>
+      <c r="P6" s="158">
         <v>102485719</v>
       </c>
-      <c r="Q6" s="170">
+      <c r="Q6" s="158">
         <f t="shared" si="2"/>
         <v>341169031</v>
       </c>
@@ -17764,48 +17770,48 @@
       <c r="B7">
         <v>2009</v>
       </c>
-      <c r="C7" s="143">
+      <c r="C7" s="139">
         <v>2010</v>
       </c>
-      <c r="D7" s="144">
+      <c r="D7" s="140">
         <v>357165140</v>
       </c>
-      <c r="E7" s="144">
+      <c r="E7" s="140">
         <v>356928488</v>
       </c>
-      <c r="F7" s="144">
+      <c r="F7" s="140">
         <v>112286300</v>
       </c>
-      <c r="G7" s="144">
+      <c r="G7" s="140">
         <f t="shared" si="0"/>
         <v>244642188</v>
       </c>
-      <c r="H7" s="145">
+      <c r="H7" s="141">
         <f t="shared" si="1"/>
         <v>0.68495539066326572</v>
       </c>
-      <c r="I7" s="178"/>
-      <c r="J7" s="179">
+      <c r="I7" s="166"/>
+      <c r="J7" s="167">
         <v>2009</v>
       </c>
-      <c r="K7" s="186">
+      <c r="K7" s="174">
         <v>250516858</v>
       </c>
-      <c r="L7" s="188">
+      <c r="L7" s="176">
         <v>238683312</v>
       </c>
-      <c r="M7" s="183" t="s">
+      <c r="M7" s="171" t="s">
         <v>303</v>
       </c>
-      <c r="N7" s="184">
+      <c r="N7" s="172">
         <f t="shared" si="3"/>
         <v>1.0495784388981497</v>
       </c>
-      <c r="O7" s="181"/>
-      <c r="P7" s="170">
+      <c r="O7" s="169"/>
+      <c r="P7" s="158">
         <v>112286300</v>
       </c>
-      <c r="Q7" s="170">
+      <c r="Q7" s="158">
         <f t="shared" si="2"/>
         <v>402597241</v>
       </c>
@@ -17814,48 +17820,48 @@
       <c r="B8">
         <v>2010</v>
       </c>
-      <c r="C8" s="143">
+      <c r="C8" s="139">
         <v>2011</v>
       </c>
-      <c r="D8" s="144">
+      <c r="D8" s="140">
         <v>388773459</v>
       </c>
-      <c r="E8" s="144">
+      <c r="E8" s="140">
         <v>382563515</v>
       </c>
-      <c r="F8" s="144">
+      <c r="F8" s="140">
         <v>111732379</v>
       </c>
-      <c r="G8" s="144">
+      <c r="G8" s="140">
         <f t="shared" si="0"/>
         <v>270831136</v>
       </c>
-      <c r="H8" s="145">
+      <c r="H8" s="141">
         <f t="shared" si="1"/>
         <v>0.69662969456976231</v>
       </c>
-      <c r="I8" s="178"/>
-      <c r="J8" s="179">
+      <c r="I8" s="166"/>
+      <c r="J8" s="167">
         <v>2010</v>
       </c>
-      <c r="K8" s="186">
+      <c r="K8" s="174">
         <v>277092251</v>
       </c>
-      <c r="L8" s="188">
+      <c r="L8" s="176">
         <v>290310941</v>
       </c>
-      <c r="M8" s="183" t="s">
+      <c r="M8" s="171" t="s">
         <v>304</v>
       </c>
-      <c r="N8" s="184">
+      <c r="N8" s="172">
         <f t="shared" si="3"/>
         <v>0.95446713115782988</v>
       </c>
-      <c r="O8" s="181"/>
-      <c r="P8" s="170">
+      <c r="O8" s="169"/>
+      <c r="P8" s="158">
         <v>111732379</v>
       </c>
-      <c r="Q8" s="170">
+      <c r="Q8" s="158">
         <f t="shared" si="2"/>
         <v>479930202</v>
       </c>
@@ -17864,48 +17870,48 @@
       <c r="B9">
         <v>2011</v>
       </c>
-      <c r="C9" s="143">
+      <c r="C9" s="139">
         <v>2012</v>
       </c>
-      <c r="D9" s="144">
+      <c r="D9" s="140">
         <v>444565284</v>
       </c>
-      <c r="E9" s="144">
+      <c r="E9" s="140">
         <v>441692557</v>
       </c>
-      <c r="F9" s="144">
+      <c r="F9" s="140">
         <v>110770763</v>
       </c>
-      <c r="G9" s="144">
+      <c r="G9" s="140">
         <f>E9-F9</f>
         <v>330921794</v>
       </c>
-      <c r="H9" s="145">
+      <c r="H9" s="141">
         <f>G9/D9</f>
         <v>0.74437165003644323</v>
       </c>
-      <c r="I9" s="178"/>
-      <c r="J9" s="179">
+      <c r="I9" s="166"/>
+      <c r="J9" s="167">
         <v>2011</v>
       </c>
-      <c r="K9" s="186">
+      <c r="K9" s="174">
         <v>321593433</v>
       </c>
-      <c r="L9" s="188">
+      <c r="L9" s="176">
         <v>368197823</v>
       </c>
-      <c r="M9" s="183" t="s">
+      <c r="M9" s="171" t="s">
         <v>305</v>
       </c>
-      <c r="N9" s="184">
+      <c r="N9" s="172">
         <f t="shared" si="3"/>
         <v>0.8734256774788155</v>
       </c>
-      <c r="O9" s="181"/>
-      <c r="P9" s="170">
+      <c r="O9" s="169"/>
+      <c r="P9" s="158">
         <v>110770763</v>
       </c>
-      <c r="Q9" s="170">
+      <c r="Q9" s="158">
         <f t="shared" si="2"/>
         <v>547044996</v>
       </c>
@@ -17914,48 +17920,48 @@
       <c r="B10">
         <v>2012</v>
       </c>
-      <c r="C10" s="143">
+      <c r="C10" s="139">
         <v>2013</v>
       </c>
-      <c r="D10" s="144">
+      <c r="D10" s="140">
         <v>508387283</v>
       </c>
-      <c r="E10" s="144">
+      <c r="E10" s="140">
         <v>497225747</v>
       </c>
-      <c r="F10" s="144">
+      <c r="F10" s="140">
         <v>127343851</v>
       </c>
-      <c r="G10" s="144">
+      <c r="G10" s="140">
         <f t="shared" ref="G10:G12" si="4">E10-F10</f>
         <v>369881896</v>
       </c>
-      <c r="H10" s="145">
+      <c r="H10" s="141">
         <f t="shared" ref="H10:H12" si="5">G10/D10</f>
         <v>0.72755930049493389</v>
       </c>
-      <c r="I10" s="178"/>
-      <c r="J10" s="179">
+      <c r="I10" s="166"/>
+      <c r="J10" s="167">
         <v>2012</v>
       </c>
-      <c r="K10" s="186">
+      <c r="K10" s="174">
         <v>375448092</v>
       </c>
-      <c r="L10" s="188">
+      <c r="L10" s="176">
         <v>436274233</v>
       </c>
-      <c r="M10" s="183" t="s">
+      <c r="M10" s="171" t="s">
         <v>306</v>
       </c>
-      <c r="N10" s="184">
+      <c r="N10" s="172">
         <f t="shared" si="3"/>
         <v>0.86057819509134292</v>
       </c>
-      <c r="O10" s="181"/>
-      <c r="P10" s="170">
+      <c r="O10" s="169"/>
+      <c r="P10" s="158">
         <v>127343851</v>
       </c>
-      <c r="Q10" s="170">
+      <c r="Q10" s="158">
         <f t="shared" si="2"/>
         <v>591824706</v>
       </c>
@@ -17964,48 +17970,48 @@
       <c r="B11">
         <v>2013</v>
       </c>
-      <c r="C11" s="143">
+      <c r="C11" s="139">
         <v>2014</v>
       </c>
-      <c r="D11" s="144">
+      <c r="D11" s="140">
         <v>578805107</v>
       </c>
-      <c r="E11" s="144">
+      <c r="E11" s="140">
         <v>565093149</v>
       </c>
-      <c r="F11" s="144">
+      <c r="F11" s="140">
         <v>129370345</v>
       </c>
-      <c r="G11" s="144">
+      <c r="G11" s="140">
         <f t="shared" si="4"/>
         <v>435722804</v>
       </c>
-      <c r="H11" s="145">
+      <c r="H11" s="141">
         <f t="shared" si="5"/>
         <v>0.75279709651905335</v>
       </c>
-      <c r="I11" s="178"/>
-      <c r="J11" s="179">
+      <c r="I11" s="166"/>
+      <c r="J11" s="167">
         <v>2013</v>
       </c>
-      <c r="K11" s="186">
+      <c r="K11" s="174">
         <v>440698260</v>
       </c>
-      <c r="L11" s="188">
+      <c r="L11" s="176">
         <v>464480855</v>
       </c>
-      <c r="M11" s="183" t="s">
+      <c r="M11" s="171" t="s">
         <v>307</v>
       </c>
-      <c r="N11" s="184">
+      <c r="N11" s="172">
         <f t="shared" si="3"/>
         <v>0.94879746981175361</v>
       </c>
-      <c r="O11" s="181"/>
-      <c r="P11" s="170">
+      <c r="O11" s="169"/>
+      <c r="P11" s="158">
         <v>129370345</v>
       </c>
-      <c r="Q11" s="170">
+      <c r="Q11" s="158">
         <f t="shared" si="2"/>
         <v>627464983</v>
       </c>
@@ -18014,48 +18020,48 @@
       <c r="B12">
         <v>2014</v>
       </c>
-      <c r="C12" s="143">
+      <c r="C12" s="139">
         <v>2015</v>
       </c>
-      <c r="D12" s="144">
+      <c r="D12" s="140">
         <v>628808763</v>
       </c>
-      <c r="E12" s="144">
+      <c r="E12" s="140">
         <v>626119974</v>
       </c>
-      <c r="F12" s="144">
+      <c r="F12" s="140">
         <v>132691115</v>
       </c>
-      <c r="G12" s="144">
+      <c r="G12" s="140">
         <f t="shared" si="4"/>
         <v>493428859</v>
       </c>
-      <c r="H12" s="145">
+      <c r="H12" s="141">
         <f t="shared" si="5"/>
         <v>0.78470417086092681</v>
       </c>
-      <c r="I12" s="178"/>
-      <c r="J12" s="179">
+      <c r="I12" s="166"/>
+      <c r="J12" s="167">
         <v>2014</v>
       </c>
-      <c r="K12" s="186">
+      <c r="K12" s="174">
         <v>480332251</v>
       </c>
-      <c r="L12" s="188">
+      <c r="L12" s="176">
         <v>498094638</v>
       </c>
-      <c r="M12" s="183" t="s">
+      <c r="M12" s="171" t="s">
         <v>308</v>
       </c>
-      <c r="N12" s="184">
+      <c r="N12" s="172">
         <f t="shared" si="3"/>
         <v>0.96433933304056163</v>
       </c>
-      <c r="O12" s="181"/>
-      <c r="P12" s="170">
+      <c r="O12" s="169"/>
+      <c r="P12" s="158">
         <v>132691115</v>
       </c>
-      <c r="Q12" s="170">
+      <c r="Q12" s="158">
         <f t="shared" si="2"/>
         <v>626119974</v>
       </c>
@@ -18064,74 +18070,74 @@
       <c r="B13">
         <v>2015</v>
       </c>
-      <c r="C13" s="143">
+      <c r="C13" s="139">
         <v>2016</v>
       </c>
-      <c r="F13" s="144">
+      <c r="F13" s="140">
         <v>134441085</v>
       </c>
-      <c r="G13" s="144"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="179">
+      <c r="G13" s="140"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="167">
         <v>2015</v>
       </c>
-      <c r="K13" s="186">
+      <c r="K13" s="174">
         <v>478385438</v>
       </c>
-      <c r="L13" s="188">
+      <c r="L13" s="176">
         <v>493428859</v>
       </c>
-      <c r="M13" s="183" t="s">
+      <c r="M13" s="171" t="s">
         <v>309</v>
       </c>
-      <c r="N13" s="184">
+      <c r="N13" s="172">
         <f t="shared" si="3"/>
         <v>0.96951248244683641</v>
       </c>
-      <c r="O13" s="181"/>
-      <c r="P13" s="170">
+      <c r="O13" s="169"/>
+      <c r="P13" s="158">
         <v>134441085</v>
       </c>
-      <c r="Q13" s="170">
+      <c r="Q13" s="158">
         <f t="shared" si="2"/>
         <v>591225013</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I14" s="171"/>
-      <c r="J14" s="191">
+      <c r="I14" s="159"/>
+      <c r="J14" s="179">
         <v>2016</v>
       </c>
-      <c r="K14" s="189"/>
-      <c r="L14" s="190">
+      <c r="K14" s="177"/>
+      <c r="L14" s="178">
         <v>456783928</v>
       </c>
-      <c r="M14" s="185" t="s">
+      <c r="M14" s="173" t="s">
         <v>310</v>
       </c>
-      <c r="N14" s="190"/>
-      <c r="O14" s="180"/>
+      <c r="N14" s="178"/>
+      <c r="O14" s="168"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I15" s="171"/>
-      <c r="J15" s="177" t="s">
+      <c r="I15" s="159"/>
+      <c r="J15" s="165" t="s">
         <v>313</v>
       </c>
-      <c r="K15" s="171"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="171"/>
-      <c r="N15" s="171"/>
-      <c r="O15" s="171"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="159"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="171"/>
-      <c r="M16" s="171"/>
-      <c r="N16" s="171"/>
-      <c r="O16" s="171"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="159"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18159,42 +18165,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="200" t="s">
         <v>272</v>
       </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="208" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="201" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="208"/>
+      <c r="I2" s="201"/>
       <c r="L2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="3" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="143" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="147" t="s">
+      <c r="D3" s="143" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="143" t="s">
         <v>270</v>
       </c>
-      <c r="F3" s="147" t="s">
+      <c r="F3" s="143" t="s">
         <v>271</v>
       </c>
-      <c r="G3" s="147" t="s">
+      <c r="G3" s="143" t="s">
         <v>274</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="143" t="s">
         <v>271</v>
       </c>
-      <c r="I3" s="147" t="s">
+      <c r="I3" s="143" t="s">
         <v>274</v>
       </c>
-      <c r="J3" s="147" t="s">
+      <c r="J3" s="143" t="s">
         <v>275</v>
       </c>
     </row>
@@ -18202,29 +18208,29 @@
       <c r="C4">
         <v>2005</v>
       </c>
-      <c r="D4" s="143">
+      <c r="D4" s="139">
         <v>2006</v>
       </c>
-      <c r="E4" s="142"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="J4" s="146"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="J4" s="142"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>2006</v>
       </c>
-      <c r="D5" s="143">
+      <c r="D5" s="139">
         <v>2007</v>
       </c>
-      <c r="E5" s="144">
+      <c r="E5" s="140">
         <v>286167278</v>
       </c>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="J5" s="146"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="J5" s="142"/>
       <c r="L5">
         <v>223435215</v>
       </c>
@@ -18233,16 +18239,16 @@
       <c r="C6">
         <v>2007</v>
       </c>
-      <c r="D6" s="143">
+      <c r="D6" s="139">
         <v>2008</v>
       </c>
-      <c r="E6" s="144">
+      <c r="E6" s="140">
         <v>333672743</v>
       </c>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="J6" s="146"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="J6" s="142"/>
       <c r="L6">
         <v>258599585</v>
       </c>
@@ -18251,16 +18257,16 @@
       <c r="C7">
         <v>2008</v>
       </c>
-      <c r="D7" s="143">
+      <c r="D7" s="139">
         <v>2009</v>
       </c>
-      <c r="E7" s="144">
+      <c r="E7" s="140">
         <v>326876839</v>
       </c>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="J7" s="146"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="J7" s="142"/>
       <c r="L7">
         <v>239897657</v>
       </c>
@@ -18269,16 +18275,16 @@
       <c r="C8">
         <v>2009</v>
       </c>
-      <c r="D8" s="143">
+      <c r="D8" s="139">
         <v>2010</v>
       </c>
-      <c r="E8" s="144">
+      <c r="E8" s="140">
         <v>357165140</v>
       </c>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="J8" s="146"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="J8" s="142"/>
       <c r="L8">
         <v>244642188</v>
       </c>
@@ -18287,22 +18293,22 @@
       <c r="C9">
         <v>2010</v>
       </c>
-      <c r="D9" s="143">
+      <c r="D9" s="139">
         <v>2011</v>
       </c>
-      <c r="E9" s="144">
+      <c r="E9" s="140">
         <v>388773459</v>
       </c>
-      <c r="F9" s="144">
+      <c r="F9" s="140">
         <f>394.7*1000000</f>
         <v>394700000</v>
       </c>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144">
+      <c r="G9" s="140"/>
+      <c r="H9" s="140">
         <f>335.4*1000000</f>
         <v>335400000</v>
       </c>
-      <c r="J9" s="146">
+      <c r="J9" s="142">
         <f>H9/F9</f>
         <v>0.84975931086901446</v>
       </c>
@@ -18318,21 +18324,21 @@
       <c r="C10">
         <v>2011</v>
       </c>
-      <c r="D10" s="143">
+      <c r="D10" s="139">
         <v>2012</v>
       </c>
-      <c r="E10" s="144">
+      <c r="E10" s="140">
         <v>444565284</v>
       </c>
-      <c r="F10" s="144">
+      <c r="F10" s="140">
         <f>471384436+3644894+736292</f>
         <v>475765622</v>
       </c>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144">
+      <c r="G10" s="140"/>
+      <c r="H10" s="140">
         <v>482498572</v>
       </c>
-      <c r="J10" s="146">
+      <c r="J10" s="142">
         <f t="shared" ref="J10:J14" si="0">H10/F10</f>
         <v>1.0141518211671039</v>
       </c>
@@ -18348,28 +18354,28 @@
       <c r="C11">
         <v>2012</v>
       </c>
-      <c r="D11" s="143">
+      <c r="D11" s="139">
         <v>2013</v>
       </c>
-      <c r="E11" s="144">
+      <c r="E11" s="140">
         <v>508387283</v>
       </c>
-      <c r="F11" s="144">
+      <c r="F11" s="140">
         <f>505082619+1003643+3498111</f>
         <v>509584373</v>
       </c>
-      <c r="G11" s="146">
+      <c r="G11" s="142">
         <f>F11/F10-1</f>
         <v>7.108279673052964E-2</v>
       </c>
-      <c r="H11" s="144">
+      <c r="H11" s="140">
         <v>419806102</v>
       </c>
-      <c r="I11" s="146">
+      <c r="I11" s="142">
         <f>H11/H10-1</f>
         <v>-0.12993296485859862</v>
       </c>
-      <c r="J11" s="146">
+      <c r="J11" s="142">
         <f t="shared" si="0"/>
         <v>0.82382059624108606</v>
       </c>
@@ -18385,28 +18391,28 @@
       <c r="C12">
         <v>2013</v>
       </c>
-      <c r="D12" s="143">
+      <c r="D12" s="139">
         <v>2014</v>
       </c>
-      <c r="E12" s="144">
+      <c r="E12" s="140">
         <v>578805107</v>
       </c>
-      <c r="F12" s="144">
+      <c r="F12" s="140">
         <f>574871226+1070154+3933881</f>
         <v>579875261</v>
       </c>
-      <c r="G12" s="146">
+      <c r="G12" s="142">
         <f t="shared" ref="G12:G14" si="2">F12/F11-1</f>
         <v>0.13793768357963354</v>
       </c>
-      <c r="H12" s="144">
+      <c r="H12" s="140">
         <v>450746001</v>
       </c>
-      <c r="I12" s="146">
+      <c r="I12" s="142">
         <f t="shared" ref="I12:I14" si="3">H12/H11-1</f>
         <v>7.3700450881011736E-2</v>
       </c>
-      <c r="J12" s="146">
+      <c r="J12" s="142">
         <f t="shared" si="0"/>
         <v>0.77731545267629554</v>
       </c>
@@ -18422,28 +18428,28 @@
       <c r="C13">
         <v>2014</v>
       </c>
-      <c r="D13" s="143">
+      <c r="D13" s="139">
         <v>2015</v>
       </c>
-      <c r="E13" s="144">
+      <c r="E13" s="140">
         <v>628808763</v>
       </c>
-      <c r="F13" s="144">
+      <c r="F13" s="140">
         <f>624423315+551000+4385448</f>
         <v>629359763</v>
       </c>
-      <c r="G13" s="146">
+      <c r="G13" s="142">
         <f t="shared" si="2"/>
         <v>8.5336459973587298E-2</v>
       </c>
-      <c r="H13" s="144">
+      <c r="H13" s="140">
         <v>500035962</v>
       </c>
-      <c r="I13" s="146">
+      <c r="I13" s="142">
         <f t="shared" si="3"/>
         <v>0.1093519651658541</v>
       </c>
-      <c r="J13" s="146">
+      <c r="J13" s="142">
         <f t="shared" si="0"/>
         <v>0.79451530173529694</v>
       </c>
@@ -18459,33 +18465,33 @@
       <c r="C14">
         <v>2015</v>
       </c>
-      <c r="D14" s="143">
+      <c r="D14" s="139">
         <v>2016</v>
       </c>
-      <c r="F14" s="144">
+      <c r="F14" s="140">
         <f>623414600-563500 + 4237083</f>
         <v>627088183</v>
       </c>
-      <c r="G14" s="146">
+      <c r="G14" s="142">
         <f t="shared" si="2"/>
         <v>-3.6093505393035574E-3</v>
       </c>
-      <c r="H14" s="144">
+      <c r="H14" s="140">
         <v>554863405</v>
       </c>
-      <c r="I14" s="146">
+      <c r="I14" s="142">
         <f t="shared" si="3"/>
         <v>0.10964699974919001</v>
       </c>
-      <c r="J14" s="146">
+      <c r="J14" s="142">
         <f t="shared" si="0"/>
         <v>0.88482516501191988</v>
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -18537,8 +18543,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18905,8 +18911,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:U130"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18914,11 +18920,11 @@
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="163" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="155" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" style="165" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" style="155" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="110" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="155" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="148" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="202" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="148" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="209" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="15" max="19" width="14.5703125" customWidth="1"/>
   </cols>
@@ -18943,7 +18949,7 @@
       <c r="B3" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="F3" s="157"/>
+      <c r="F3" s="203"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -18966,19 +18972,19 @@
       <c r="C6" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="160" t="s">
+      <c r="D6" s="152" t="s">
         <v>206</v>
       </c>
       <c r="E6" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="166" t="s">
+      <c r="F6" s="204" t="s">
         <v>208</v>
       </c>
       <c r="G6" s="109" t="s">
         <v>209</v>
       </c>
-      <c r="H6" s="111" t="s">
+      <c r="H6" s="210" t="s">
         <v>219</v>
       </c>
     </row>
@@ -18986,28 +18992,28 @@
       <c r="A7" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="112" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="113" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="161" t="s">
+      <c r="D7" s="153" t="s">
         <v>223</v>
       </c>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="114" t="s">
         <v>224</v>
       </c>
-      <c r="F7" s="167" t="s">
+      <c r="F7" s="205" t="s">
         <v>225</v>
       </c>
-      <c r="G7" s="116" t="s">
+      <c r="G7" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="H7" s="117" t="s">
+      <c r="H7" s="211" t="s">
         <v>227</v>
       </c>
-      <c r="I7" s="119" t="s">
+      <c r="I7" s="115" t="s">
         <v>229</v>
       </c>
     </row>
@@ -19021,19 +19027,19 @@
       <c r="C8" s="107">
         <v>42551</v>
       </c>
-      <c r="D8" s="164" t="s">
+      <c r="D8" s="156" t="s">
         <v>277</v>
       </c>
-      <c r="E8" s="112">
+      <c r="E8" s="110">
         <v>21</v>
       </c>
-      <c r="F8" s="168">
+      <c r="F8" s="206">
         <v>165691579</v>
       </c>
-      <c r="G8" s="112">
+      <c r="G8" s="110">
         <v>21</v>
       </c>
-      <c r="H8" s="118">
+      <c r="H8" s="212">
         <v>14801171</v>
       </c>
       <c r="I8" t="s">
@@ -19044,25 +19050,25 @@
       <c r="A9" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="145" t="s">
         <v>210</v>
       </c>
       <c r="C9" s="107">
         <v>39629</v>
       </c>
-      <c r="D9" s="162">
+      <c r="D9" s="154">
         <v>-632245519</v>
       </c>
-      <c r="E9" s="112">
+      <c r="E9" s="110">
         <v>29</v>
       </c>
-      <c r="F9" s="156">
+      <c r="F9" s="207">
         <v>-713695924</v>
       </c>
-      <c r="G9" s="112">
+      <c r="G9" s="110">
         <v>21</v>
       </c>
-      <c r="H9" s="150">
+      <c r="H9" s="213">
         <v>-46382784</v>
       </c>
       <c r="I9" t="s">
@@ -19073,25 +19079,25 @@
       <c r="A10" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="146" t="s">
         <v>211</v>
       </c>
       <c r="C10" s="108">
         <v>39994</v>
       </c>
-      <c r="D10" s="159">
+      <c r="D10" s="151">
         <v>53442825</v>
       </c>
-      <c r="E10" s="113">
+      <c r="E10" s="111">
         <v>15</v>
       </c>
-      <c r="F10" s="157">
+      <c r="F10" s="203">
         <v>42345974</v>
       </c>
-      <c r="G10" s="113">
+      <c r="G10" s="111">
         <v>8</v>
       </c>
-      <c r="H10" s="152">
+      <c r="H10" s="214">
         <v>5926343</v>
       </c>
       <c r="I10" t="s">
@@ -19102,25 +19108,25 @@
       <c r="A11" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="146" t="s">
         <v>211</v>
       </c>
       <c r="C11" s="108">
         <v>40359</v>
       </c>
-      <c r="D11" s="159">
+      <c r="D11" s="151">
         <v>210742926</v>
       </c>
-      <c r="E11" s="113">
+      <c r="E11" s="111">
         <v>15</v>
       </c>
-      <c r="F11" s="157">
+      <c r="F11" s="203">
         <v>177212946</v>
       </c>
-      <c r="G11" s="113">
+      <c r="G11" s="111">
         <v>9</v>
       </c>
-      <c r="H11" s="152">
+      <c r="H11" s="214">
         <v>22395902</v>
       </c>
       <c r="I11" t="s">
@@ -19131,25 +19137,25 @@
       <c r="A12" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="146" t="s">
         <v>212</v>
       </c>
       <c r="C12" s="108">
         <v>40359</v>
       </c>
-      <c r="D12" s="159">
+      <c r="D12" s="151">
         <v>1450331</v>
       </c>
-      <c r="E12" s="113">
+      <c r="E12" s="111">
         <v>27</v>
       </c>
-      <c r="F12" s="157">
+      <c r="F12" s="203">
         <v>1570796</v>
       </c>
-      <c r="G12" s="113">
+      <c r="G12" s="111">
         <v>21</v>
       </c>
-      <c r="H12" s="152">
+      <c r="H12" s="214">
         <v>102085</v>
       </c>
       <c r="I12" t="s">
@@ -19160,25 +19166,25 @@
       <c r="A13" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="146" t="s">
         <v>211</v>
       </c>
       <c r="C13" s="108">
         <v>40724</v>
       </c>
-      <c r="D13" s="159">
+      <c r="D13" s="151">
         <v>203104597</v>
       </c>
-      <c r="E13" s="113">
+      <c r="E13" s="111">
         <v>15</v>
       </c>
-      <c r="F13" s="157">
+      <c r="F13" s="203">
         <v>179203687</v>
       </c>
-      <c r="G13" s="113">
+      <c r="G13" s="111">
         <v>10</v>
       </c>
-      <c r="H13" s="152">
+      <c r="H13" s="214">
         <v>20704944</v>
       </c>
       <c r="I13" t="s">
@@ -19189,25 +19195,25 @@
       <c r="A14" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="146" t="s">
         <v>212</v>
       </c>
       <c r="C14" s="108">
         <v>40724</v>
       </c>
-      <c r="D14" s="159">
+      <c r="D14" s="151">
         <v>344553091</v>
       </c>
-      <c r="E14" s="113">
+      <c r="E14" s="111">
         <v>26</v>
       </c>
-      <c r="F14" s="157">
+      <c r="F14" s="203">
         <v>366509424</v>
       </c>
-      <c r="G14" s="113">
+      <c r="G14" s="111">
         <v>21</v>
       </c>
-      <c r="H14" s="152">
+      <c r="H14" s="214">
         <v>23819286</v>
       </c>
       <c r="I14" t="s">
@@ -19218,25 +19224,25 @@
       <c r="A15" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="146" t="s">
         <v>211</v>
       </c>
       <c r="C15" s="108">
         <v>41090</v>
       </c>
-      <c r="D15" s="159">
+      <c r="D15" s="151">
         <v>238453071</v>
       </c>
-      <c r="E15" s="113">
+      <c r="E15" s="111">
         <v>20</v>
       </c>
-      <c r="F15" s="157">
+      <c r="F15" s="203">
         <v>238011048</v>
       </c>
-      <c r="G15" s="113">
+      <c r="G15" s="111">
         <v>16</v>
       </c>
-      <c r="H15" s="152">
+      <c r="H15" s="214">
         <v>18847200</v>
       </c>
       <c r="I15" t="s">
@@ -19247,25 +19253,25 @@
       <c r="A16" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="146" t="s">
         <v>211</v>
       </c>
       <c r="C16" s="108">
         <v>41455</v>
       </c>
-      <c r="D16" s="159">
+      <c r="D16" s="151">
         <v>73947281</v>
       </c>
-      <c r="E16" s="113">
+      <c r="E16" s="111">
         <v>20</v>
       </c>
-      <c r="F16" s="157">
+      <c r="F16" s="203">
         <v>74104788</v>
       </c>
-      <c r="G16" s="113">
+      <c r="G16" s="111">
         <v>17</v>
       </c>
-      <c r="H16" s="152">
+      <c r="H16" s="214">
         <v>5606652</v>
       </c>
       <c r="I16" t="s">
@@ -19276,25 +19282,25 @@
       <c r="A17" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="146" t="s">
         <v>213</v>
       </c>
       <c r="C17" s="108">
         <v>41820</v>
       </c>
-      <c r="D17" s="159">
+      <c r="D17" s="151">
         <v>-212930921</v>
       </c>
-      <c r="E17" s="113">
+      <c r="E17" s="111">
         <v>20</v>
       </c>
-      <c r="F17" s="157">
+      <c r="F17" s="203">
         <v>-213513903</v>
       </c>
-      <c r="G17" s="113">
+      <c r="G17" s="111">
         <v>18</v>
       </c>
-      <c r="H17" s="152">
+      <c r="H17" s="214">
         <v>-15486648</v>
       </c>
       <c r="I17" t="s">
@@ -19305,25 +19311,25 @@
       <c r="A18" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="146" t="s">
         <v>212</v>
       </c>
       <c r="C18" s="108">
         <v>41820</v>
       </c>
-      <c r="D18" s="159">
+      <c r="D18" s="151">
         <v>-65152628</v>
       </c>
-      <c r="E18" s="113">
+      <c r="E18" s="111">
         <v>25</v>
       </c>
-      <c r="F18" s="157">
+      <c r="F18" s="203">
         <v>-66723384</v>
       </c>
-      <c r="G18" s="113">
+      <c r="G18" s="111">
         <v>23</v>
       </c>
-      <c r="H18" s="152">
+      <c r="H18" s="214">
         <v>-4076232</v>
       </c>
       <c r="I18" t="s">
@@ -19334,25 +19340,25 @@
       <c r="A19" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="146" t="s">
         <v>213</v>
       </c>
       <c r="C19" s="108">
         <v>42185</v>
       </c>
-      <c r="D19" s="159">
+      <c r="D19" s="151">
         <v>-288914220</v>
       </c>
-      <c r="E19" s="113">
+      <c r="E19" s="111">
         <v>20</v>
       </c>
-      <c r="F19" s="157">
+      <c r="F19" s="203">
         <v>-289698031</v>
       </c>
-      <c r="G19" s="113">
+      <c r="G19" s="111">
         <v>19</v>
       </c>
-      <c r="H19" s="152">
+      <c r="H19" s="214">
         <v>-20204787</v>
       </c>
       <c r="I19" t="s">
@@ -19363,25 +19369,25 @@
       <c r="A20" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="151" t="s">
+      <c r="B20" s="146" t="s">
         <v>213</v>
       </c>
       <c r="C20" s="108">
         <v>42551</v>
       </c>
-      <c r="D20" s="159">
+      <c r="D20" s="151">
         <v>-82781971</v>
       </c>
-      <c r="E20" s="113">
+      <c r="E20" s="111">
         <v>20</v>
       </c>
-      <c r="F20" s="158">
+      <c r="F20" s="208">
         <v>-82781971</v>
       </c>
-      <c r="G20" s="113">
+      <c r="G20" s="111">
         <v>20</v>
       </c>
-      <c r="H20" s="154">
+      <c r="H20" s="215">
         <v>-5566571</v>
       </c>
       <c r="I20" t="s">
@@ -19398,19 +19404,19 @@
       <c r="C21" s="107">
         <v>32689</v>
       </c>
-      <c r="D21" s="162">
+      <c r="D21" s="154">
         <v>-15977993</v>
       </c>
-      <c r="E21" s="112">
+      <c r="E21" s="110">
         <v>14</v>
       </c>
-      <c r="F21" s="156">
+      <c r="F21" s="207">
         <v>-6476269</v>
       </c>
-      <c r="G21" s="112">
+      <c r="G21" s="110">
         <v>3</v>
       </c>
-      <c r="H21" s="150">
+      <c r="H21" s="213">
         <v>-2230592</v>
       </c>
       <c r="I21" t="s">
@@ -19427,19 +19433,19 @@
       <c r="C22" s="108">
         <v>33054</v>
       </c>
-      <c r="D22" s="159">
+      <c r="D22" s="151">
         <v>279608</v>
       </c>
-      <c r="E22" s="113">
+      <c r="E22" s="111">
         <v>15</v>
       </c>
-      <c r="F22" s="157">
+      <c r="F22" s="203">
         <v>140887</v>
       </c>
-      <c r="G22" s="113">
+      <c r="G22" s="111">
         <v>4</v>
       </c>
-      <c r="H22" s="152">
+      <c r="H22" s="214">
         <v>36989</v>
       </c>
       <c r="I22" t="s">
@@ -19456,19 +19462,19 @@
       <c r="C23" s="108">
         <v>33054</v>
       </c>
-      <c r="D23" s="159">
+      <c r="D23" s="151">
         <v>-6281127</v>
       </c>
-      <c r="E23" s="113">
+      <c r="E23" s="111">
         <v>15</v>
       </c>
-      <c r="F23" s="157">
+      <c r="F23" s="203">
         <v>-3164910</v>
       </c>
-      <c r="G23" s="113">
+      <c r="G23" s="111">
         <v>4</v>
       </c>
-      <c r="H23" s="152">
+      <c r="H23" s="214">
         <v>-830934</v>
       </c>
       <c r="I23" t="s">
@@ -19485,19 +19491,19 @@
       <c r="C24" s="108">
         <v>33785</v>
       </c>
-      <c r="D24" s="159">
+      <c r="D24" s="151">
         <v>2454735</v>
       </c>
-      <c r="E24" s="113">
+      <c r="E24" s="111">
         <v>17</v>
       </c>
-      <c r="F24" s="157">
+      <c r="F24" s="203">
         <v>1633633</v>
       </c>
-      <c r="G24" s="113">
+      <c r="G24" s="111">
         <v>6</v>
       </c>
-      <c r="H24" s="152">
+      <c r="H24" s="214">
         <v>295289</v>
       </c>
       <c r="I24" t="s">
@@ -19514,19 +19520,19 @@
       <c r="C25" s="108">
         <v>34880</v>
       </c>
-      <c r="D25" s="159">
+      <c r="D25" s="151">
         <v>-20329471</v>
       </c>
-      <c r="E25" s="113">
+      <c r="E25" s="111">
         <v>20</v>
       </c>
-      <c r="F25" s="157">
+      <c r="F25" s="203">
         <v>-17196117</v>
       </c>
-      <c r="G25" s="113">
+      <c r="G25" s="111">
         <v>9</v>
       </c>
-      <c r="H25" s="152">
+      <c r="H25" s="214">
         <v>-2173219</v>
       </c>
       <c r="I25" t="s">
@@ -19543,19 +19549,19 @@
       <c r="C26" s="108">
         <v>35246</v>
       </c>
-      <c r="D26" s="159">
+      <c r="D26" s="151">
         <v>2832341</v>
       </c>
-      <c r="E26" s="113">
+      <c r="E26" s="111">
         <v>21</v>
       </c>
-      <c r="F26" s="157">
+      <c r="F26" s="203">
         <v>2532605</v>
       </c>
-      <c r="G26" s="113">
+      <c r="G26" s="111">
         <v>10</v>
       </c>
-      <c r="H26" s="152">
+      <c r="H26" s="214">
         <v>292614</v>
       </c>
       <c r="I26" t="s">
@@ -19572,19 +19578,19 @@
       <c r="C27" s="108">
         <v>35246</v>
       </c>
-      <c r="D27" s="159">
+      <c r="D27" s="151">
         <v>-18309076</v>
       </c>
-      <c r="E27" s="113">
+      <c r="E27" s="111">
         <v>21</v>
       </c>
-      <c r="F27" s="157">
+      <c r="F27" s="203">
         <v>-16371495</v>
       </c>
-      <c r="G27" s="113">
+      <c r="G27" s="111">
         <v>10</v>
       </c>
-      <c r="H27" s="152">
+      <c r="H27" s="214">
         <v>-1891540</v>
       </c>
       <c r="I27" t="s">
@@ -19601,19 +19607,19 @@
       <c r="C28" s="108">
         <v>35976</v>
       </c>
-      <c r="D28" s="159">
+      <c r="D28" s="151">
         <v>5510715</v>
       </c>
-      <c r="E28" s="113">
+      <c r="E28" s="111">
         <v>23</v>
       </c>
-      <c r="F28" s="157">
+      <c r="F28" s="203">
         <v>5387707</v>
       </c>
-      <c r="G28" s="113">
+      <c r="G28" s="111">
         <v>12</v>
       </c>
-      <c r="H28" s="152">
+      <c r="H28" s="214">
         <v>535124</v>
       </c>
       <c r="I28" t="s">
@@ -19630,19 +19636,19 @@
       <c r="C29" s="108">
         <v>35976</v>
       </c>
-      <c r="D29" s="159">
+      <c r="D29" s="151">
         <v>9268417</v>
       </c>
-      <c r="E29" s="113">
+      <c r="E29" s="111">
         <v>23</v>
       </c>
-      <c r="F29" s="157">
+      <c r="F29" s="203">
         <v>9061528</v>
       </c>
-      <c r="G29" s="113">
+      <c r="G29" s="111">
         <v>12</v>
       </c>
-      <c r="H29" s="152">
+      <c r="H29" s="214">
         <v>900020</v>
       </c>
       <c r="I29" t="s">
@@ -19659,19 +19665,19 @@
       <c r="C30" s="108">
         <v>36707</v>
       </c>
-      <c r="D30" s="159">
+      <c r="D30" s="151">
         <v>949873</v>
       </c>
-      <c r="E30" s="113">
+      <c r="E30" s="111">
         <v>25</v>
       </c>
-      <c r="F30" s="157">
+      <c r="F30" s="203">
         <v>994721</v>
       </c>
-      <c r="G30" s="113">
+      <c r="G30" s="111">
         <v>14</v>
       </c>
-      <c r="H30" s="152">
+      <c r="H30" s="214">
         <v>87328</v>
       </c>
       <c r="I30" t="s">
@@ -19688,19 +19694,19 @@
       <c r="C31" s="108">
         <v>37072</v>
       </c>
-      <c r="D31" s="159">
+      <c r="D31" s="151">
         <v>-39924972</v>
       </c>
-      <c r="E31" s="113">
+      <c r="E31" s="111">
         <v>11</v>
       </c>
-      <c r="F31" s="157">
-        <v>0</v>
-      </c>
-      <c r="G31" s="113">
+      <c r="F31" s="203">
+        <v>0</v>
+      </c>
+      <c r="G31" s="111">
         <v>10</v>
       </c>
-      <c r="H31" s="152">
+      <c r="H31" s="214">
         <v>0</v>
       </c>
       <c r="I31" t="s">
@@ -19717,19 +19723,19 @@
       <c r="C32" s="108">
         <v>37072</v>
       </c>
-      <c r="D32" s="159">
+      <c r="D32" s="151">
         <v>-29148684</v>
       </c>
-      <c r="E32" s="113">
+      <c r="E32" s="111">
         <v>26</v>
       </c>
-      <c r="F32" s="157">
+      <c r="F32" s="203">
         <v>-31415090</v>
       </c>
-      <c r="G32" s="113">
+      <c r="G32" s="111">
         <v>15</v>
       </c>
-      <c r="H32" s="152">
+      <c r="H32" s="214">
         <v>-2613612</v>
       </c>
       <c r="I32" t="s">
@@ -19746,19 +19752,19 @@
       <c r="C33" s="108">
         <v>37437</v>
       </c>
-      <c r="D33" s="159">
+      <c r="D33" s="151">
         <v>110014634</v>
       </c>
-      <c r="E33" s="113">
+      <c r="E33" s="111">
         <v>12</v>
       </c>
-      <c r="F33" s="157">
+      <c r="F33" s="203">
         <v>17377556</v>
       </c>
-      <c r="G33" s="113">
+      <c r="G33" s="111">
         <v>1</v>
       </c>
-      <c r="H33" s="152">
+      <c r="H33" s="214">
         <v>17377556</v>
       </c>
       <c r="I33" t="s">
@@ -19775,19 +19781,19 @@
       <c r="C34" s="108">
         <v>37802</v>
       </c>
-      <c r="D34" s="159">
+      <c r="D34" s="151">
         <v>151681782</v>
       </c>
-      <c r="E34" s="113">
+      <c r="E34" s="111">
         <v>13</v>
       </c>
-      <c r="F34" s="157">
+      <c r="F34" s="203">
         <v>44185963</v>
       </c>
-      <c r="G34" s="113">
+      <c r="G34" s="111">
         <v>2</v>
       </c>
-      <c r="H34" s="152">
+      <c r="H34" s="214">
         <v>22458586</v>
       </c>
       <c r="I34" t="s">
@@ -19804,19 +19810,19 @@
       <c r="C35" s="108">
         <v>38168</v>
       </c>
-      <c r="D35" s="159">
+      <c r="D35" s="151">
         <v>10104562</v>
       </c>
-      <c r="E35" s="113">
+      <c r="E35" s="111">
         <v>14</v>
       </c>
-      <c r="F35" s="157">
+      <c r="F35" s="203">
         <v>4095624</v>
       </c>
-      <c r="G35" s="113">
+      <c r="G35" s="111">
         <v>3</v>
       </c>
-      <c r="H35" s="152">
+      <c r="H35" s="214">
         <v>1410637</v>
       </c>
       <c r="I35" t="s">
@@ -19833,19 +19839,19 @@
       <c r="C36" s="108">
         <v>38168</v>
       </c>
-      <c r="D36" s="159">
+      <c r="D36" s="151">
         <v>-8698728</v>
       </c>
-      <c r="E36" s="113">
+      <c r="E36" s="111">
         <v>29</v>
       </c>
-      <c r="F36" s="157">
+      <c r="F36" s="203">
         <v>-10055415</v>
       </c>
-      <c r="G36" s="113">
+      <c r="G36" s="111">
         <v>18</v>
       </c>
-      <c r="H36" s="152">
+      <c r="H36" s="214">
         <v>-729342</v>
       </c>
       <c r="I36" t="s">
@@ -19862,19 +19868,19 @@
       <c r="C37" s="108">
         <v>38533</v>
       </c>
-      <c r="D37" s="159">
+      <c r="D37" s="151">
         <v>21605884</v>
       </c>
-      <c r="E37" s="113">
+      <c r="E37" s="111">
         <v>15</v>
       </c>
-      <c r="F37" s="157">
+      <c r="F37" s="203">
         <v>10886689</v>
       </c>
-      <c r="G37" s="113">
+      <c r="G37" s="111">
         <v>4</v>
       </c>
-      <c r="H37" s="152">
+      <c r="H37" s="214">
         <v>2858256</v>
       </c>
       <c r="I37" t="s">
@@ -19891,19 +19897,19 @@
       <c r="C38" s="108">
         <v>38533</v>
       </c>
-      <c r="D38" s="159">
+      <c r="D38" s="151">
         <v>27253819</v>
       </c>
-      <c r="E38" s="113">
+      <c r="E38" s="111">
         <v>30</v>
       </c>
-      <c r="F38" s="157">
+      <c r="F38" s="203">
         <v>32113516</v>
       </c>
-      <c r="G38" s="113">
+      <c r="G38" s="111">
         <v>19</v>
       </c>
-      <c r="H38" s="152">
+      <c r="H38" s="214">
         <v>2239735</v>
       </c>
       <c r="I38" t="s">
@@ -19920,19 +19926,19 @@
       <c r="C39" s="108">
         <v>38898</v>
       </c>
-      <c r="D39" s="159">
+      <c r="D39" s="151">
         <v>16400257</v>
       </c>
-      <c r="E39" s="113">
+      <c r="E39" s="111">
         <v>15</v>
       </c>
-      <c r="F39" s="157">
+      <c r="F39" s="203">
         <v>9681030</v>
       </c>
-      <c r="G39" s="113">
+      <c r="G39" s="111">
         <v>5</v>
       </c>
-      <c r="H39" s="152">
+      <c r="H39" s="214">
         <v>2066456</v>
       </c>
       <c r="I39" t="s">
@@ -19949,19 +19955,19 @@
       <c r="C40" s="108">
         <v>38898</v>
       </c>
-      <c r="D40" s="159">
+      <c r="D40" s="151">
         <v>29340123</v>
       </c>
-      <c r="E40" s="113">
+      <c r="E40" s="111">
         <v>30</v>
       </c>
-      <c r="F40" s="157">
+      <c r="F40" s="203">
         <v>34152022</v>
       </c>
-      <c r="G40" s="113">
+      <c r="G40" s="111">
         <v>20</v>
       </c>
-      <c r="H40" s="152">
+      <c r="H40" s="214">
         <v>2296511</v>
       </c>
       <c r="I40" t="s">
@@ -19978,19 +19984,19 @@
       <c r="C41" s="108">
         <v>39263</v>
       </c>
-      <c r="D41" s="159">
+      <c r="D41" s="151">
         <v>-20934587</v>
       </c>
-      <c r="E41" s="113">
+      <c r="E41" s="111">
         <v>21</v>
       </c>
-      <c r="F41" s="157">
+      <c r="F41" s="203">
         <v>-19876488</v>
       </c>
-      <c r="G41" s="113">
+      <c r="G41" s="111">
         <v>12</v>
       </c>
-      <c r="H41" s="152">
+      <c r="H41" s="214">
         <v>-1974196</v>
       </c>
       <c r="I41" t="s">
@@ -20007,19 +20013,19 @@
       <c r="C42" s="108">
         <v>39263</v>
       </c>
-      <c r="D42" s="159">
+      <c r="D42" s="151">
         <v>-5027630</v>
       </c>
-      <c r="E42" s="113">
+      <c r="E42" s="111">
         <v>30</v>
       </c>
-      <c r="F42" s="157">
+      <c r="F42" s="203">
         <v>-5803736</v>
       </c>
-      <c r="G42" s="113">
+      <c r="G42" s="111">
         <v>21</v>
       </c>
-      <c r="H42" s="152">
+      <c r="H42" s="214">
         <v>-377182</v>
       </c>
       <c r="I42" t="s">
@@ -20030,25 +20036,25 @@
       <c r="A43" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="149" t="s">
+      <c r="B43" s="145" t="s">
         <v>213</v>
       </c>
       <c r="C43" s="107">
         <v>39629</v>
       </c>
-      <c r="D43" s="162">
+      <c r="D43" s="154">
         <v>-18292189</v>
       </c>
-      <c r="E43" s="112">
+      <c r="E43" s="110">
         <v>17</v>
       </c>
-      <c r="F43" s="156">
+      <c r="F43" s="207">
         <v>-15230411</v>
       </c>
-      <c r="G43" s="112">
+      <c r="G43" s="110">
         <v>9</v>
       </c>
-      <c r="H43" s="150">
+      <c r="H43" s="213">
         <v>-1924796</v>
       </c>
       <c r="I43" t="s">
@@ -20059,25 +20065,25 @@
       <c r="A44" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B44" s="151" t="s">
+      <c r="B44" s="146" t="s">
         <v>212</v>
       </c>
       <c r="C44" s="108">
         <v>39629</v>
       </c>
-      <c r="D44" s="159">
+      <c r="D44" s="151">
         <v>8034472</v>
       </c>
-      <c r="E44" s="113">
+      <c r="E44" s="111">
         <v>30</v>
       </c>
-      <c r="F44" s="157">
+      <c r="F44" s="203">
         <v>9178030</v>
       </c>
-      <c r="G44" s="113">
+      <c r="G44" s="111">
         <v>22</v>
       </c>
-      <c r="H44" s="152">
+      <c r="H44" s="214">
         <v>577739</v>
       </c>
       <c r="I44" t="s">
@@ -20088,25 +20094,25 @@
       <c r="A45" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="151" t="s">
+      <c r="B45" s="146" t="s">
         <v>211</v>
       </c>
       <c r="C45" s="108">
         <v>39994</v>
       </c>
-      <c r="D45" s="159">
+      <c r="D45" s="151">
         <v>10158177</v>
       </c>
-      <c r="E45" s="113">
+      <c r="E45" s="111">
         <v>15</v>
       </c>
-      <c r="F45" s="157">
+      <c r="F45" s="203">
         <v>8048938</v>
       </c>
-      <c r="G45" s="113">
+      <c r="G45" s="111">
         <v>8</v>
       </c>
-      <c r="H45" s="152">
+      <c r="H45" s="214">
         <v>1126453</v>
       </c>
       <c r="I45" t="s">
@@ -20117,25 +20123,25 @@
       <c r="A46" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="151" t="s">
+      <c r="B46" s="146" t="s">
         <v>211</v>
       </c>
       <c r="C46" s="108">
         <v>40359</v>
       </c>
-      <c r="D46" s="159">
+      <c r="D46" s="151">
         <v>2144522</v>
       </c>
-      <c r="E46" s="113">
+      <c r="E46" s="111">
         <v>15</v>
       </c>
-      <c r="F46" s="157">
+      <c r="F46" s="203">
         <v>1803321</v>
       </c>
-      <c r="G46" s="113">
+      <c r="G46" s="111">
         <v>9</v>
       </c>
-      <c r="H46" s="152">
+      <c r="H46" s="214">
         <v>227901</v>
       </c>
       <c r="I46" t="s">
@@ -20146,25 +20152,25 @@
       <c r="A47" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="151" t="s">
+      <c r="B47" s="146" t="s">
         <v>212</v>
       </c>
       <c r="C47" s="108">
         <v>40359</v>
       </c>
-      <c r="D47" s="159">
+      <c r="D47" s="151">
         <v>25997606</v>
       </c>
-      <c r="E47" s="113">
+      <c r="E47" s="111">
         <v>30</v>
       </c>
-      <c r="F47" s="157">
+      <c r="F47" s="203">
         <v>28915692</v>
       </c>
-      <c r="G47" s="113">
+      <c r="G47" s="111">
         <v>24</v>
       </c>
-      <c r="H47" s="152">
+      <c r="H47" s="214">
         <v>1717497</v>
       </c>
       <c r="I47" t="s">
@@ -20175,25 +20181,25 @@
       <c r="A48" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="151" t="s">
+      <c r="B48" s="146" t="s">
         <v>217</v>
       </c>
       <c r="C48" s="108">
         <v>40724</v>
       </c>
-      <c r="D48" s="159">
+      <c r="D48" s="151">
         <v>-18044</v>
       </c>
-      <c r="E48" s="113">
+      <c r="E48" s="111">
         <v>30</v>
       </c>
-      <c r="F48" s="157">
+      <c r="F48" s="203">
         <v>-19769</v>
       </c>
-      <c r="G48" s="113">
+      <c r="G48" s="111">
         <v>25</v>
       </c>
-      <c r="H48" s="152">
+      <c r="H48" s="214">
         <v>-1144</v>
       </c>
       <c r="I48" t="s">
@@ -20204,25 +20210,25 @@
       <c r="A49" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="151" t="s">
+      <c r="B49" s="146" t="s">
         <v>211</v>
       </c>
       <c r="C49" s="108">
         <v>40724</v>
       </c>
-      <c r="D49" s="159">
+      <c r="D49" s="151">
         <v>1095451</v>
       </c>
-      <c r="E49" s="113">
+      <c r="E49" s="111">
         <v>15</v>
       </c>
-      <c r="F49" s="157">
+      <c r="F49" s="203">
         <v>966540</v>
       </c>
-      <c r="G49" s="113">
+      <c r="G49" s="111">
         <v>10</v>
       </c>
-      <c r="H49" s="152">
+      <c r="H49" s="214">
         <v>111673</v>
       </c>
       <c r="I49" t="s">
@@ -20233,25 +20239,25 @@
       <c r="A50" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B50" s="151" t="s">
+      <c r="B50" s="146" t="s">
         <v>212</v>
       </c>
       <c r="C50" s="108">
         <v>40724</v>
       </c>
-      <c r="D50" s="159">
+      <c r="D50" s="151">
         <v>25593931</v>
       </c>
-      <c r="E50" s="113">
+      <c r="E50" s="111">
         <v>30</v>
       </c>
-      <c r="F50" s="157">
+      <c r="F50" s="203">
         <v>28039833</v>
       </c>
-      <c r="G50" s="113">
+      <c r="G50" s="111">
         <v>25</v>
       </c>
-      <c r="H50" s="152">
+      <c r="H50" s="214">
         <v>1621943</v>
       </c>
       <c r="I50" t="s">
@@ -20262,25 +20268,25 @@
       <c r="A51" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B51" s="151" t="s">
+      <c r="B51" s="146" t="s">
         <v>211</v>
       </c>
       <c r="C51" s="108">
         <v>41090</v>
       </c>
-      <c r="D51" s="159">
+      <c r="D51" s="151">
         <v>10983184</v>
       </c>
-      <c r="E51" s="113">
+      <c r="E51" s="111">
         <v>20</v>
       </c>
-      <c r="F51" s="157">
+      <c r="F51" s="203">
         <v>10962823</v>
       </c>
-      <c r="G51" s="113">
+      <c r="G51" s="111">
         <v>16</v>
       </c>
-      <c r="H51" s="152">
+      <c r="H51" s="214">
         <v>868105</v>
       </c>
       <c r="I51" t="s">
@@ -20291,25 +20297,25 @@
       <c r="A52" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="151" t="s">
+      <c r="B52" s="146" t="s">
         <v>211</v>
       </c>
       <c r="C52" s="108">
         <v>41455</v>
       </c>
-      <c r="D52" s="159">
+      <c r="D52" s="151">
         <v>6011719</v>
       </c>
-      <c r="E52" s="113">
+      <c r="E52" s="111">
         <v>20</v>
       </c>
-      <c r="F52" s="157">
+      <c r="F52" s="203">
         <v>6024525</v>
       </c>
-      <c r="G52" s="113">
+      <c r="G52" s="111">
         <v>17</v>
       </c>
-      <c r="H52" s="152">
+      <c r="H52" s="214">
         <v>455806</v>
       </c>
       <c r="I52" t="s">
@@ -20320,25 +20326,25 @@
       <c r="A53" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="151" t="s">
+      <c r="B53" s="146" t="s">
         <v>213</v>
       </c>
       <c r="C53" s="108">
         <v>41820</v>
       </c>
-      <c r="D53" s="159">
+      <c r="D53" s="151">
         <v>-15610972</v>
       </c>
-      <c r="E53" s="113">
+      <c r="E53" s="111">
         <v>20</v>
       </c>
-      <c r="F53" s="157">
+      <c r="F53" s="203">
         <v>-15653713</v>
       </c>
-      <c r="G53" s="113">
+      <c r="G53" s="111">
         <v>18</v>
       </c>
-      <c r="H53" s="152">
+      <c r="H53" s="214">
         <v>-1135399</v>
       </c>
       <c r="I53" t="s">
@@ -20349,25 +20355,25 @@
       <c r="A54" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B54" s="151" t="s">
+      <c r="B54" s="146" t="s">
         <v>212</v>
       </c>
       <c r="C54" s="108">
         <v>41820</v>
       </c>
-      <c r="D54" s="159">
+      <c r="D54" s="151">
         <v>-3528915</v>
       </c>
-      <c r="E54" s="113">
+      <c r="E54" s="111">
         <v>25</v>
       </c>
-      <c r="F54" s="157">
+      <c r="F54" s="203">
         <v>-3613993</v>
       </c>
-      <c r="G54" s="113">
+      <c r="G54" s="111">
         <v>23</v>
       </c>
-      <c r="H54" s="152">
+      <c r="H54" s="214">
         <v>-220784</v>
       </c>
       <c r="I54" t="s">
@@ -20378,25 +20384,25 @@
       <c r="A55" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="151" t="s">
+      <c r="B55" s="146" t="s">
         <v>213</v>
       </c>
       <c r="C55" s="108">
         <v>42185</v>
       </c>
-      <c r="D55" s="159">
+      <c r="D55" s="151">
         <v>-46361062</v>
       </c>
-      <c r="E55" s="113">
+      <c r="E55" s="111">
         <v>20</v>
       </c>
-      <c r="F55" s="157">
+      <c r="F55" s="203">
         <v>-46486838</v>
       </c>
-      <c r="G55" s="113">
+      <c r="G55" s="111">
         <v>19</v>
       </c>
-      <c r="H55" s="152">
+      <c r="H55" s="214">
         <v>-3242192</v>
       </c>
       <c r="I55" t="s">
@@ -20407,25 +20413,25 @@
       <c r="A56" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="151" t="s">
+      <c r="B56" s="146" t="s">
         <v>213</v>
       </c>
       <c r="C56" s="108">
         <v>42551</v>
       </c>
-      <c r="D56" s="159">
+      <c r="D56" s="151">
         <v>-18410183</v>
       </c>
-      <c r="E56" s="113">
+      <c r="E56" s="111">
         <v>20</v>
       </c>
-      <c r="F56" s="158">
+      <c r="F56" s="208">
         <v>-18410183</v>
       </c>
-      <c r="G56" s="113">
+      <c r="G56" s="111">
         <v>20</v>
       </c>
-      <c r="H56" s="154">
+      <c r="H56" s="215">
         <v>-1237970</v>
       </c>
       <c r="I56" t="s">
@@ -20442,19 +20448,19 @@
       <c r="C57" s="107">
         <v>32689</v>
       </c>
-      <c r="D57" s="162">
+      <c r="D57" s="154">
         <v>-6262457</v>
       </c>
-      <c r="E57" s="112">
+      <c r="E57" s="110">
         <v>14</v>
       </c>
-      <c r="F57" s="156">
+      <c r="F57" s="207">
         <v>-2538327</v>
       </c>
-      <c r="G57" s="112">
+      <c r="G57" s="110">
         <v>3</v>
       </c>
-      <c r="H57" s="150">
+      <c r="H57" s="213">
         <v>-874264</v>
       </c>
       <c r="I57" t="s">
@@ -20471,19 +20477,19 @@
       <c r="C58" s="108">
         <v>33054</v>
       </c>
-      <c r="D58" s="159">
+      <c r="D58" s="151">
         <v>109592</v>
       </c>
-      <c r="E58" s="113">
+      <c r="E58" s="111">
         <v>15</v>
       </c>
-      <c r="F58" s="157">
+      <c r="F58" s="203">
         <v>55221</v>
       </c>
-      <c r="G58" s="113">
+      <c r="G58" s="111">
         <v>4</v>
       </c>
-      <c r="H58" s="152">
+      <c r="H58" s="214">
         <v>14498</v>
       </c>
       <c r="I58" t="s">
@@ -20500,19 +20506,19 @@
       <c r="C59" s="108">
         <v>33054</v>
       </c>
-      <c r="D59" s="159">
+      <c r="D59" s="151">
         <v>-2461841</v>
       </c>
-      <c r="E59" s="113">
+      <c r="E59" s="111">
         <v>15</v>
       </c>
-      <c r="F59" s="157">
+      <c r="F59" s="203">
         <v>-1240463</v>
       </c>
-      <c r="G59" s="113">
+      <c r="G59" s="111">
         <v>4</v>
       </c>
-      <c r="H59" s="152">
+      <c r="H59" s="214">
         <v>-325679</v>
       </c>
       <c r="I59" t="s">
@@ -20529,19 +20535,19 @@
       <c r="C60" s="108">
         <v>33785</v>
       </c>
-      <c r="D60" s="159">
+      <c r="D60" s="151">
         <v>962115</v>
       </c>
-      <c r="E60" s="113">
+      <c r="E60" s="111">
         <v>17</v>
       </c>
-      <c r="F60" s="157">
+      <c r="F60" s="203">
         <v>640290</v>
       </c>
-      <c r="G60" s="113">
+      <c r="G60" s="111">
         <v>6</v>
       </c>
-      <c r="H60" s="152">
+      <c r="H60" s="214">
         <v>115736</v>
       </c>
       <c r="I60" t="s">
@@ -20558,19 +20564,19 @@
       <c r="C61" s="108">
         <v>34880</v>
       </c>
-      <c r="D61" s="159">
+      <c r="D61" s="151">
         <v>-7967987</v>
       </c>
-      <c r="E61" s="113">
+      <c r="E61" s="111">
         <v>20</v>
       </c>
-      <c r="F61" s="157">
+      <c r="F61" s="203">
         <v>-6739891</v>
       </c>
-      <c r="G61" s="113">
+      <c r="G61" s="111">
         <v>9</v>
       </c>
-      <c r="H61" s="152">
+      <c r="H61" s="214">
         <v>-851777</v>
       </c>
       <c r="I61" t="s">
@@ -20587,19 +20593,19 @@
       <c r="C62" s="108">
         <v>35246</v>
       </c>
-      <c r="D62" s="159">
+      <c r="D62" s="151">
         <v>1110115</v>
       </c>
-      <c r="E62" s="113">
+      <c r="E62" s="111">
         <v>21</v>
       </c>
-      <c r="F62" s="157">
+      <c r="F62" s="203">
         <v>992638</v>
       </c>
-      <c r="G62" s="113">
+      <c r="G62" s="111">
         <v>10</v>
       </c>
-      <c r="H62" s="152">
+      <c r="H62" s="214">
         <v>114688</v>
       </c>
       <c r="I62" t="s">
@@ -20616,19 +20622,19 @@
       <c r="C63" s="108">
         <v>35246</v>
       </c>
-      <c r="D63" s="159">
+      <c r="D63" s="151">
         <v>-7176108</v>
       </c>
-      <c r="E63" s="113">
+      <c r="E63" s="111">
         <v>21</v>
       </c>
-      <c r="F63" s="157">
+      <c r="F63" s="203">
         <v>-6416689</v>
       </c>
-      <c r="G63" s="113">
+      <c r="G63" s="111">
         <v>10</v>
       </c>
-      <c r="H63" s="152">
+      <c r="H63" s="214">
         <v>-741375</v>
       </c>
       <c r="I63" t="s">
@@ -20645,19 +20651,19 @@
       <c r="C64" s="108">
         <v>35976</v>
       </c>
-      <c r="D64" s="159">
+      <c r="D64" s="151">
         <v>2159884</v>
       </c>
-      <c r="E64" s="113">
+      <c r="E64" s="111">
         <v>23</v>
       </c>
-      <c r="F64" s="157">
+      <c r="F64" s="203">
         <v>2111673</v>
       </c>
-      <c r="G64" s="113">
+      <c r="G64" s="111">
         <v>12</v>
       </c>
-      <c r="H64" s="152">
+      <c r="H64" s="214">
         <v>209738</v>
       </c>
       <c r="I64" t="s">
@@ -20674,19 +20680,19 @@
       <c r="C65" s="108">
         <v>35976</v>
       </c>
-      <c r="D65" s="159">
+      <c r="D65" s="151">
         <v>3632689</v>
       </c>
-      <c r="E65" s="113">
+      <c r="E65" s="111">
         <v>23</v>
       </c>
-      <c r="F65" s="157">
+      <c r="F65" s="203">
         <v>3551602</v>
       </c>
-      <c r="G65" s="113">
+      <c r="G65" s="111">
         <v>12</v>
       </c>
-      <c r="H65" s="152">
+      <c r="H65" s="214">
         <v>352756</v>
       </c>
       <c r="I65" t="s">
@@ -20703,19 +20709,19 @@
       <c r="C66" s="108">
         <v>36707</v>
       </c>
-      <c r="D66" s="159">
+      <c r="D66" s="151">
         <v>370129</v>
       </c>
-      <c r="E66" s="113">
+      <c r="E66" s="111">
         <v>25</v>
       </c>
-      <c r="F66" s="157">
+      <c r="F66" s="203">
         <v>387604</v>
       </c>
-      <c r="G66" s="113">
+      <c r="G66" s="111">
         <v>14</v>
       </c>
-      <c r="H66" s="152">
+      <c r="H66" s="214">
         <v>34028</v>
       </c>
       <c r="I66" t="s">
@@ -20732,19 +20738,19 @@
       <c r="C67" s="108">
         <v>37072</v>
       </c>
-      <c r="D67" s="159">
+      <c r="D67" s="151">
         <v>-9231354</v>
       </c>
-      <c r="E67" s="113">
+      <c r="E67" s="111">
         <v>11</v>
       </c>
-      <c r="F67" s="157">
-        <v>0</v>
-      </c>
-      <c r="G67" s="113">
+      <c r="F67" s="203">
+        <v>0</v>
+      </c>
+      <c r="G67" s="111">
         <v>10</v>
       </c>
-      <c r="H67" s="152">
+      <c r="H67" s="214">
         <v>0</v>
       </c>
       <c r="I67" t="s">
@@ -20761,19 +20767,19 @@
       <c r="C68" s="108">
         <v>37072</v>
       </c>
-      <c r="D68" s="159">
+      <c r="D68" s="151">
         <v>-4878745</v>
       </c>
-      <c r="E68" s="113">
+      <c r="E68" s="111">
         <v>26</v>
       </c>
-      <c r="F68" s="157">
+      <c r="F68" s="203">
         <v>-5258083</v>
       </c>
-      <c r="G68" s="113">
+      <c r="G68" s="111">
         <v>15</v>
       </c>
-      <c r="H68" s="152">
+      <c r="H68" s="214">
         <v>-437452</v>
       </c>
       <c r="I68" t="s">
@@ -20790,19 +20796,19 @@
       <c r="C69" s="108">
         <v>37437</v>
       </c>
-      <c r="D69" s="159">
+      <c r="D69" s="151">
         <v>18536288</v>
       </c>
-      <c r="E69" s="113">
+      <c r="E69" s="111">
         <v>12</v>
       </c>
-      <c r="F69" s="157">
+      <c r="F69" s="203">
         <v>2927932</v>
       </c>
-      <c r="G69" s="113">
+      <c r="G69" s="111">
         <v>1</v>
       </c>
-      <c r="H69" s="152">
+      <c r="H69" s="214">
         <v>2927932</v>
       </c>
       <c r="I69" t="s">
@@ -20819,19 +20825,19 @@
       <c r="C70" s="108">
         <v>37802</v>
       </c>
-      <c r="D70" s="159">
+      <c r="D70" s="151">
         <v>59690449</v>
       </c>
-      <c r="E70" s="113">
+      <c r="E70" s="111">
         <v>13</v>
       </c>
-      <c r="F70" s="157">
+      <c r="F70" s="203">
         <v>17388245</v>
       </c>
-      <c r="G70" s="113">
+      <c r="G70" s="111">
         <v>2</v>
       </c>
-      <c r="H70" s="152">
+      <c r="H70" s="214">
         <v>8837997</v>
       </c>
       <c r="I70" t="s">
@@ -20848,19 +20854,19 @@
       <c r="C71" s="108">
         <v>38168</v>
       </c>
-      <c r="D71" s="159">
+      <c r="D71" s="151">
         <v>10147466</v>
       </c>
-      <c r="E71" s="113">
+      <c r="E71" s="111">
         <v>14</v>
       </c>
-      <c r="F71" s="157">
+      <c r="F71" s="203">
         <v>4113015</v>
       </c>
-      <c r="G71" s="113">
+      <c r="G71" s="111">
         <v>3</v>
       </c>
-      <c r="H71" s="152">
+      <c r="H71" s="214">
         <v>1416627</v>
       </c>
       <c r="I71" t="s">
@@ -20877,19 +20883,19 @@
       <c r="C72" s="108">
         <v>38168</v>
       </c>
-      <c r="D72" s="159">
+      <c r="D72" s="151">
         <v>-5220974</v>
       </c>
-      <c r="E72" s="113">
+      <c r="E72" s="111">
         <v>29</v>
       </c>
-      <c r="F72" s="157">
+      <c r="F72" s="203">
         <v>-6035260</v>
       </c>
-      <c r="G72" s="113">
+      <c r="G72" s="111">
         <v>18</v>
       </c>
-      <c r="H72" s="152">
+      <c r="H72" s="214">
         <v>-437751</v>
       </c>
       <c r="I72" t="s">
@@ -20906,19 +20912,19 @@
       <c r="C73" s="108">
         <v>38533</v>
       </c>
-      <c r="D73" s="159">
+      <c r="D73" s="151">
         <v>13244413</v>
       </c>
-      <c r="E73" s="113">
+      <c r="E73" s="111">
         <v>15</v>
       </c>
-      <c r="F73" s="157">
+      <c r="F73" s="203">
         <v>6673545</v>
       </c>
-      <c r="G73" s="113">
+      <c r="G73" s="111">
         <v>4</v>
       </c>
-      <c r="H73" s="152">
+      <c r="H73" s="214">
         <v>1752112</v>
       </c>
       <c r="I73" t="s">
@@ -20935,19 +20941,19 @@
       <c r="C74" s="108">
         <v>38533</v>
       </c>
-      <c r="D74" s="159">
+      <c r="D74" s="151">
         <v>14033320</v>
       </c>
-      <c r="E74" s="113">
+      <c r="E74" s="111">
         <v>30</v>
       </c>
-      <c r="F74" s="157">
+      <c r="F74" s="203">
         <v>16535635</v>
       </c>
-      <c r="G74" s="113">
+      <c r="G74" s="111">
         <v>19</v>
       </c>
-      <c r="H74" s="152">
+      <c r="H74" s="214">
         <v>1153266</v>
       </c>
       <c r="I74" t="s">
@@ -20964,19 +20970,19 @@
       <c r="C75" s="108">
         <v>38898</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="151">
         <v>6063600</v>
       </c>
-      <c r="E75" s="113">
+      <c r="E75" s="111">
         <v>15</v>
       </c>
-      <c r="F75" s="157">
+      <c r="F75" s="203">
         <v>3579328</v>
       </c>
-      <c r="G75" s="113">
+      <c r="G75" s="111">
         <v>5</v>
       </c>
-      <c r="H75" s="152">
+      <c r="H75" s="214">
         <v>764022</v>
       </c>
       <c r="I75" t="s">
@@ -20993,19 +20999,19 @@
       <c r="C76" s="108">
         <v>38898</v>
       </c>
-      <c r="D76" s="159">
+      <c r="D76" s="151">
         <v>14561746</v>
       </c>
-      <c r="E76" s="113">
+      <c r="E76" s="111">
         <v>30</v>
       </c>
-      <c r="F76" s="157">
+      <c r="F76" s="203">
         <v>16949930</v>
       </c>
-      <c r="G76" s="113">
+      <c r="G76" s="111">
         <v>20</v>
       </c>
-      <c r="H76" s="152">
+      <c r="H76" s="214">
         <v>1139777</v>
       </c>
       <c r="I76" t="s">
@@ -21022,19 +21028,19 @@
       <c r="C77" s="108">
         <v>39263</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="151">
         <v>-8926309</v>
       </c>
-      <c r="E77" s="113">
+      <c r="E77" s="111">
         <v>21</v>
       </c>
-      <c r="F77" s="157">
+      <c r="F77" s="203">
         <v>-8475147</v>
       </c>
-      <c r="G77" s="113">
+      <c r="G77" s="111">
         <v>12</v>
       </c>
-      <c r="H77" s="152">
+      <c r="H77" s="214">
         <v>-841779</v>
       </c>
       <c r="I77" t="s">
@@ -21051,19 +21057,19 @@
       <c r="C78" s="108">
         <v>39263</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="151">
         <v>-3015790</v>
       </c>
-      <c r="E78" s="113">
+      <c r="E78" s="111">
         <v>30</v>
       </c>
-      <c r="F78" s="157">
+      <c r="F78" s="203">
         <v>-3481331</v>
       </c>
-      <c r="G78" s="113">
+      <c r="G78" s="111">
         <v>21</v>
       </c>
-      <c r="H78" s="152">
+      <c r="H78" s="214">
         <v>-226250</v>
       </c>
       <c r="I78" t="s">
@@ -21074,25 +21080,25 @@
       <c r="A79" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B79" s="149" t="s">
+      <c r="B79" s="145" t="s">
         <v>213</v>
       </c>
       <c r="C79" s="107">
         <v>39629</v>
       </c>
-      <c r="D79" s="162">
+      <c r="D79" s="154">
         <v>-4429445</v>
       </c>
-      <c r="E79" s="112">
+      <c r="E79" s="110">
         <v>17</v>
       </c>
-      <c r="F79" s="156">
+      <c r="F79" s="207">
         <v>-3688038</v>
       </c>
-      <c r="G79" s="112">
+      <c r="G79" s="110">
         <v>9</v>
       </c>
-      <c r="H79" s="150">
+      <c r="H79" s="213">
         <v>-466089</v>
       </c>
       <c r="I79" t="s">
@@ -21103,25 +21109,25 @@
       <c r="A80" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B80" s="151" t="s">
+      <c r="B80" s="146" t="s">
         <v>212</v>
       </c>
       <c r="C80" s="108">
         <v>39629</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="151">
         <v>10599393</v>
       </c>
-      <c r="E80" s="113">
+      <c r="E80" s="111">
         <v>30</v>
       </c>
-      <c r="F80" s="157">
+      <c r="F80" s="203">
         <v>12108018</v>
       </c>
-      <c r="G80" s="113">
+      <c r="G80" s="111">
         <v>22</v>
       </c>
-      <c r="H80" s="152">
+      <c r="H80" s="214">
         <v>762176</v>
       </c>
       <c r="I80" t="s">
@@ -21132,25 +21138,25 @@
       <c r="A81" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B81" s="151" t="s">
+      <c r="B81" s="146" t="s">
         <v>211</v>
       </c>
       <c r="C81" s="108">
         <v>39994</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="151">
         <v>11924683</v>
       </c>
-      <c r="E81" s="113">
+      <c r="E81" s="111">
         <v>15</v>
       </c>
-      <c r="F81" s="157">
+      <c r="F81" s="203">
         <v>9448646</v>
       </c>
-      <c r="G81" s="113">
+      <c r="G81" s="111">
         <v>8</v>
       </c>
-      <c r="H81" s="152">
+      <c r="H81" s="214">
         <v>1322343</v>
       </c>
       <c r="I81" t="s">
@@ -21161,25 +21167,25 @@
       <c r="A82" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B82" s="151" t="s">
+      <c r="B82" s="146" t="s">
         <v>211</v>
       </c>
       <c r="C82" s="108">
         <v>40359</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="151">
         <v>4794050</v>
       </c>
-      <c r="E82" s="113">
+      <c r="E82" s="111">
         <v>15</v>
       </c>
-      <c r="F82" s="157">
+      <c r="F82" s="203">
         <v>4031299</v>
       </c>
-      <c r="G82" s="113">
+      <c r="G82" s="111">
         <v>9</v>
       </c>
-      <c r="H82" s="152">
+      <c r="H82" s="214">
         <v>509469</v>
       </c>
       <c r="I82" t="s">
@@ -21190,25 +21196,25 @@
       <c r="A83" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B83" s="151" t="s">
+      <c r="B83" s="146" t="s">
         <v>212</v>
       </c>
       <c r="C83" s="108">
         <v>40359</v>
       </c>
-      <c r="D83" s="159">
+      <c r="D83" s="151">
         <v>12948180</v>
       </c>
-      <c r="E83" s="113">
+      <c r="E83" s="111">
         <v>30</v>
       </c>
-      <c r="F83" s="157">
+      <c r="F83" s="203">
         <v>14401539</v>
       </c>
-      <c r="G83" s="113">
+      <c r="G83" s="111">
         <v>24</v>
       </c>
-      <c r="H83" s="152">
+      <c r="H83" s="214">
         <v>855404</v>
       </c>
       <c r="I83" t="s">
@@ -21219,25 +21225,25 @@
       <c r="A84" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B84" s="151" t="s">
+      <c r="B84" s="146" t="s">
         <v>217</v>
       </c>
       <c r="C84" s="108">
         <v>40724</v>
       </c>
-      <c r="D84" s="159">
+      <c r="D84" s="151">
         <v>1483135</v>
       </c>
-      <c r="E84" s="113">
+      <c r="E84" s="111">
         <v>30</v>
       </c>
-      <c r="F84" s="157">
+      <c r="F84" s="203">
         <v>1624871</v>
       </c>
-      <c r="G84" s="113">
+      <c r="G84" s="111">
         <v>25</v>
       </c>
-      <c r="H84" s="152">
+      <c r="H84" s="214">
         <v>93989</v>
       </c>
       <c r="I84" t="s">
@@ -21248,25 +21254,25 @@
       <c r="A85" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B85" s="151" t="s">
+      <c r="B85" s="146" t="s">
         <v>211</v>
       </c>
       <c r="C85" s="108">
         <v>40724</v>
       </c>
-      <c r="D85" s="159">
+      <c r="D85" s="151">
         <v>5867945</v>
       </c>
-      <c r="E85" s="113">
+      <c r="E85" s="111">
         <v>15</v>
       </c>
-      <c r="F85" s="157">
+      <c r="F85" s="203">
         <v>5177419</v>
       </c>
-      <c r="G85" s="113">
+      <c r="G85" s="111">
         <v>10</v>
       </c>
-      <c r="H85" s="152">
+      <c r="H85" s="214">
         <v>598192</v>
       </c>
       <c r="I85" t="s">
@@ -21277,25 +21283,25 @@
       <c r="A86" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B86" s="151" t="s">
+      <c r="B86" s="146" t="s">
         <v>212</v>
       </c>
       <c r="C86" s="108">
         <v>40724</v>
       </c>
-      <c r="D86" s="159">
+      <c r="D86" s="151">
         <v>12753767</v>
       </c>
-      <c r="E86" s="113">
+      <c r="E86" s="111">
         <v>30</v>
       </c>
-      <c r="F86" s="157">
+      <c r="F86" s="203">
         <v>13972590</v>
       </c>
-      <c r="G86" s="113">
+      <c r="G86" s="111">
         <v>25</v>
       </c>
-      <c r="H86" s="152">
+      <c r="H86" s="214">
         <v>808234</v>
       </c>
       <c r="I86" t="s">
@@ -21306,25 +21312,25 @@
       <c r="A87" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B87" s="151" t="s">
+      <c r="B87" s="146" t="s">
         <v>211</v>
       </c>
       <c r="C87" s="108">
         <v>41090</v>
       </c>
-      <c r="D87" s="159">
+      <c r="D87" s="151">
         <v>9377426</v>
       </c>
-      <c r="E87" s="113">
+      <c r="E87" s="111">
         <v>20</v>
       </c>
-      <c r="F87" s="157">
+      <c r="F87" s="203">
         <v>9360043</v>
       </c>
-      <c r="G87" s="113">
+      <c r="G87" s="111">
         <v>16</v>
       </c>
-      <c r="H87" s="152">
+      <c r="H87" s="214">
         <v>741187</v>
       </c>
       <c r="I87" t="s">
@@ -21335,25 +21341,25 @@
       <c r="A88" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B88" s="151" t="s">
+      <c r="B88" s="146" t="s">
         <v>211</v>
       </c>
       <c r="C88" s="108">
         <v>41455</v>
       </c>
-      <c r="D88" s="159">
+      <c r="D88" s="151">
         <v>6625380</v>
       </c>
-      <c r="E88" s="113">
+      <c r="E88" s="111">
         <v>20</v>
       </c>
-      <c r="F88" s="157">
+      <c r="F88" s="203">
         <v>6639492</v>
       </c>
-      <c r="G88" s="113">
+      <c r="G88" s="111">
         <v>17</v>
       </c>
-      <c r="H88" s="152">
+      <c r="H88" s="214">
         <v>502334</v>
       </c>
       <c r="I88" t="s">
@@ -21364,25 +21370,25 @@
       <c r="A89" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B89" s="151" t="s">
+      <c r="B89" s="146" t="s">
         <v>213</v>
       </c>
       <c r="C89" s="108">
         <v>41820</v>
       </c>
-      <c r="D89" s="159">
+      <c r="D89" s="151">
         <v>-11060872</v>
       </c>
-      <c r="E89" s="113">
+      <c r="E89" s="111">
         <v>20</v>
       </c>
-      <c r="F89" s="157">
+      <c r="F89" s="203">
         <v>-11091155</v>
       </c>
-      <c r="G89" s="113">
+      <c r="G89" s="111">
         <v>18</v>
       </c>
-      <c r="H89" s="152">
+      <c r="H89" s="214">
         <v>-804467</v>
       </c>
       <c r="I89" t="s">
@@ -21393,25 +21399,25 @@
       <c r="A90" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B90" s="151" t="s">
+      <c r="B90" s="146" t="s">
         <v>212</v>
       </c>
       <c r="C90" s="108">
         <v>41820</v>
       </c>
-      <c r="D90" s="159">
+      <c r="D90" s="151">
         <v>9988189</v>
       </c>
-      <c r="E90" s="113">
+      <c r="E90" s="111">
         <v>25</v>
       </c>
-      <c r="F90" s="157">
+      <c r="F90" s="203">
         <v>10228993</v>
       </c>
-      <c r="G90" s="113">
+      <c r="G90" s="111">
         <v>23</v>
       </c>
-      <c r="H90" s="152">
+      <c r="H90" s="214">
         <v>624905</v>
       </c>
       <c r="I90" t="s">
@@ -21422,25 +21428,25 @@
       <c r="A91" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B91" s="151" t="s">
+      <c r="B91" s="146" t="s">
         <v>213</v>
       </c>
       <c r="C91" s="108">
         <v>42185</v>
       </c>
-      <c r="D91" s="159">
+      <c r="D91" s="151">
         <v>-16640244</v>
       </c>
-      <c r="E91" s="113">
+      <c r="E91" s="111">
         <v>20</v>
       </c>
-      <c r="F91" s="157">
+      <c r="F91" s="203">
         <v>-16685388</v>
       </c>
-      <c r="G91" s="113">
+      <c r="G91" s="111">
         <v>19</v>
       </c>
-      <c r="H91" s="152">
+      <c r="H91" s="214">
         <v>-1163711</v>
       </c>
       <c r="I91" t="s">
@@ -21451,25 +21457,25 @@
       <c r="A92" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B92" s="151" t="s">
+      <c r="B92" s="146" t="s">
         <v>213</v>
       </c>
       <c r="C92" s="108">
         <v>42551</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="151">
         <v>-3718134</v>
       </c>
-      <c r="E92" s="113">
+      <c r="E92" s="111">
         <v>20</v>
       </c>
-      <c r="F92" s="158">
+      <c r="F92" s="208">
         <v>-3718134</v>
       </c>
-      <c r="G92" s="113">
+      <c r="G92" s="111">
         <v>20</v>
       </c>
-      <c r="H92" s="154">
+      <c r="H92" s="215">
         <v>-250021</v>
       </c>
       <c r="I92" t="s">
@@ -21486,19 +21492,19 @@
       <c r="C93" s="107">
         <v>37437</v>
       </c>
-      <c r="D93" s="162">
+      <c r="D93" s="154">
         <v>-157564364</v>
       </c>
-      <c r="E93" s="112">
+      <c r="E93" s="110">
         <v>27</v>
       </c>
-      <c r="F93" s="156">
+      <c r="F93" s="207">
         <v>-174249137</v>
       </c>
-      <c r="G93" s="112">
+      <c r="G93" s="110">
         <v>16</v>
       </c>
-      <c r="H93" s="150">
+      <c r="H93" s="213">
         <v>-13798134</v>
       </c>
       <c r="I93" t="s">
@@ -21515,19 +21521,19 @@
       <c r="C94" s="108">
         <v>37802</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="151">
         <v>-314459851</v>
       </c>
-      <c r="E94" s="113">
+      <c r="E94" s="111">
         <v>13</v>
       </c>
-      <c r="F94" s="157">
+      <c r="F94" s="203">
         <v>-91604351</v>
       </c>
-      <c r="G94" s="113">
+      <c r="G94" s="111">
         <v>2</v>
       </c>
-      <c r="H94" s="152">
+      <c r="H94" s="214">
         <v>-46560131</v>
       </c>
       <c r="I94" t="s">
@@ -21544,19 +21550,19 @@
       <c r="C95" s="108">
         <v>38168</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="151">
         <v>106500938</v>
       </c>
-      <c r="E95" s="113">
+      <c r="E95" s="111">
         <v>14</v>
       </c>
-      <c r="F95" s="157">
+      <c r="F95" s="203">
         <v>43167419</v>
       </c>
-      <c r="G95" s="113">
+      <c r="G95" s="111">
         <v>3</v>
       </c>
-      <c r="H95" s="152">
+      <c r="H95" s="214">
         <v>14867959</v>
       </c>
       <c r="I95" t="s">
@@ -21573,19 +21579,19 @@
       <c r="C96" s="108">
         <v>38168</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="151">
         <v>-242147820</v>
       </c>
-      <c r="E96" s="113">
+      <c r="E96" s="111">
         <v>29</v>
       </c>
-      <c r="F96" s="157">
+      <c r="F96" s="203">
         <v>-279914118</v>
       </c>
-      <c r="G96" s="113">
+      <c r="G96" s="111">
         <v>18</v>
       </c>
-      <c r="H96" s="152">
+      <c r="H96" s="214">
         <v>-20302806</v>
       </c>
       <c r="I96" t="s">
@@ -21602,19 +21608,19 @@
       <c r="C97" s="108">
         <v>38533</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="151">
         <v>241854245</v>
       </c>
-      <c r="E97" s="113">
+      <c r="E97" s="111">
         <v>15</v>
       </c>
-      <c r="F97" s="157">
+      <c r="F97" s="203">
         <v>121864580</v>
       </c>
-      <c r="G97" s="113">
+      <c r="G97" s="111">
         <v>4</v>
       </c>
-      <c r="H97" s="152">
+      <c r="H97" s="214">
         <v>31995055</v>
       </c>
       <c r="I97" t="s">
@@ -21631,19 +21637,19 @@
       <c r="C98" s="108">
         <v>38533</v>
       </c>
-      <c r="D98" s="159">
+      <c r="D98" s="151">
         <v>421011169</v>
       </c>
-      <c r="E98" s="113">
+      <c r="E98" s="111">
         <v>30</v>
       </c>
-      <c r="F98" s="157">
+      <c r="F98" s="203">
         <v>496082720</v>
       </c>
-      <c r="G98" s="113">
+      <c r="G98" s="111">
         <v>19</v>
       </c>
-      <c r="H98" s="152">
+      <c r="H98" s="214">
         <v>34598943</v>
       </c>
       <c r="I98" t="s">
@@ -21660,19 +21666,19 @@
       <c r="C99" s="108">
         <v>38898</v>
       </c>
-      <c r="D99" s="159">
+      <c r="D99" s="151">
         <v>64026458</v>
       </c>
-      <c r="E99" s="113">
+      <c r="E99" s="111">
         <v>15</v>
       </c>
-      <c r="F99" s="157">
+      <c r="F99" s="203">
         <v>37794660</v>
       </c>
-      <c r="G99" s="113">
+      <c r="G99" s="111">
         <v>5</v>
       </c>
-      <c r="H99" s="152">
+      <c r="H99" s="214">
         <v>8067426</v>
       </c>
       <c r="I99" t="s">
@@ -21689,19 +21695,19 @@
       <c r="C100" s="108">
         <v>38898</v>
       </c>
-      <c r="D100" s="159">
+      <c r="D100" s="151">
         <v>291388037</v>
       </c>
-      <c r="E100" s="113">
+      <c r="E100" s="111">
         <v>30</v>
       </c>
-      <c r="F100" s="157">
+      <c r="F100" s="203">
         <v>339176843</v>
       </c>
-      <c r="G100" s="113">
+      <c r="G100" s="111">
         <v>20</v>
       </c>
-      <c r="H100" s="152">
+      <c r="H100" s="214">
         <v>22807527</v>
       </c>
       <c r="I100" t="s">
@@ -21718,19 +21724,19 @@
       <c r="C101" s="108">
         <v>39263</v>
       </c>
-      <c r="D101" s="159">
+      <c r="D101" s="151">
         <v>-200979530</v>
       </c>
-      <c r="E101" s="113">
+      <c r="E101" s="111">
         <v>21</v>
       </c>
-      <c r="F101" s="157">
+      <c r="F101" s="203">
         <v>-190821407</v>
       </c>
-      <c r="G101" s="113">
+      <c r="G101" s="111">
         <v>12</v>
       </c>
-      <c r="H101" s="152">
+      <c r="H101" s="214">
         <v>-18952989</v>
       </c>
       <c r="I101" t="s">
@@ -21747,19 +21753,19 @@
       <c r="C102" s="108">
         <v>39263</v>
       </c>
-      <c r="D102" s="159">
+      <c r="D102" s="151">
         <v>-71262522</v>
       </c>
-      <c r="E102" s="113">
+      <c r="E102" s="111">
         <v>30</v>
       </c>
-      <c r="F102" s="157">
+      <c r="F102" s="203">
         <v>-82263181</v>
       </c>
-      <c r="G102" s="113">
+      <c r="G102" s="111">
         <v>21</v>
       </c>
-      <c r="H102" s="152">
+      <c r="H102" s="214">
         <v>-5346248</v>
       </c>
       <c r="I102" t="s">
@@ -21776,19 +21782,19 @@
       <c r="C103" s="108">
         <v>39629</v>
       </c>
-      <c r="D103" s="159">
+      <c r="D103" s="151">
         <v>-79435149</v>
       </c>
-      <c r="E103" s="113">
+      <c r="E103" s="111">
         <v>17</v>
       </c>
-      <c r="F103" s="157">
+      <c r="F103" s="203">
         <v>-66139156</v>
       </c>
-      <c r="G103" s="113">
+      <c r="G103" s="111">
         <v>9</v>
       </c>
-      <c r="H103" s="152">
+      <c r="H103" s="214">
         <v>-8358566</v>
       </c>
       <c r="I103" t="s">
@@ -21805,19 +21811,19 @@
       <c r="C104" s="108">
         <v>39629</v>
       </c>
-      <c r="D104" s="159">
+      <c r="D104" s="151">
         <v>312669142</v>
       </c>
-      <c r="E104" s="113">
+      <c r="E104" s="111">
         <v>30</v>
       </c>
-      <c r="F104" s="157">
+      <c r="F104" s="203">
         <v>357171721</v>
       </c>
-      <c r="G104" s="113">
+      <c r="G104" s="111">
         <v>22</v>
       </c>
-      <c r="H104" s="152">
+      <c r="H104" s="214">
         <v>22483269</v>
       </c>
       <c r="I104" t="s">
@@ -21834,19 +21840,19 @@
       <c r="C105" s="108">
         <v>39994</v>
       </c>
-      <c r="D105" s="159">
+      <c r="D105" s="151">
         <v>357256711</v>
       </c>
-      <c r="E105" s="113">
+      <c r="E105" s="111">
         <v>15</v>
       </c>
-      <c r="F105" s="157">
+      <c r="F105" s="203">
         <v>283076049</v>
       </c>
-      <c r="G105" s="113">
+      <c r="G105" s="111">
         <v>8</v>
       </c>
-      <c r="H105" s="152">
+      <c r="H105" s="214">
         <v>39616655</v>
       </c>
       <c r="I105" t="s">
@@ -21863,19 +21869,19 @@
       <c r="C106" s="108">
         <v>40359</v>
       </c>
-      <c r="D106" s="159">
+      <c r="D106" s="151">
         <v>207594800</v>
       </c>
-      <c r="E106" s="113">
+      <c r="E106" s="111">
         <v>15</v>
       </c>
-      <c r="F106" s="157">
+      <c r="F106" s="203">
         <v>174565699</v>
       </c>
-      <c r="G106" s="113">
+      <c r="G106" s="111">
         <v>9</v>
       </c>
-      <c r="H106" s="152">
+      <c r="H106" s="214">
         <v>22061348</v>
       </c>
       <c r="I106" t="s">
@@ -21897,19 +21903,19 @@
       <c r="C107" s="108">
         <v>40359</v>
       </c>
-      <c r="D107" s="159">
+      <c r="D107" s="151">
         <v>277673454</v>
       </c>
-      <c r="E107" s="113">
+      <c r="E107" s="111">
         <v>30</v>
       </c>
-      <c r="F107" s="157">
+      <c r="F107" s="203">
         <v>308840731</v>
       </c>
-      <c r="G107" s="113">
+      <c r="G107" s="111">
         <v>24</v>
       </c>
-      <c r="H107" s="152">
+      <c r="H107" s="214">
         <v>18344124</v>
       </c>
       <c r="I107" t="s">
@@ -21926,19 +21932,19 @@
       <c r="C108" s="108">
         <v>40724</v>
       </c>
-      <c r="D108" s="159">
+      <c r="D108" s="151">
         <v>5693576</v>
       </c>
-      <c r="E108" s="113">
+      <c r="E108" s="111">
         <v>30</v>
       </c>
-      <c r="F108" s="157">
+      <c r="F108" s="203">
         <v>6237688</v>
       </c>
-      <c r="G108" s="113">
+      <c r="G108" s="111">
         <v>25</v>
       </c>
-      <c r="H108" s="152">
+      <c r="H108" s="214">
         <v>360814</v>
       </c>
       <c r="I108" t="s">
@@ -21955,19 +21961,19 @@
       <c r="C109" s="108">
         <v>40724</v>
       </c>
-      <c r="D109" s="159">
+      <c r="D109" s="151">
         <v>125215079</v>
       </c>
-      <c r="E109" s="113">
+      <c r="E109" s="111">
         <v>15</v>
       </c>
-      <c r="F109" s="157">
+      <c r="F109" s="203">
         <v>110480040</v>
       </c>
-      <c r="G109" s="113">
+      <c r="G109" s="111">
         <v>10</v>
       </c>
-      <c r="H109" s="152">
+      <c r="H109" s="214">
         <v>12764710</v>
       </c>
       <c r="I109" t="s">
@@ -21987,19 +21993,19 @@
       <c r="C110" s="108">
         <v>40724</v>
       </c>
-      <c r="D110" s="159">
+      <c r="D110" s="151">
         <v>244615700</v>
       </c>
-      <c r="E110" s="113">
+      <c r="E110" s="111">
         <v>30</v>
       </c>
-      <c r="F110" s="157">
+      <c r="F110" s="203">
         <v>267992582</v>
       </c>
-      <c r="G110" s="113">
+      <c r="G110" s="111">
         <v>25</v>
       </c>
-      <c r="H110" s="152">
+      <c r="H110" s="214">
         <v>15501831</v>
       </c>
       <c r="I110" t="s">
@@ -22016,19 +22022,19 @@
       <c r="C111" s="108">
         <v>41090</v>
       </c>
-      <c r="D111" s="159">
+      <c r="D111" s="151">
         <v>248617082</v>
       </c>
-      <c r="E111" s="113">
+      <c r="E111" s="111">
         <v>20</v>
       </c>
-      <c r="F111" s="157">
+      <c r="F111" s="203">
         <v>248156219</v>
       </c>
-      <c r="G111" s="113">
+      <c r="G111" s="111">
         <v>16</v>
       </c>
-      <c r="H111" s="152">
+      <c r="H111" s="214">
         <v>19650558</v>
       </c>
       <c r="I111" t="s">
@@ -22045,19 +22051,19 @@
       <c r="C112" s="108">
         <v>41455</v>
       </c>
-      <c r="D112" s="159">
+      <c r="D112" s="151">
         <v>115390840</v>
       </c>
-      <c r="E112" s="113">
+      <c r="E112" s="111">
         <v>20</v>
       </c>
-      <c r="F112" s="157">
+      <c r="F112" s="203">
         <v>115636623</v>
       </c>
-      <c r="G112" s="113">
+      <c r="G112" s="111">
         <v>17</v>
       </c>
-      <c r="H112" s="152">
+      <c r="H112" s="214">
         <v>8748885</v>
       </c>
       <c r="I112" t="s">
@@ -22074,19 +22080,19 @@
       <c r="C113" s="108">
         <v>41820</v>
       </c>
-      <c r="D113" s="159">
+      <c r="D113" s="151">
         <v>-246417577</v>
       </c>
-      <c r="E113" s="113">
+      <c r="E113" s="111">
         <v>20</v>
       </c>
-      <c r="F113" s="157">
+      <c r="F113" s="203">
         <v>-247092243</v>
       </c>
-      <c r="G113" s="113">
+      <c r="G113" s="111">
         <v>18</v>
       </c>
-      <c r="H113" s="152">
+      <c r="H113" s="214">
         <v>-17922161</v>
       </c>
       <c r="I113" t="s">
@@ -22103,19 +22109,19 @@
       <c r="C114" s="108">
         <v>41820</v>
       </c>
-      <c r="D114" s="159">
+      <c r="D114" s="151">
         <v>35896722</v>
       </c>
-      <c r="E114" s="113">
+      <c r="E114" s="111">
         <v>25</v>
       </c>
-      <c r="F114" s="157">
+      <c r="F114" s="203">
         <v>36762151</v>
       </c>
-      <c r="G114" s="113">
+      <c r="G114" s="111">
         <v>23</v>
       </c>
-      <c r="H114" s="152">
+      <c r="H114" s="214">
         <v>2245855</v>
       </c>
       <c r="I114" t="s">
@@ -22126,25 +22132,25 @@
       <c r="A115" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="B115" s="151" t="s">
+      <c r="B115" s="146" t="s">
         <v>213</v>
       </c>
       <c r="C115" s="108">
         <v>42185</v>
       </c>
-      <c r="D115" s="159">
+      <c r="D115" s="151">
         <v>-458582182</v>
       </c>
-      <c r="E115" s="113">
+      <c r="E115" s="111">
         <v>20</v>
       </c>
-      <c r="F115" s="157">
+      <c r="F115" s="203">
         <v>-459826294</v>
       </c>
-      <c r="G115" s="113">
+      <c r="G115" s="111">
         <v>19</v>
       </c>
-      <c r="H115" s="152">
+      <c r="H115" s="214">
         <v>-32070264</v>
       </c>
       <c r="I115" t="s">
@@ -22155,25 +22161,25 @@
       <c r="A116" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="B116" s="151" t="s">
+      <c r="B116" s="146" t="s">
         <v>213</v>
       </c>
       <c r="C116" s="108">
         <v>42551</v>
       </c>
-      <c r="D116" s="159">
+      <c r="D116" s="151">
         <v>-228076007</v>
       </c>
-      <c r="E116" s="113">
+      <c r="E116" s="111">
         <v>20</v>
       </c>
-      <c r="F116" s="158">
+      <c r="F116" s="208">
         <v>-228076007</v>
       </c>
-      <c r="G116" s="113">
+      <c r="G116" s="111">
         <v>20</v>
       </c>
-      <c r="H116" s="154">
+      <c r="H116" s="215">
         <v>-15336689</v>
       </c>
       <c r="I116" t="s">
@@ -22190,19 +22196,19 @@
       <c r="C117" s="107">
         <v>39629</v>
       </c>
-      <c r="D117" s="162">
+      <c r="D117" s="154">
         <v>-169104</v>
       </c>
-      <c r="E117" s="112">
+      <c r="E117" s="110">
         <v>17</v>
       </c>
-      <c r="F117" s="156">
+      <c r="F117" s="207">
         <v>-140798</v>
       </c>
-      <c r="G117" s="112">
+      <c r="G117" s="110">
         <v>9</v>
       </c>
-      <c r="H117" s="150">
+      <c r="H117" s="213">
         <v>-17794</v>
       </c>
       <c r="I117" t="s">
@@ -22219,19 +22225,19 @@
       <c r="C118" s="108">
         <v>39629</v>
       </c>
-      <c r="D118" s="159">
+      <c r="D118" s="151">
         <v>126433</v>
       </c>
-      <c r="E118" s="113">
+      <c r="E118" s="111">
         <v>30</v>
       </c>
-      <c r="F118" s="157">
+      <c r="F118" s="203">
         <v>144427</v>
       </c>
-      <c r="G118" s="113">
+      <c r="G118" s="111">
         <v>22</v>
       </c>
-      <c r="H118" s="152">
+      <c r="H118" s="214">
         <v>9091</v>
       </c>
       <c r="I118" t="s">
@@ -22248,19 +22254,19 @@
       <c r="C119" s="108">
         <v>39994</v>
       </c>
-      <c r="D119" s="159">
+      <c r="D119" s="151">
         <v>6588231</v>
       </c>
-      <c r="E119" s="113">
+      <c r="E119" s="111">
         <v>15</v>
       </c>
-      <c r="F119" s="157">
+      <c r="F119" s="203">
         <v>5220253</v>
       </c>
-      <c r="G119" s="113">
+      <c r="G119" s="111">
         <v>8</v>
       </c>
-      <c r="H119" s="152">
+      <c r="H119" s="214">
         <v>730577</v>
       </c>
       <c r="I119" t="s">
@@ -22277,19 +22283,19 @@
       <c r="C120" s="108">
         <v>40359</v>
       </c>
-      <c r="D120" s="159">
+      <c r="D120" s="151">
         <v>1742728</v>
       </c>
-      <c r="E120" s="113">
+      <c r="E120" s="111">
         <v>15</v>
       </c>
-      <c r="F120" s="157">
+      <c r="F120" s="203">
         <v>1465453</v>
       </c>
-      <c r="G120" s="113">
+      <c r="G120" s="111">
         <v>9</v>
       </c>
-      <c r="H120" s="152">
+      <c r="H120" s="214">
         <v>185202</v>
       </c>
       <c r="I120" t="s">
@@ -22306,19 +22312,19 @@
       <c r="C121" s="108">
         <v>40359</v>
       </c>
-      <c r="D121" s="159">
+      <c r="D121" s="151">
         <v>1043633</v>
       </c>
-      <c r="E121" s="113">
+      <c r="E121" s="111">
         <v>30</v>
       </c>
-      <c r="F121" s="157">
+      <c r="F121" s="203">
         <v>1160776</v>
       </c>
-      <c r="G121" s="113">
+      <c r="G121" s="111">
         <v>24</v>
       </c>
-      <c r="H121" s="152">
+      <c r="H121" s="214">
         <v>68946</v>
       </c>
       <c r="I121" t="s">
@@ -22329,25 +22335,25 @@
       <c r="A122" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="B122" s="153" t="s">
+      <c r="B122" s="147" t="s">
         <v>217</v>
       </c>
       <c r="C122" s="108">
         <v>40724</v>
       </c>
-      <c r="D122" s="159">
+      <c r="D122" s="151">
         <v>41208</v>
       </c>
-      <c r="E122" s="113">
+      <c r="E122" s="111">
         <v>30</v>
       </c>
-      <c r="F122" s="157">
+      <c r="F122" s="203">
         <v>45146</v>
       </c>
-      <c r="G122" s="113">
+      <c r="G122" s="111">
         <v>25</v>
       </c>
-      <c r="H122" s="152">
+      <c r="H122" s="214">
         <v>2611</v>
       </c>
       <c r="I122" t="s">
@@ -22358,25 +22364,25 @@
       <c r="A123" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="B123" s="153" t="s">
+      <c r="B123" s="147" t="s">
         <v>213</v>
       </c>
       <c r="C123" s="108">
         <v>40724</v>
       </c>
-      <c r="D123" s="159">
+      <c r="D123" s="151">
         <v>-447574</v>
       </c>
-      <c r="E123" s="113">
+      <c r="E123" s="111">
         <v>15</v>
       </c>
-      <c r="F123" s="157">
+      <c r="F123" s="203">
         <v>-394904</v>
       </c>
-      <c r="G123" s="113">
+      <c r="G123" s="111">
         <v>10</v>
       </c>
-      <c r="H123" s="152">
+      <c r="H123" s="214">
         <v>-45627</v>
       </c>
       <c r="I123" t="s">
@@ -22393,19 +22399,19 @@
       <c r="C124" s="108">
         <v>40724</v>
       </c>
-      <c r="D124" s="159">
+      <c r="D124" s="151">
         <v>734993</v>
       </c>
-      <c r="E124" s="113">
+      <c r="E124" s="111">
         <v>30</v>
       </c>
-      <c r="F124" s="157">
+      <c r="F124" s="203">
         <v>805234</v>
       </c>
-      <c r="G124" s="113">
+      <c r="G124" s="111">
         <v>25</v>
       </c>
-      <c r="H124" s="152">
+      <c r="H124" s="214">
         <v>46578</v>
       </c>
       <c r="I124" t="s">
@@ -22422,19 +22428,19 @@
       <c r="C125" s="108">
         <v>41090</v>
       </c>
-      <c r="D125" s="159">
+      <c r="D125" s="151">
         <v>1311840</v>
       </c>
-      <c r="E125" s="113">
+      <c r="E125" s="111">
         <v>20</v>
       </c>
-      <c r="F125" s="157">
+      <c r="F125" s="203">
         <v>1309407</v>
       </c>
-      <c r="G125" s="113">
+      <c r="G125" s="111">
         <v>16</v>
       </c>
-      <c r="H125" s="152">
+      <c r="H125" s="214">
         <v>103687</v>
       </c>
       <c r="I125" t="s">
@@ -22451,19 +22457,19 @@
       <c r="C126" s="108">
         <v>41455</v>
       </c>
-      <c r="D126" s="159">
+      <c r="D126" s="151">
         <v>1253385</v>
       </c>
-      <c r="E126" s="113">
+      <c r="E126" s="111">
         <v>20</v>
       </c>
-      <c r="F126" s="157">
+      <c r="F126" s="203">
         <v>1256055</v>
       </c>
-      <c r="G126" s="113">
+      <c r="G126" s="111">
         <v>17</v>
       </c>
-      <c r="H126" s="152">
+      <c r="H126" s="214">
         <v>95031</v>
       </c>
       <c r="I126" t="s">
@@ -22480,19 +22486,19 @@
       <c r="C127" s="108">
         <v>41820</v>
       </c>
-      <c r="D127" s="159">
+      <c r="D127" s="151">
         <v>-2336763</v>
       </c>
-      <c r="E127" s="113">
+      <c r="E127" s="111">
         <v>20</v>
       </c>
-      <c r="F127" s="157">
+      <c r="F127" s="203">
         <v>-2343160</v>
       </c>
-      <c r="G127" s="113">
+      <c r="G127" s="111">
         <v>18</v>
       </c>
-      <c r="H127" s="152">
+      <c r="H127" s="214">
         <v>-169955</v>
       </c>
       <c r="I127" t="s">
@@ -22509,19 +22515,19 @@
       <c r="C128" s="108">
         <v>41820</v>
       </c>
-      <c r="D128" s="159">
+      <c r="D128" s="151">
         <v>-476026</v>
       </c>
-      <c r="E128" s="113">
+      <c r="E128" s="111">
         <v>25</v>
       </c>
-      <c r="F128" s="157">
+      <c r="F128" s="203">
         <v>-487503</v>
       </c>
-      <c r="G128" s="113">
+      <c r="G128" s="111">
         <v>23</v>
       </c>
-      <c r="H128" s="152">
+      <c r="H128" s="214">
         <v>-29782</v>
       </c>
       <c r="I128" t="s">
@@ -22538,19 +22544,19 @@
       <c r="C129" s="108">
         <v>42185</v>
       </c>
-      <c r="D129" s="159">
+      <c r="D129" s="151">
         <v>-2306059</v>
       </c>
-      <c r="E129" s="113">
+      <c r="E129" s="111">
         <v>20</v>
       </c>
-      <c r="F129" s="157">
+      <c r="F129" s="203">
         <v>-2312315</v>
       </c>
-      <c r="G129" s="113">
+      <c r="G129" s="111">
         <v>19</v>
       </c>
-      <c r="H129" s="152">
+      <c r="H129" s="214">
         <v>-161271</v>
       </c>
       <c r="I129" t="s">
@@ -22567,19 +22573,19 @@
       <c r="C130" s="108">
         <v>42551</v>
       </c>
-      <c r="D130" s="159">
+      <c r="D130" s="151">
         <v>-1753214</v>
       </c>
-      <c r="E130" s="113">
+      <c r="E130" s="111">
         <v>20</v>
       </c>
-      <c r="F130" s="158">
+      <c r="F130" s="208">
         <v>-1753214</v>
       </c>
-      <c r="G130" s="113">
+      <c r="G130" s="111">
         <v>20</v>
       </c>
-      <c r="H130" s="154">
+      <c r="H130" s="215">
         <v>-117893</v>
       </c>
       <c r="I130" t="s">
@@ -22656,7 +22662,7 @@
       <c r="B7">
         <v>2017</v>
       </c>
-      <c r="C7" s="157">
+      <c r="C7" s="149">
         <v>-31778122</v>
       </c>
     </row>
@@ -22664,7 +22670,7 @@
       <c r="B8">
         <v>2018</v>
       </c>
-      <c r="C8" s="157">
+      <c r="C8" s="149">
         <v>-31778122</v>
       </c>
     </row>
@@ -22672,7 +22678,7 @@
       <c r="B9">
         <v>2019</v>
       </c>
-      <c r="C9" s="157">
+      <c r="C9" s="149">
         <v>-31778122</v>
       </c>
     </row>
@@ -22680,7 +22686,7 @@
       <c r="B10">
         <v>2020</v>
       </c>
-      <c r="C10" s="157">
+      <c r="C10" s="149">
         <v>-44654689</v>
       </c>
     </row>
@@ -22688,7 +22694,7 @@
       <c r="B11">
         <v>2021</v>
       </c>
-      <c r="C11" s="157">
+      <c r="C11" s="149">
         <v>-269200210</v>
       </c>
     </row>
@@ -22696,7 +22702,7 @@
       <c r="B12">
         <v>2022</v>
       </c>
-      <c r="C12" s="158">
+      <c r="C12" s="150">
         <v>-177279127</v>
       </c>
     </row>

--- a/Data_inputs/LAFPP_PlanInfo_2016.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo_2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -2895,7 +2895,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3400,46 +3400,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -18543,7 +18537,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -18911,8 +18905,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:U130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18924,7 +18918,7 @@
     <col min="5" max="5" width="32.28515625" style="148" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" style="202" customWidth="1"/>
     <col min="7" max="7" width="32.28515625" style="148" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="209" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="207" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="15" max="19" width="14.5703125" customWidth="1"/>
   </cols>
@@ -18949,7 +18943,7 @@
       <c r="B3" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="F3" s="203"/>
+      <c r="F3" s="149"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -18978,13 +18972,13 @@
       <c r="E6" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="204" t="s">
+      <c r="F6" s="203" t="s">
         <v>208</v>
       </c>
       <c r="G6" s="109" t="s">
         <v>209</v>
       </c>
-      <c r="H6" s="210" t="s">
+      <c r="H6" s="208" t="s">
         <v>219</v>
       </c>
     </row>
@@ -19004,13 +18998,13 @@
       <c r="E7" s="114" t="s">
         <v>224</v>
       </c>
-      <c r="F7" s="205" t="s">
+      <c r="F7" s="204" t="s">
         <v>225</v>
       </c>
       <c r="G7" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="H7" s="211" t="s">
+      <c r="H7" s="209" t="s">
         <v>227</v>
       </c>
       <c r="I7" s="115" t="s">
@@ -19033,13 +19027,13 @@
       <c r="E8" s="110">
         <v>21</v>
       </c>
-      <c r="F8" s="206">
+      <c r="F8" s="205">
         <v>165691579</v>
       </c>
       <c r="G8" s="110">
         <v>21</v>
       </c>
-      <c r="H8" s="212">
+      <c r="H8" s="210">
         <v>14801171</v>
       </c>
       <c r="I8" t="s">
@@ -19062,13 +19056,13 @@
       <c r="E9" s="110">
         <v>29</v>
       </c>
-      <c r="F9" s="207">
+      <c r="F9" s="206">
         <v>-713695924</v>
       </c>
       <c r="G9" s="110">
         <v>21</v>
       </c>
-      <c r="H9" s="213">
+      <c r="H9" s="211">
         <v>-46382784</v>
       </c>
       <c r="I9" t="s">
@@ -19091,13 +19085,13 @@
       <c r="E10" s="111">
         <v>15</v>
       </c>
-      <c r="F10" s="203">
+      <c r="F10" s="149">
         <v>42345974</v>
       </c>
       <c r="G10" s="111">
         <v>8</v>
       </c>
-      <c r="H10" s="214">
+      <c r="H10" s="212">
         <v>5926343</v>
       </c>
       <c r="I10" t="s">
@@ -19120,13 +19114,13 @@
       <c r="E11" s="111">
         <v>15</v>
       </c>
-      <c r="F11" s="203">
+      <c r="F11" s="149">
         <v>177212946</v>
       </c>
       <c r="G11" s="111">
         <v>9</v>
       </c>
-      <c r="H11" s="214">
+      <c r="H11" s="212">
         <v>22395902</v>
       </c>
       <c r="I11" t="s">
@@ -19149,13 +19143,13 @@
       <c r="E12" s="111">
         <v>27</v>
       </c>
-      <c r="F12" s="203">
+      <c r="F12" s="149">
         <v>1570796</v>
       </c>
       <c r="G12" s="111">
         <v>21</v>
       </c>
-      <c r="H12" s="214">
+      <c r="H12" s="212">
         <v>102085</v>
       </c>
       <c r="I12" t="s">
@@ -19178,13 +19172,13 @@
       <c r="E13" s="111">
         <v>15</v>
       </c>
-      <c r="F13" s="203">
+      <c r="F13" s="149">
         <v>179203687</v>
       </c>
       <c r="G13" s="111">
         <v>10</v>
       </c>
-      <c r="H13" s="214">
+      <c r="H13" s="212">
         <v>20704944</v>
       </c>
       <c r="I13" t="s">
@@ -19207,13 +19201,13 @@
       <c r="E14" s="111">
         <v>26</v>
       </c>
-      <c r="F14" s="203">
+      <c r="F14" s="149">
         <v>366509424</v>
       </c>
       <c r="G14" s="111">
         <v>21</v>
       </c>
-      <c r="H14" s="214">
+      <c r="H14" s="212">
         <v>23819286</v>
       </c>
       <c r="I14" t="s">
@@ -19236,13 +19230,13 @@
       <c r="E15" s="111">
         <v>20</v>
       </c>
-      <c r="F15" s="203">
+      <c r="F15" s="149">
         <v>238011048</v>
       </c>
       <c r="G15" s="111">
         <v>16</v>
       </c>
-      <c r="H15" s="214">
+      <c r="H15" s="212">
         <v>18847200</v>
       </c>
       <c r="I15" t="s">
@@ -19265,13 +19259,13 @@
       <c r="E16" s="111">
         <v>20</v>
       </c>
-      <c r="F16" s="203">
+      <c r="F16" s="149">
         <v>74104788</v>
       </c>
       <c r="G16" s="111">
         <v>17</v>
       </c>
-      <c r="H16" s="214">
+      <c r="H16" s="212">
         <v>5606652</v>
       </c>
       <c r="I16" t="s">
@@ -19294,13 +19288,13 @@
       <c r="E17" s="111">
         <v>20</v>
       </c>
-      <c r="F17" s="203">
+      <c r="F17" s="149">
         <v>-213513903</v>
       </c>
       <c r="G17" s="111">
         <v>18</v>
       </c>
-      <c r="H17" s="214">
+      <c r="H17" s="212">
         <v>-15486648</v>
       </c>
       <c r="I17" t="s">
@@ -19323,13 +19317,13 @@
       <c r="E18" s="111">
         <v>25</v>
       </c>
-      <c r="F18" s="203">
+      <c r="F18" s="149">
         <v>-66723384</v>
       </c>
       <c r="G18" s="111">
         <v>23</v>
       </c>
-      <c r="H18" s="214">
+      <c r="H18" s="212">
         <v>-4076232</v>
       </c>
       <c r="I18" t="s">
@@ -19352,13 +19346,13 @@
       <c r="E19" s="111">
         <v>20</v>
       </c>
-      <c r="F19" s="203">
+      <c r="F19" s="149">
         <v>-289698031</v>
       </c>
       <c r="G19" s="111">
         <v>19</v>
       </c>
-      <c r="H19" s="214">
+      <c r="H19" s="212">
         <v>-20204787</v>
       </c>
       <c r="I19" t="s">
@@ -19381,13 +19375,13 @@
       <c r="E20" s="111">
         <v>20</v>
       </c>
-      <c r="F20" s="208">
+      <c r="F20" s="150">
         <v>-82781971</v>
       </c>
       <c r="G20" s="111">
         <v>20</v>
       </c>
-      <c r="H20" s="215">
+      <c r="H20" s="213">
         <v>-5566571</v>
       </c>
       <c r="I20" t="s">
@@ -19410,13 +19404,13 @@
       <c r="E21" s="110">
         <v>14</v>
       </c>
-      <c r="F21" s="207">
+      <c r="F21" s="206">
         <v>-6476269</v>
       </c>
       <c r="G21" s="110">
         <v>3</v>
       </c>
-      <c r="H21" s="213">
+      <c r="H21" s="211">
         <v>-2230592</v>
       </c>
       <c r="I21" t="s">
@@ -19439,13 +19433,13 @@
       <c r="E22" s="111">
         <v>15</v>
       </c>
-      <c r="F22" s="203">
+      <c r="F22" s="149">
         <v>140887</v>
       </c>
       <c r="G22" s="111">
         <v>4</v>
       </c>
-      <c r="H22" s="214">
+      <c r="H22" s="212">
         <v>36989</v>
       </c>
       <c r="I22" t="s">
@@ -19468,13 +19462,13 @@
       <c r="E23" s="111">
         <v>15</v>
       </c>
-      <c r="F23" s="203">
+      <c r="F23" s="149">
         <v>-3164910</v>
       </c>
       <c r="G23" s="111">
         <v>4</v>
       </c>
-      <c r="H23" s="214">
+      <c r="H23" s="212">
         <v>-830934</v>
       </c>
       <c r="I23" t="s">
@@ -19497,13 +19491,13 @@
       <c r="E24" s="111">
         <v>17</v>
       </c>
-      <c r="F24" s="203">
+      <c r="F24" s="149">
         <v>1633633</v>
       </c>
       <c r="G24" s="111">
         <v>6</v>
       </c>
-      <c r="H24" s="214">
+      <c r="H24" s="212">
         <v>295289</v>
       </c>
       <c r="I24" t="s">
@@ -19526,13 +19520,13 @@
       <c r="E25" s="111">
         <v>20</v>
       </c>
-      <c r="F25" s="203">
+      <c r="F25" s="149">
         <v>-17196117</v>
       </c>
       <c r="G25" s="111">
         <v>9</v>
       </c>
-      <c r="H25" s="214">
+      <c r="H25" s="212">
         <v>-2173219</v>
       </c>
       <c r="I25" t="s">
@@ -19555,13 +19549,13 @@
       <c r="E26" s="111">
         <v>21</v>
       </c>
-      <c r="F26" s="203">
+      <c r="F26" s="149">
         <v>2532605</v>
       </c>
       <c r="G26" s="111">
         <v>10</v>
       </c>
-      <c r="H26" s="214">
+      <c r="H26" s="212">
         <v>292614</v>
       </c>
       <c r="I26" t="s">
@@ -19584,13 +19578,13 @@
       <c r="E27" s="111">
         <v>21</v>
       </c>
-      <c r="F27" s="203">
+      <c r="F27" s="149">
         <v>-16371495</v>
       </c>
       <c r="G27" s="111">
         <v>10</v>
       </c>
-      <c r="H27" s="214">
+      <c r="H27" s="212">
         <v>-1891540</v>
       </c>
       <c r="I27" t="s">
@@ -19613,13 +19607,13 @@
       <c r="E28" s="111">
         <v>23</v>
       </c>
-      <c r="F28" s="203">
+      <c r="F28" s="149">
         <v>5387707</v>
       </c>
       <c r="G28" s="111">
         <v>12</v>
       </c>
-      <c r="H28" s="214">
+      <c r="H28" s="212">
         <v>535124</v>
       </c>
       <c r="I28" t="s">
@@ -19642,13 +19636,13 @@
       <c r="E29" s="111">
         <v>23</v>
       </c>
-      <c r="F29" s="203">
+      <c r="F29" s="149">
         <v>9061528</v>
       </c>
       <c r="G29" s="111">
         <v>12</v>
       </c>
-      <c r="H29" s="214">
+      <c r="H29" s="212">
         <v>900020</v>
       </c>
       <c r="I29" t="s">
@@ -19671,13 +19665,13 @@
       <c r="E30" s="111">
         <v>25</v>
       </c>
-      <c r="F30" s="203">
+      <c r="F30" s="149">
         <v>994721</v>
       </c>
       <c r="G30" s="111">
         <v>14</v>
       </c>
-      <c r="H30" s="214">
+      <c r="H30" s="212">
         <v>87328</v>
       </c>
       <c r="I30" t="s">
@@ -19700,13 +19694,13 @@
       <c r="E31" s="111">
         <v>11</v>
       </c>
-      <c r="F31" s="203">
+      <c r="F31" s="149">
         <v>0</v>
       </c>
       <c r="G31" s="111">
         <v>10</v>
       </c>
-      <c r="H31" s="214">
+      <c r="H31" s="212">
         <v>0</v>
       </c>
       <c r="I31" t="s">
@@ -19729,13 +19723,13 @@
       <c r="E32" s="111">
         <v>26</v>
       </c>
-      <c r="F32" s="203">
+      <c r="F32" s="149">
         <v>-31415090</v>
       </c>
       <c r="G32" s="111">
         <v>15</v>
       </c>
-      <c r="H32" s="214">
+      <c r="H32" s="212">
         <v>-2613612</v>
       </c>
       <c r="I32" t="s">
@@ -19758,13 +19752,13 @@
       <c r="E33" s="111">
         <v>12</v>
       </c>
-      <c r="F33" s="203">
+      <c r="F33" s="149">
         <v>17377556</v>
       </c>
       <c r="G33" s="111">
         <v>1</v>
       </c>
-      <c r="H33" s="214">
+      <c r="H33" s="212">
         <v>17377556</v>
       </c>
       <c r="I33" t="s">
@@ -19787,13 +19781,13 @@
       <c r="E34" s="111">
         <v>13</v>
       </c>
-      <c r="F34" s="203">
+      <c r="F34" s="149">
         <v>44185963</v>
       </c>
       <c r="G34" s="111">
         <v>2</v>
       </c>
-      <c r="H34" s="214">
+      <c r="H34" s="212">
         <v>22458586</v>
       </c>
       <c r="I34" t="s">
@@ -19816,13 +19810,13 @@
       <c r="E35" s="111">
         <v>14</v>
       </c>
-      <c r="F35" s="203">
+      <c r="F35" s="149">
         <v>4095624</v>
       </c>
       <c r="G35" s="111">
         <v>3</v>
       </c>
-      <c r="H35" s="214">
+      <c r="H35" s="212">
         <v>1410637</v>
       </c>
       <c r="I35" t="s">
@@ -19845,13 +19839,13 @@
       <c r="E36" s="111">
         <v>29</v>
       </c>
-      <c r="F36" s="203">
+      <c r="F36" s="149">
         <v>-10055415</v>
       </c>
       <c r="G36" s="111">
         <v>18</v>
       </c>
-      <c r="H36" s="214">
+      <c r="H36" s="212">
         <v>-729342</v>
       </c>
       <c r="I36" t="s">
@@ -19874,13 +19868,13 @@
       <c r="E37" s="111">
         <v>15</v>
       </c>
-      <c r="F37" s="203">
+      <c r="F37" s="149">
         <v>10886689</v>
       </c>
       <c r="G37" s="111">
         <v>4</v>
       </c>
-      <c r="H37" s="214">
+      <c r="H37" s="212">
         <v>2858256</v>
       </c>
       <c r="I37" t="s">
@@ -19903,13 +19897,13 @@
       <c r="E38" s="111">
         <v>30</v>
       </c>
-      <c r="F38" s="203">
+      <c r="F38" s="149">
         <v>32113516</v>
       </c>
       <c r="G38" s="111">
         <v>19</v>
       </c>
-      <c r="H38" s="214">
+      <c r="H38" s="212">
         <v>2239735</v>
       </c>
       <c r="I38" t="s">
@@ -19932,13 +19926,13 @@
       <c r="E39" s="111">
         <v>15</v>
       </c>
-      <c r="F39" s="203">
+      <c r="F39" s="149">
         <v>9681030</v>
       </c>
       <c r="G39" s="111">
         <v>5</v>
       </c>
-      <c r="H39" s="214">
+      <c r="H39" s="212">
         <v>2066456</v>
       </c>
       <c r="I39" t="s">
@@ -19961,13 +19955,13 @@
       <c r="E40" s="111">
         <v>30</v>
       </c>
-      <c r="F40" s="203">
+      <c r="F40" s="149">
         <v>34152022</v>
       </c>
       <c r="G40" s="111">
         <v>20</v>
       </c>
-      <c r="H40" s="214">
+      <c r="H40" s="212">
         <v>2296511</v>
       </c>
       <c r="I40" t="s">
@@ -19990,13 +19984,13 @@
       <c r="E41" s="111">
         <v>21</v>
       </c>
-      <c r="F41" s="203">
+      <c r="F41" s="149">
         <v>-19876488</v>
       </c>
       <c r="G41" s="111">
         <v>12</v>
       </c>
-      <c r="H41" s="214">
+      <c r="H41" s="212">
         <v>-1974196</v>
       </c>
       <c r="I41" t="s">
@@ -20019,13 +20013,13 @@
       <c r="E42" s="111">
         <v>30</v>
       </c>
-      <c r="F42" s="203">
+      <c r="F42" s="149">
         <v>-5803736</v>
       </c>
       <c r="G42" s="111">
         <v>21</v>
       </c>
-      <c r="H42" s="214">
+      <c r="H42" s="212">
         <v>-377182</v>
       </c>
       <c r="I42" t="s">
@@ -20048,13 +20042,13 @@
       <c r="E43" s="110">
         <v>17</v>
       </c>
-      <c r="F43" s="207">
+      <c r="F43" s="206">
         <v>-15230411</v>
       </c>
       <c r="G43" s="110">
         <v>9</v>
       </c>
-      <c r="H43" s="213">
+      <c r="H43" s="211">
         <v>-1924796</v>
       </c>
       <c r="I43" t="s">
@@ -20077,13 +20071,13 @@
       <c r="E44" s="111">
         <v>30</v>
       </c>
-      <c r="F44" s="203">
+      <c r="F44" s="149">
         <v>9178030</v>
       </c>
       <c r="G44" s="111">
         <v>22</v>
       </c>
-      <c r="H44" s="214">
+      <c r="H44" s="212">
         <v>577739</v>
       </c>
       <c r="I44" t="s">
@@ -20106,13 +20100,13 @@
       <c r="E45" s="111">
         <v>15</v>
       </c>
-      <c r="F45" s="203">
+      <c r="F45" s="149">
         <v>8048938</v>
       </c>
       <c r="G45" s="111">
         <v>8</v>
       </c>
-      <c r="H45" s="214">
+      <c r="H45" s="212">
         <v>1126453</v>
       </c>
       <c r="I45" t="s">
@@ -20135,13 +20129,13 @@
       <c r="E46" s="111">
         <v>15</v>
       </c>
-      <c r="F46" s="203">
+      <c r="F46" s="149">
         <v>1803321</v>
       </c>
       <c r="G46" s="111">
         <v>9</v>
       </c>
-      <c r="H46" s="214">
+      <c r="H46" s="212">
         <v>227901</v>
       </c>
       <c r="I46" t="s">
@@ -20164,13 +20158,13 @@
       <c r="E47" s="111">
         <v>30</v>
       </c>
-      <c r="F47" s="203">
+      <c r="F47" s="149">
         <v>28915692</v>
       </c>
       <c r="G47" s="111">
         <v>24</v>
       </c>
-      <c r="H47" s="214">
+      <c r="H47" s="212">
         <v>1717497</v>
       </c>
       <c r="I47" t="s">
@@ -20193,13 +20187,13 @@
       <c r="E48" s="111">
         <v>30</v>
       </c>
-      <c r="F48" s="203">
+      <c r="F48" s="149">
         <v>-19769</v>
       </c>
       <c r="G48" s="111">
         <v>25</v>
       </c>
-      <c r="H48" s="214">
+      <c r="H48" s="212">
         <v>-1144</v>
       </c>
       <c r="I48" t="s">
@@ -20222,13 +20216,13 @@
       <c r="E49" s="111">
         <v>15</v>
       </c>
-      <c r="F49" s="203">
+      <c r="F49" s="149">
         <v>966540</v>
       </c>
       <c r="G49" s="111">
         <v>10</v>
       </c>
-      <c r="H49" s="214">
+      <c r="H49" s="212">
         <v>111673</v>
       </c>
       <c r="I49" t="s">
@@ -20251,13 +20245,13 @@
       <c r="E50" s="111">
         <v>30</v>
       </c>
-      <c r="F50" s="203">
+      <c r="F50" s="149">
         <v>28039833</v>
       </c>
       <c r="G50" s="111">
         <v>25</v>
       </c>
-      <c r="H50" s="214">
+      <c r="H50" s="212">
         <v>1621943</v>
       </c>
       <c r="I50" t="s">
@@ -20280,13 +20274,13 @@
       <c r="E51" s="111">
         <v>20</v>
       </c>
-      <c r="F51" s="203">
+      <c r="F51" s="149">
         <v>10962823</v>
       </c>
       <c r="G51" s="111">
         <v>16</v>
       </c>
-      <c r="H51" s="214">
+      <c r="H51" s="212">
         <v>868105</v>
       </c>
       <c r="I51" t="s">
@@ -20309,13 +20303,13 @@
       <c r="E52" s="111">
         <v>20</v>
       </c>
-      <c r="F52" s="203">
+      <c r="F52" s="149">
         <v>6024525</v>
       </c>
       <c r="G52" s="111">
         <v>17</v>
       </c>
-      <c r="H52" s="214">
+      <c r="H52" s="212">
         <v>455806</v>
       </c>
       <c r="I52" t="s">
@@ -20338,13 +20332,13 @@
       <c r="E53" s="111">
         <v>20</v>
       </c>
-      <c r="F53" s="203">
+      <c r="F53" s="149">
         <v>-15653713</v>
       </c>
       <c r="G53" s="111">
         <v>18</v>
       </c>
-      <c r="H53" s="214">
+      <c r="H53" s="212">
         <v>-1135399</v>
       </c>
       <c r="I53" t="s">
@@ -20367,13 +20361,13 @@
       <c r="E54" s="111">
         <v>25</v>
       </c>
-      <c r="F54" s="203">
+      <c r="F54" s="149">
         <v>-3613993</v>
       </c>
       <c r="G54" s="111">
         <v>23</v>
       </c>
-      <c r="H54" s="214">
+      <c r="H54" s="212">
         <v>-220784</v>
       </c>
       <c r="I54" t="s">
@@ -20396,13 +20390,13 @@
       <c r="E55" s="111">
         <v>20</v>
       </c>
-      <c r="F55" s="203">
+      <c r="F55" s="149">
         <v>-46486838</v>
       </c>
       <c r="G55" s="111">
         <v>19</v>
       </c>
-      <c r="H55" s="214">
+      <c r="H55" s="212">
         <v>-3242192</v>
       </c>
       <c r="I55" t="s">
@@ -20425,13 +20419,13 @@
       <c r="E56" s="111">
         <v>20</v>
       </c>
-      <c r="F56" s="208">
+      <c r="F56" s="150">
         <v>-18410183</v>
       </c>
       <c r="G56" s="111">
         <v>20</v>
       </c>
-      <c r="H56" s="215">
+      <c r="H56" s="213">
         <v>-1237970</v>
       </c>
       <c r="I56" t="s">
@@ -20454,13 +20448,13 @@
       <c r="E57" s="110">
         <v>14</v>
       </c>
-      <c r="F57" s="207">
+      <c r="F57" s="206">
         <v>-2538327</v>
       </c>
       <c r="G57" s="110">
         <v>3</v>
       </c>
-      <c r="H57" s="213">
+      <c r="H57" s="211">
         <v>-874264</v>
       </c>
       <c r="I57" t="s">
@@ -20483,13 +20477,13 @@
       <c r="E58" s="111">
         <v>15</v>
       </c>
-      <c r="F58" s="203">
+      <c r="F58" s="149">
         <v>55221</v>
       </c>
       <c r="G58" s="111">
         <v>4</v>
       </c>
-      <c r="H58" s="214">
+      <c r="H58" s="212">
         <v>14498</v>
       </c>
       <c r="I58" t="s">
@@ -20512,13 +20506,13 @@
       <c r="E59" s="111">
         <v>15</v>
       </c>
-      <c r="F59" s="203">
+      <c r="F59" s="149">
         <v>-1240463</v>
       </c>
       <c r="G59" s="111">
         <v>4</v>
       </c>
-      <c r="H59" s="214">
+      <c r="H59" s="212">
         <v>-325679</v>
       </c>
       <c r="I59" t="s">
@@ -20541,13 +20535,13 @@
       <c r="E60" s="111">
         <v>17</v>
       </c>
-      <c r="F60" s="203">
+      <c r="F60" s="149">
         <v>640290</v>
       </c>
       <c r="G60" s="111">
         <v>6</v>
       </c>
-      <c r="H60" s="214">
+      <c r="H60" s="212">
         <v>115736</v>
       </c>
       <c r="I60" t="s">
@@ -20570,13 +20564,13 @@
       <c r="E61" s="111">
         <v>20</v>
       </c>
-      <c r="F61" s="203">
+      <c r="F61" s="149">
         <v>-6739891</v>
       </c>
       <c r="G61" s="111">
         <v>9</v>
       </c>
-      <c r="H61" s="214">
+      <c r="H61" s="212">
         <v>-851777</v>
       </c>
       <c r="I61" t="s">
@@ -20599,13 +20593,13 @@
       <c r="E62" s="111">
         <v>21</v>
       </c>
-      <c r="F62" s="203">
+      <c r="F62" s="149">
         <v>992638</v>
       </c>
       <c r="G62" s="111">
         <v>10</v>
       </c>
-      <c r="H62" s="214">
+      <c r="H62" s="212">
         <v>114688</v>
       </c>
       <c r="I62" t="s">
@@ -20628,13 +20622,13 @@
       <c r="E63" s="111">
         <v>21</v>
       </c>
-      <c r="F63" s="203">
+      <c r="F63" s="149">
         <v>-6416689</v>
       </c>
       <c r="G63" s="111">
         <v>10</v>
       </c>
-      <c r="H63" s="214">
+      <c r="H63" s="212">
         <v>-741375</v>
       </c>
       <c r="I63" t="s">
@@ -20657,13 +20651,13 @@
       <c r="E64" s="111">
         <v>23</v>
       </c>
-      <c r="F64" s="203">
+      <c r="F64" s="149">
         <v>2111673</v>
       </c>
       <c r="G64" s="111">
         <v>12</v>
       </c>
-      <c r="H64" s="214">
+      <c r="H64" s="212">
         <v>209738</v>
       </c>
       <c r="I64" t="s">
@@ -20686,13 +20680,13 @@
       <c r="E65" s="111">
         <v>23</v>
       </c>
-      <c r="F65" s="203">
+      <c r="F65" s="149">
         <v>3551602</v>
       </c>
       <c r="G65" s="111">
         <v>12</v>
       </c>
-      <c r="H65" s="214">
+      <c r="H65" s="212">
         <v>352756</v>
       </c>
       <c r="I65" t="s">
@@ -20715,13 +20709,13 @@
       <c r="E66" s="111">
         <v>25</v>
       </c>
-      <c r="F66" s="203">
+      <c r="F66" s="149">
         <v>387604</v>
       </c>
       <c r="G66" s="111">
         <v>14</v>
       </c>
-      <c r="H66" s="214">
+      <c r="H66" s="212">
         <v>34028</v>
       </c>
       <c r="I66" t="s">
@@ -20744,13 +20738,13 @@
       <c r="E67" s="111">
         <v>11</v>
       </c>
-      <c r="F67" s="203">
+      <c r="F67" s="149">
         <v>0</v>
       </c>
       <c r="G67" s="111">
         <v>10</v>
       </c>
-      <c r="H67" s="214">
+      <c r="H67" s="212">
         <v>0</v>
       </c>
       <c r="I67" t="s">
@@ -20773,13 +20767,13 @@
       <c r="E68" s="111">
         <v>26</v>
       </c>
-      <c r="F68" s="203">
+      <c r="F68" s="149">
         <v>-5258083</v>
       </c>
       <c r="G68" s="111">
         <v>15</v>
       </c>
-      <c r="H68" s="214">
+      <c r="H68" s="212">
         <v>-437452</v>
       </c>
       <c r="I68" t="s">
@@ -20802,13 +20796,13 @@
       <c r="E69" s="111">
         <v>12</v>
       </c>
-      <c r="F69" s="203">
+      <c r="F69" s="149">
         <v>2927932</v>
       </c>
       <c r="G69" s="111">
         <v>1</v>
       </c>
-      <c r="H69" s="214">
+      <c r="H69" s="212">
         <v>2927932</v>
       </c>
       <c r="I69" t="s">
@@ -20831,13 +20825,13 @@
       <c r="E70" s="111">
         <v>13</v>
       </c>
-      <c r="F70" s="203">
+      <c r="F70" s="149">
         <v>17388245</v>
       </c>
       <c r="G70" s="111">
         <v>2</v>
       </c>
-      <c r="H70" s="214">
+      <c r="H70" s="212">
         <v>8837997</v>
       </c>
       <c r="I70" t="s">
@@ -20860,13 +20854,13 @@
       <c r="E71" s="111">
         <v>14</v>
       </c>
-      <c r="F71" s="203">
+      <c r="F71" s="149">
         <v>4113015</v>
       </c>
       <c r="G71" s="111">
         <v>3</v>
       </c>
-      <c r="H71" s="214">
+      <c r="H71" s="212">
         <v>1416627</v>
       </c>
       <c r="I71" t="s">
@@ -20889,13 +20883,13 @@
       <c r="E72" s="111">
         <v>29</v>
       </c>
-      <c r="F72" s="203">
+      <c r="F72" s="149">
         <v>-6035260</v>
       </c>
       <c r="G72" s="111">
         <v>18</v>
       </c>
-      <c r="H72" s="214">
+      <c r="H72" s="212">
         <v>-437751</v>
       </c>
       <c r="I72" t="s">
@@ -20918,13 +20912,13 @@
       <c r="E73" s="111">
         <v>15</v>
       </c>
-      <c r="F73" s="203">
+      <c r="F73" s="149">
         <v>6673545</v>
       </c>
       <c r="G73" s="111">
         <v>4</v>
       </c>
-      <c r="H73" s="214">
+      <c r="H73" s="212">
         <v>1752112</v>
       </c>
       <c r="I73" t="s">
@@ -20947,13 +20941,13 @@
       <c r="E74" s="111">
         <v>30</v>
       </c>
-      <c r="F74" s="203">
+      <c r="F74" s="149">
         <v>16535635</v>
       </c>
       <c r="G74" s="111">
         <v>19</v>
       </c>
-      <c r="H74" s="214">
+      <c r="H74" s="212">
         <v>1153266</v>
       </c>
       <c r="I74" t="s">
@@ -20976,13 +20970,13 @@
       <c r="E75" s="111">
         <v>15</v>
       </c>
-      <c r="F75" s="203">
+      <c r="F75" s="149">
         <v>3579328</v>
       </c>
       <c r="G75" s="111">
         <v>5</v>
       </c>
-      <c r="H75" s="214">
+      <c r="H75" s="212">
         <v>764022</v>
       </c>
       <c r="I75" t="s">
@@ -21005,13 +20999,13 @@
       <c r="E76" s="111">
         <v>30</v>
       </c>
-      <c r="F76" s="203">
+      <c r="F76" s="149">
         <v>16949930</v>
       </c>
       <c r="G76" s="111">
         <v>20</v>
       </c>
-      <c r="H76" s="214">
+      <c r="H76" s="212">
         <v>1139777</v>
       </c>
       <c r="I76" t="s">
@@ -21034,13 +21028,13 @@
       <c r="E77" s="111">
         <v>21</v>
       </c>
-      <c r="F77" s="203">
+      <c r="F77" s="149">
         <v>-8475147</v>
       </c>
       <c r="G77" s="111">
         <v>12</v>
       </c>
-      <c r="H77" s="214">
+      <c r="H77" s="212">
         <v>-841779</v>
       </c>
       <c r="I77" t="s">
@@ -21063,13 +21057,13 @@
       <c r="E78" s="111">
         <v>30</v>
       </c>
-      <c r="F78" s="203">
+      <c r="F78" s="149">
         <v>-3481331</v>
       </c>
       <c r="G78" s="111">
         <v>21</v>
       </c>
-      <c r="H78" s="214">
+      <c r="H78" s="212">
         <v>-226250</v>
       </c>
       <c r="I78" t="s">
@@ -21092,13 +21086,13 @@
       <c r="E79" s="110">
         <v>17</v>
       </c>
-      <c r="F79" s="207">
+      <c r="F79" s="206">
         <v>-3688038</v>
       </c>
       <c r="G79" s="110">
         <v>9</v>
       </c>
-      <c r="H79" s="213">
+      <c r="H79" s="211">
         <v>-466089</v>
       </c>
       <c r="I79" t="s">
@@ -21121,13 +21115,13 @@
       <c r="E80" s="111">
         <v>30</v>
       </c>
-      <c r="F80" s="203">
+      <c r="F80" s="149">
         <v>12108018</v>
       </c>
       <c r="G80" s="111">
         <v>22</v>
       </c>
-      <c r="H80" s="214">
+      <c r="H80" s="212">
         <v>762176</v>
       </c>
       <c r="I80" t="s">
@@ -21150,13 +21144,13 @@
       <c r="E81" s="111">
         <v>15</v>
       </c>
-      <c r="F81" s="203">
+      <c r="F81" s="149">
         <v>9448646</v>
       </c>
       <c r="G81" s="111">
         <v>8</v>
       </c>
-      <c r="H81" s="214">
+      <c r="H81" s="212">
         <v>1322343</v>
       </c>
       <c r="I81" t="s">
@@ -21179,13 +21173,13 @@
       <c r="E82" s="111">
         <v>15</v>
       </c>
-      <c r="F82" s="203">
+      <c r="F82" s="149">
         <v>4031299</v>
       </c>
       <c r="G82" s="111">
         <v>9</v>
       </c>
-      <c r="H82" s="214">
+      <c r="H82" s="212">
         <v>509469</v>
       </c>
       <c r="I82" t="s">
@@ -21208,13 +21202,13 @@
       <c r="E83" s="111">
         <v>30</v>
       </c>
-      <c r="F83" s="203">
+      <c r="F83" s="149">
         <v>14401539</v>
       </c>
       <c r="G83" s="111">
         <v>24</v>
       </c>
-      <c r="H83" s="214">
+      <c r="H83" s="212">
         <v>855404</v>
       </c>
       <c r="I83" t="s">
@@ -21237,13 +21231,13 @@
       <c r="E84" s="111">
         <v>30</v>
       </c>
-      <c r="F84" s="203">
+      <c r="F84" s="149">
         <v>1624871</v>
       </c>
       <c r="G84" s="111">
         <v>25</v>
       </c>
-      <c r="H84" s="214">
+      <c r="H84" s="212">
         <v>93989</v>
       </c>
       <c r="I84" t="s">
@@ -21266,13 +21260,13 @@
       <c r="E85" s="111">
         <v>15</v>
       </c>
-      <c r="F85" s="203">
+      <c r="F85" s="149">
         <v>5177419</v>
       </c>
       <c r="G85" s="111">
         <v>10</v>
       </c>
-      <c r="H85" s="214">
+      <c r="H85" s="212">
         <v>598192</v>
       </c>
       <c r="I85" t="s">
@@ -21295,13 +21289,13 @@
       <c r="E86" s="111">
         <v>30</v>
       </c>
-      <c r="F86" s="203">
+      <c r="F86" s="149">
         <v>13972590</v>
       </c>
       <c r="G86" s="111">
         <v>25</v>
       </c>
-      <c r="H86" s="214">
+      <c r="H86" s="212">
         <v>808234</v>
       </c>
       <c r="I86" t="s">
@@ -21324,13 +21318,13 @@
       <c r="E87" s="111">
         <v>20</v>
       </c>
-      <c r="F87" s="203">
+      <c r="F87" s="149">
         <v>9360043</v>
       </c>
       <c r="G87" s="111">
         <v>16</v>
       </c>
-      <c r="H87" s="214">
+      <c r="H87" s="212">
         <v>741187</v>
       </c>
       <c r="I87" t="s">
@@ -21353,13 +21347,13 @@
       <c r="E88" s="111">
         <v>20</v>
       </c>
-      <c r="F88" s="203">
+      <c r="F88" s="149">
         <v>6639492</v>
       </c>
       <c r="G88" s="111">
         <v>17</v>
       </c>
-      <c r="H88" s="214">
+      <c r="H88" s="212">
         <v>502334</v>
       </c>
       <c r="I88" t="s">
@@ -21382,13 +21376,13 @@
       <c r="E89" s="111">
         <v>20</v>
       </c>
-      <c r="F89" s="203">
+      <c r="F89" s="149">
         <v>-11091155</v>
       </c>
       <c r="G89" s="111">
         <v>18</v>
       </c>
-      <c r="H89" s="214">
+      <c r="H89" s="212">
         <v>-804467</v>
       </c>
       <c r="I89" t="s">
@@ -21411,13 +21405,13 @@
       <c r="E90" s="111">
         <v>25</v>
       </c>
-      <c r="F90" s="203">
+      <c r="F90" s="149">
         <v>10228993</v>
       </c>
       <c r="G90" s="111">
         <v>23</v>
       </c>
-      <c r="H90" s="214">
+      <c r="H90" s="212">
         <v>624905</v>
       </c>
       <c r="I90" t="s">
@@ -21440,13 +21434,13 @@
       <c r="E91" s="111">
         <v>20</v>
       </c>
-      <c r="F91" s="203">
+      <c r="F91" s="149">
         <v>-16685388</v>
       </c>
       <c r="G91" s="111">
         <v>19</v>
       </c>
-      <c r="H91" s="214">
+      <c r="H91" s="212">
         <v>-1163711</v>
       </c>
       <c r="I91" t="s">
@@ -21469,13 +21463,13 @@
       <c r="E92" s="111">
         <v>20</v>
       </c>
-      <c r="F92" s="208">
+      <c r="F92" s="150">
         <v>-3718134</v>
       </c>
       <c r="G92" s="111">
         <v>20</v>
       </c>
-      <c r="H92" s="215">
+      <c r="H92" s="213">
         <v>-250021</v>
       </c>
       <c r="I92" t="s">
@@ -21498,13 +21492,13 @@
       <c r="E93" s="110">
         <v>27</v>
       </c>
-      <c r="F93" s="207">
+      <c r="F93" s="206">
         <v>-174249137</v>
       </c>
       <c r="G93" s="110">
         <v>16</v>
       </c>
-      <c r="H93" s="213">
+      <c r="H93" s="211">
         <v>-13798134</v>
       </c>
       <c r="I93" t="s">
@@ -21527,13 +21521,13 @@
       <c r="E94" s="111">
         <v>13</v>
       </c>
-      <c r="F94" s="203">
+      <c r="F94" s="149">
         <v>-91604351</v>
       </c>
       <c r="G94" s="111">
         <v>2</v>
       </c>
-      <c r="H94" s="214">
+      <c r="H94" s="212">
         <v>-46560131</v>
       </c>
       <c r="I94" t="s">
@@ -21556,13 +21550,13 @@
       <c r="E95" s="111">
         <v>14</v>
       </c>
-      <c r="F95" s="203">
+      <c r="F95" s="149">
         <v>43167419</v>
       </c>
       <c r="G95" s="111">
         <v>3</v>
       </c>
-      <c r="H95" s="214">
+      <c r="H95" s="212">
         <v>14867959</v>
       </c>
       <c r="I95" t="s">
@@ -21585,13 +21579,13 @@
       <c r="E96" s="111">
         <v>29</v>
       </c>
-      <c r="F96" s="203">
+      <c r="F96" s="149">
         <v>-279914118</v>
       </c>
       <c r="G96" s="111">
         <v>18</v>
       </c>
-      <c r="H96" s="214">
+      <c r="H96" s="212">
         <v>-20302806</v>
       </c>
       <c r="I96" t="s">
@@ -21614,13 +21608,13 @@
       <c r="E97" s="111">
         <v>15</v>
       </c>
-      <c r="F97" s="203">
+      <c r="F97" s="149">
         <v>121864580</v>
       </c>
       <c r="G97" s="111">
         <v>4</v>
       </c>
-      <c r="H97" s="214">
+      <c r="H97" s="212">
         <v>31995055</v>
       </c>
       <c r="I97" t="s">
@@ -21643,13 +21637,13 @@
       <c r="E98" s="111">
         <v>30</v>
       </c>
-      <c r="F98" s="203">
+      <c r="F98" s="149">
         <v>496082720</v>
       </c>
       <c r="G98" s="111">
         <v>19</v>
       </c>
-      <c r="H98" s="214">
+      <c r="H98" s="212">
         <v>34598943</v>
       </c>
       <c r="I98" t="s">
@@ -21672,13 +21666,13 @@
       <c r="E99" s="111">
         <v>15</v>
       </c>
-      <c r="F99" s="203">
+      <c r="F99" s="149">
         <v>37794660</v>
       </c>
       <c r="G99" s="111">
         <v>5</v>
       </c>
-      <c r="H99" s="214">
+      <c r="H99" s="212">
         <v>8067426</v>
       </c>
       <c r="I99" t="s">
@@ -21701,13 +21695,13 @@
       <c r="E100" s="111">
         <v>30</v>
       </c>
-      <c r="F100" s="203">
+      <c r="F100" s="149">
         <v>339176843</v>
       </c>
       <c r="G100" s="111">
         <v>20</v>
       </c>
-      <c r="H100" s="214">
+      <c r="H100" s="212">
         <v>22807527</v>
       </c>
       <c r="I100" t="s">
@@ -21730,13 +21724,13 @@
       <c r="E101" s="111">
         <v>21</v>
       </c>
-      <c r="F101" s="203">
+      <c r="F101" s="149">
         <v>-190821407</v>
       </c>
       <c r="G101" s="111">
         <v>12</v>
       </c>
-      <c r="H101" s="214">
+      <c r="H101" s="212">
         <v>-18952989</v>
       </c>
       <c r="I101" t="s">
@@ -21759,13 +21753,13 @@
       <c r="E102" s="111">
         <v>30</v>
       </c>
-      <c r="F102" s="203">
+      <c r="F102" s="149">
         <v>-82263181</v>
       </c>
       <c r="G102" s="111">
         <v>21</v>
       </c>
-      <c r="H102" s="214">
+      <c r="H102" s="212">
         <v>-5346248</v>
       </c>
       <c r="I102" t="s">
@@ -21788,13 +21782,13 @@
       <c r="E103" s="111">
         <v>17</v>
       </c>
-      <c r="F103" s="203">
+      <c r="F103" s="149">
         <v>-66139156</v>
       </c>
       <c r="G103" s="111">
         <v>9</v>
       </c>
-      <c r="H103" s="214">
+      <c r="H103" s="212">
         <v>-8358566</v>
       </c>
       <c r="I103" t="s">
@@ -21817,13 +21811,13 @@
       <c r="E104" s="111">
         <v>30</v>
       </c>
-      <c r="F104" s="203">
+      <c r="F104" s="149">
         <v>357171721</v>
       </c>
       <c r="G104" s="111">
         <v>22</v>
       </c>
-      <c r="H104" s="214">
+      <c r="H104" s="212">
         <v>22483269</v>
       </c>
       <c r="I104" t="s">
@@ -21846,13 +21840,13 @@
       <c r="E105" s="111">
         <v>15</v>
       </c>
-      <c r="F105" s="203">
+      <c r="F105" s="149">
         <v>283076049</v>
       </c>
       <c r="G105" s="111">
         <v>8</v>
       </c>
-      <c r="H105" s="214">
+      <c r="H105" s="212">
         <v>39616655</v>
       </c>
       <c r="I105" t="s">
@@ -21875,13 +21869,13 @@
       <c r="E106" s="111">
         <v>15</v>
       </c>
-      <c r="F106" s="203">
+      <c r="F106" s="149">
         <v>174565699</v>
       </c>
       <c r="G106" s="111">
         <v>9</v>
       </c>
-      <c r="H106" s="214">
+      <c r="H106" s="212">
         <v>22061348</v>
       </c>
       <c r="I106" t="s">
@@ -21909,13 +21903,13 @@
       <c r="E107" s="111">
         <v>30</v>
       </c>
-      <c r="F107" s="203">
+      <c r="F107" s="149">
         <v>308840731</v>
       </c>
       <c r="G107" s="111">
         <v>24</v>
       </c>
-      <c r="H107" s="214">
+      <c r="H107" s="212">
         <v>18344124</v>
       </c>
       <c r="I107" t="s">
@@ -21938,13 +21932,13 @@
       <c r="E108" s="111">
         <v>30</v>
       </c>
-      <c r="F108" s="203">
+      <c r="F108" s="149">
         <v>6237688</v>
       </c>
       <c r="G108" s="111">
         <v>25</v>
       </c>
-      <c r="H108" s="214">
+      <c r="H108" s="212">
         <v>360814</v>
       </c>
       <c r="I108" t="s">
@@ -21967,13 +21961,13 @@
       <c r="E109" s="111">
         <v>15</v>
       </c>
-      <c r="F109" s="203">
+      <c r="F109" s="149">
         <v>110480040</v>
       </c>
       <c r="G109" s="111">
         <v>10</v>
       </c>
-      <c r="H109" s="214">
+      <c r="H109" s="212">
         <v>12764710</v>
       </c>
       <c r="I109" t="s">
@@ -21999,13 +21993,13 @@
       <c r="E110" s="111">
         <v>30</v>
       </c>
-      <c r="F110" s="203">
+      <c r="F110" s="149">
         <v>267992582</v>
       </c>
       <c r="G110" s="111">
         <v>25</v>
       </c>
-      <c r="H110" s="214">
+      <c r="H110" s="212">
         <v>15501831</v>
       </c>
       <c r="I110" t="s">
@@ -22028,13 +22022,13 @@
       <c r="E111" s="111">
         <v>20</v>
       </c>
-      <c r="F111" s="203">
+      <c r="F111" s="149">
         <v>248156219</v>
       </c>
       <c r="G111" s="111">
         <v>16</v>
       </c>
-      <c r="H111" s="214">
+      <c r="H111" s="212">
         <v>19650558</v>
       </c>
       <c r="I111" t="s">
@@ -22057,13 +22051,13 @@
       <c r="E112" s="111">
         <v>20</v>
       </c>
-      <c r="F112" s="203">
+      <c r="F112" s="149">
         <v>115636623</v>
       </c>
       <c r="G112" s="111">
         <v>17</v>
       </c>
-      <c r="H112" s="214">
+      <c r="H112" s="212">
         <v>8748885</v>
       </c>
       <c r="I112" t="s">
@@ -22086,13 +22080,13 @@
       <c r="E113" s="111">
         <v>20</v>
       </c>
-      <c r="F113" s="203">
+      <c r="F113" s="149">
         <v>-247092243</v>
       </c>
       <c r="G113" s="111">
         <v>18</v>
       </c>
-      <c r="H113" s="214">
+      <c r="H113" s="212">
         <v>-17922161</v>
       </c>
       <c r="I113" t="s">
@@ -22115,13 +22109,13 @@
       <c r="E114" s="111">
         <v>25</v>
       </c>
-      <c r="F114" s="203">
+      <c r="F114" s="149">
         <v>36762151</v>
       </c>
       <c r="G114" s="111">
         <v>23</v>
       </c>
-      <c r="H114" s="214">
+      <c r="H114" s="212">
         <v>2245855</v>
       </c>
       <c r="I114" t="s">
@@ -22144,13 +22138,13 @@
       <c r="E115" s="111">
         <v>20</v>
       </c>
-      <c r="F115" s="203">
+      <c r="F115" s="149">
         <v>-459826294</v>
       </c>
       <c r="G115" s="111">
         <v>19</v>
       </c>
-      <c r="H115" s="214">
+      <c r="H115" s="212">
         <v>-32070264</v>
       </c>
       <c r="I115" t="s">
@@ -22173,13 +22167,13 @@
       <c r="E116" s="111">
         <v>20</v>
       </c>
-      <c r="F116" s="208">
+      <c r="F116" s="150">
         <v>-228076007</v>
       </c>
       <c r="G116" s="111">
         <v>20</v>
       </c>
-      <c r="H116" s="215">
+      <c r="H116" s="213">
         <v>-15336689</v>
       </c>
       <c r="I116" t="s">
@@ -22202,13 +22196,13 @@
       <c r="E117" s="110">
         <v>17</v>
       </c>
-      <c r="F117" s="207">
+      <c r="F117" s="206">
         <v>-140798</v>
       </c>
       <c r="G117" s="110">
         <v>9</v>
       </c>
-      <c r="H117" s="213">
+      <c r="H117" s="211">
         <v>-17794</v>
       </c>
       <c r="I117" t="s">
@@ -22231,13 +22225,13 @@
       <c r="E118" s="111">
         <v>30</v>
       </c>
-      <c r="F118" s="203">
+      <c r="F118" s="149">
         <v>144427</v>
       </c>
       <c r="G118" s="111">
         <v>22</v>
       </c>
-      <c r="H118" s="214">
+      <c r="H118" s="212">
         <v>9091</v>
       </c>
       <c r="I118" t="s">
@@ -22260,13 +22254,13 @@
       <c r="E119" s="111">
         <v>15</v>
       </c>
-      <c r="F119" s="203">
+      <c r="F119" s="149">
         <v>5220253</v>
       </c>
       <c r="G119" s="111">
         <v>8</v>
       </c>
-      <c r="H119" s="214">
+      <c r="H119" s="212">
         <v>730577</v>
       </c>
       <c r="I119" t="s">
@@ -22289,13 +22283,13 @@
       <c r="E120" s="111">
         <v>15</v>
       </c>
-      <c r="F120" s="203">
+      <c r="F120" s="149">
         <v>1465453</v>
       </c>
       <c r="G120" s="111">
         <v>9</v>
       </c>
-      <c r="H120" s="214">
+      <c r="H120" s="212">
         <v>185202</v>
       </c>
       <c r="I120" t="s">
@@ -22318,13 +22312,13 @@
       <c r="E121" s="111">
         <v>30</v>
       </c>
-      <c r="F121" s="203">
+      <c r="F121" s="149">
         <v>1160776</v>
       </c>
       <c r="G121" s="111">
         <v>24</v>
       </c>
-      <c r="H121" s="214">
+      <c r="H121" s="212">
         <v>68946</v>
       </c>
       <c r="I121" t="s">
@@ -22347,13 +22341,13 @@
       <c r="E122" s="111">
         <v>30</v>
       </c>
-      <c r="F122" s="203">
+      <c r="F122" s="149">
         <v>45146</v>
       </c>
       <c r="G122" s="111">
         <v>25</v>
       </c>
-      <c r="H122" s="214">
+      <c r="H122" s="212">
         <v>2611</v>
       </c>
       <c r="I122" t="s">
@@ -22376,13 +22370,13 @@
       <c r="E123" s="111">
         <v>15</v>
       </c>
-      <c r="F123" s="203">
+      <c r="F123" s="149">
         <v>-394904</v>
       </c>
       <c r="G123" s="111">
         <v>10</v>
       </c>
-      <c r="H123" s="214">
+      <c r="H123" s="212">
         <v>-45627</v>
       </c>
       <c r="I123" t="s">
@@ -22405,13 +22399,13 @@
       <c r="E124" s="111">
         <v>30</v>
       </c>
-      <c r="F124" s="203">
+      <c r="F124" s="149">
         <v>805234</v>
       </c>
       <c r="G124" s="111">
         <v>25</v>
       </c>
-      <c r="H124" s="214">
+      <c r="H124" s="212">
         <v>46578</v>
       </c>
       <c r="I124" t="s">
@@ -22434,13 +22428,13 @@
       <c r="E125" s="111">
         <v>20</v>
       </c>
-      <c r="F125" s="203">
+      <c r="F125" s="149">
         <v>1309407</v>
       </c>
       <c r="G125" s="111">
         <v>16</v>
       </c>
-      <c r="H125" s="214">
+      <c r="H125" s="212">
         <v>103687</v>
       </c>
       <c r="I125" t="s">
@@ -22463,13 +22457,13 @@
       <c r="E126" s="111">
         <v>20</v>
       </c>
-      <c r="F126" s="203">
+      <c r="F126" s="149">
         <v>1256055</v>
       </c>
       <c r="G126" s="111">
         <v>17</v>
       </c>
-      <c r="H126" s="214">
+      <c r="H126" s="212">
         <v>95031</v>
       </c>
       <c r="I126" t="s">
@@ -22492,13 +22486,13 @@
       <c r="E127" s="111">
         <v>20</v>
       </c>
-      <c r="F127" s="203">
+      <c r="F127" s="149">
         <v>-2343160</v>
       </c>
       <c r="G127" s="111">
         <v>18</v>
       </c>
-      <c r="H127" s="214">
+      <c r="H127" s="212">
         <v>-169955</v>
       </c>
       <c r="I127" t="s">
@@ -22521,13 +22515,13 @@
       <c r="E128" s="111">
         <v>25</v>
       </c>
-      <c r="F128" s="203">
+      <c r="F128" s="149">
         <v>-487503</v>
       </c>
       <c r="G128" s="111">
         <v>23</v>
       </c>
-      <c r="H128" s="214">
+      <c r="H128" s="212">
         <v>-29782</v>
       </c>
       <c r="I128" t="s">
@@ -22550,13 +22544,13 @@
       <c r="E129" s="111">
         <v>20</v>
       </c>
-      <c r="F129" s="203">
+      <c r="F129" s="149">
         <v>-2312315</v>
       </c>
       <c r="G129" s="111">
         <v>19</v>
       </c>
-      <c r="H129" s="214">
+      <c r="H129" s="212">
         <v>-161271</v>
       </c>
       <c r="I129" t="s">
@@ -22579,13 +22573,13 @@
       <c r="E130" s="111">
         <v>20</v>
       </c>
-      <c r="F130" s="208">
+      <c r="F130" s="150">
         <v>-1753214</v>
       </c>
       <c r="G130" s="111">
         <v>20</v>
       </c>
-      <c r="H130" s="215">
+      <c r="H130" s="213">
         <v>-117893</v>
       </c>
       <c r="I130" t="s">
